--- a/getpivo/ru/ru.xlsx
+++ b/getpivo/ru/ru.xlsx
@@ -795,7 +795,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A57"/>
+  <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -881,332 +881,12 @@
   &lt;script&gt;!function (o) { function n() { var o = []; function n() { o.push(Array.prototype.slice.apply(arguments)) } return n.q = o, n } var t = o.Shopify = o.Shopify || {}; t.loadFeatures = n(), t.autoloadFeatures = n() }(window);&lt;/script&gt;
   &lt;script&gt;window.ShopifyPay = window.ShopifyPay || {};
     window.ShopifyPay.apiHost = "pay.shopify.com";&lt;/script&gt;
-  &lt;script&gt;(function () {
-      function asyncLoad() {
-        var urls = ["https:\/\/shy.elfsight.com\/p\/platform.js?shop=</v>
+  &lt;script crossorigin="anonymous" data-source-attribution="shopify.loadfeatures" defer="defer" src="js/load_feature-589ff</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str" xml:space="preserve">
-        <v xml:space="preserve">youvr.myshopify.com", "https:\/\/chimpstatic.com\/mcjs-connected\/js\/users\/ba9866d4177c3e496314374f0\/9c425ab15b1006d290779d98c.js?shop=youvr.myshopify.com", "https:\/\/cdn.shopify.com\/s\/files\/1\/2065\/8833\/t\/308\/assets\/basic.js?v=1591164969\u0026shop=youvr.myshopify.com", "https:\/\/affilo.io\/libs\/affi_auto_apply_codes.js?shop=youvr.myshopify.com", "https:\/\/cdn.judge.me\/assets\/installed.js?shop=youvr.myshopify.com", "https:\/\/d1639lhkj5l89m.cloudfront.net\/js\/script_tag\/sca_affiliate.js?shop=youvr.myshopify.com", "https:\/\/cdn.refersion.com\/shop.js?key=pub_0306edf1768126030ebf\u0026check_token=true\u0026shop=youvr.myshopify.com"];
-        for (var i = 0; i &lt; urls.length; i++) {
-          var s = document.createElement('script');
-          s.type = 'text/javascript';
-          s.async = true;
-          s.src = urls[i];
-          var x = document.getElementsByTagName('script')[0];
-          x.parentNode.insertBefore(s, x);
-        }
-      };
-      if (window.attachEvent) {
-        window.attachEvent('onload', asyncLoad);
-      } else {
-        window.addEventListener('load', asyncLoad, false);
-      }
-    })();&lt;/script&gt;
-  &lt;script id="__st"&gt;var __st = { "a": 20658833, "offset": 32400, "reqid": "0f7ec1c6-94f2-4136-b859-b1cf8b886f61", "pageurl": "getpivo.com\/", "u": "770e06789c3a", "p": "home" };&lt;/script&gt;
-  &lt;script&gt;window.ShopifyPaypalV4VisibilityTracking = true;&lt;/script&gt;
-  &lt;script&gt;window.ShopifyAnalytics = window.ShopifyAnalytics || {};
-    window.ShopifyAnalytics.meta = window.ShopifyAnalytics.meta || {};
-    window.ShopifyAnalytics.meta.currency = 'USD';
-    var meta = { "page": { "pageType": "home" } };
-    for (var attr in meta) {
-      window.ShopifyAnalytics.meta[attr] = meta[attr];
-    }&lt;/script&gt;
-  &lt;script&gt;window.ShopifyAnalytics.merchantGoogleAnalytics = function () {
-      window.dataLayer = window.dataLayer || [];
-      function gtag() { dataLayer.push(arguments); }
-      gtag('js', new Date());
-      gtag('config', 'UA-129007769-3',
-        {
-          'linker': { 'domains': ['getpivo.com'] }
-        }
-      );
-      ga('require', 'GTM-PPPK68Q');
-    };
-  &lt;/script&gt;
-  &lt;script class="analytics"&gt;(window.gaDevIds = window.gaDevIds || []).push('BwiEti');
-    (function () {
-      var customDocumentWrite = function (content) {
-        var jquery = null;
-        if (window.jQuery) {
-          jquery = window.jQuery;
-        } else if (window.Checkout &amp;&amp; window.Checkout.$) {
-          jquery = window.Checkout.$;
-        }
-        if (jquery) {
-          jquery('body').append(content);
-        }
-      };
-      var isDuplicatedThankYouPageView = function () {
-        return document.cookie.indexOf('loggedConversion=' + window.location.pathname) !== -1;
-      }
-      var setCookieIfThankYouPage = function () {
-        if (window.location.pathname.indexOf('/checkouts') !== -1 &amp;&amp;
-          window.location.pathname.indexOf('/thank_you') !== -1) {
-          var twoMonthsFromNow = new Date(Date.now());
-          twoMonthsFromN</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str" xml:space="preserve">
-        <v xml:space="preserve">ow.setMonth(twoMonthsFromNow.getMonth() + 2);
-          document.cookie = 'loggedConversion=' + window.location.pathname + '; expires=' + twoMonthsFromNow;
-        }
-      }
-      var trekkie = window.ShopifyAnalytics.lib = window.trekkie = window.trekkie || [];
-      if (trekkie.integrations) {
-        return;
-      }
-      trekkie.methods = [
-        'identify',
-        'page',
-        'ready',
-        'track',
-        'trackForm',
-        'trackLink'
-      ];
-      trekkie.factory = function (method) {
-        return function () {
-          var args = Array.prototype.slice.call(arguments);
-          args.unshift(method);
-          trekkie.push(args);
-          return trekkie;
-        };
-      };
-      for (var i = 0; i &lt; trekkie.methods.length; i++) {
-        var key = trekkie.methods[i];
-        trekkie[key] = trekkie.factory(key);
-      }
-      trekkie.load = function (config) {
-        trekkie.config = config;
-        var script = document.createElement('script');
-        script.type = 'text/javascript';
-        script.onerror = function (e) {
-          (new Image()).src = '//v.shopify.com/internal_errors/track?error=trekkie_load';
-        };
-        script.async = true;
-        script.src = '//cdn.shopify.com/s/javascripts/tricorder/trekkie.storefront.min.js?v=2020.04.13.1';
-        var first = document.getElementsByTagName('script')[0];
-        first.parentNode.insertBefore(script, first);
-      };
-      trekkie.load(
-        { "Trekkie": { "appName": "storefront", "development": false, "defaultAttributes": { "shopId": 20658833, "isMerchantRequest": null, "themeId": 82972344402, "themeCityHash": "16479402654401789107", "contentLanguage": "en", "currency": "USD" }, "isServerSideCookieWritingEnabled": true }, "Performance": { "navigationTimingApiMeasurementsEnabled": true, "navigationTimingApiMeasurementsSampleRate": 1 }, "Google Analytics": { "trackingId": "UA-129007769-3", "domain": "auto", "siteSpeedSampleRate": "10", "enhancedEcommerce": true, "doubleClick": true, "includeSearch": true }, "Facebook Pixel": { "pixelIds": ["745969829165253", "329101937939042"], "agent": "plshopify1.2" }, "Session Attribution": {} }
-      );
-      var loaded = false;
-      trekkie.ready(function () {
-        if (loaded) return;
-        loaded = true;
-        window.ShopifyAnalytics.lib = window.trekkie;
-        ga('require', 'linker');
-        function addListener(element, type, callback) {
-          if (element.addEventListener) {
-            element.addEventListener(type, callback);
-          }
-          else if (element.attachEvent) {
-            element.attachEvent('on' + type, callback);
-          }
-        }
-        function decorate(event) {
-          event = event || window.event;
-          var target = event.target || event.srcElement;
-          if (target &amp;&amp; (target.getAttribute('action') || target.getAttribute('href'))) {
-            ga(function (tracker) {
-              var linkerParam = tracker.get('linkerParam');
-              document.c</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str" xml:space="preserve">
-        <v xml:space="preserve">ookie = '_shopify_ga=' + linkerParam + '; ' + 'path=/';
-            });
-          }
-        }
-        addListener(window, 'load', function () {
-          for (var i = 0; i &lt; document.forms.length; i++) {
-            var action = document.forms[i].getAttribute('action');
-            if (action &amp;&amp; action.indexOf('/cart') &gt;= 0) {
-              addListener(document.forms[i], 'submit', decorate);
-            }
-          }
-          for (var i = 0; i &lt; document.links.length; i++) {
-            var href = document.links[i].getAttribute('href');
-            if (href &amp;&amp; href.indexOf('/checkout') &gt;= 0) {
-              addListener(document.links[i], 'click', decorate);
-            }
-          }
-        });
-        var originalDocumentWrite = document.write;
-        document.write = customDocumentWrite;
-        try { window.ShopifyAnalytics.merchantGoogleAnalytics.call(this); } catch (error) { };
-        document.write = originalDocumentWrite;
-        (function () {
-          if (window.BOOMR &amp;&amp; (window.BOOMR.version || window.BOOMR.snippetExecuted)) {
-            return;
-          }
-          window.BOOMR = window.BOOMR || {};
-          window.BOOMR.snippetStart = new Date().getTime();
-          window.BOOMR.snippetExecuted = true;
-          window.BOOMR.snippetVersion = 12;
-          window.BOOMR.application = "storefront-renderer";
-          window.BOOMR.shopId = 20658833;
-          window.BOOMR.themeId = 82972344402;
-          window.BOOMR.url =
-            "https://cdn.shopify.com/shopifycloud/boomerang/shopify-boomerang-1.0.0.min.js";
-          var where = document.currentScript || document.getElementsByTagName("script")[0];
-          var parentNode = where.parentNode;
-          var promoted = false;
-          var LOADER_TIMEOUT = 3000;
-          function promote() {
-            if (promoted) {
-              return;
-            }
-            var script = document.createElement("script");
-            script.id = "boomr-scr-as";
-            script.src = window.BOOMR.url;
-            script.async = true;
-            parentNode.appendChild(script);
-            promoted = true;
-          }
-          function iframeLoader(wasFallback) {
-            promoted = true;
-            var dom, bootstrap, iframe, iframeStyle;
-            var doc = document;
-            var win = window;
-            window.BOOMR.snippetMethod = wasFallback ? "if" : "i";
-            bootstrap = function (parent, scriptId) {
-              var script = doc.createElement("script");
-              script.id = scriptId || "boomr-if-as";
-              script.src = window.BOOMR.url;
-              BOOMR_lstart = new Date().getTime();
-              parent = parent || doc.body;
-              parent.appendChild(script);
-            };
-            if (!window.addEventListener &amp;&amp; window.attachEvent &amp;&amp; navigator.userAgent.match(/MSIE [67]./)) {
-              window.BOOMR.snippetMethod = "s";
-              bootstrap(parentNode, "boomr-async");
-              return;
-            }
-            iframe =</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str" xml:space="preserve">
-        <v xml:space="preserve"> document.createElement("IFRAME");
-            iframe.src = "about:blank";
-            iframe.title = "";
-            iframe.role = "presentation";
-            iframe.loading = "eager";
-            iframeStyle = (iframe.frameElement || iframe).style;
-            iframeStyle.width = 0;
-            iframeStyle.height = 0;
-            iframeStyle.border = 0;
-            iframeStyle.display = "none";
-            parentNode.appendChild(iframe);
-            try {
-              win = iframe.contentWindow;
-              doc = win.document.open();
-            } catch (e) {
-              dom = document.domain;
-              iframe.src = "javascript:var d=document.open();d.domain='" + dom + "';void(0);";
-              win = iframe.contentWindow;
-              doc = win.document.open();
-            }
-            if (dom) {
-              doc._boomrl = function () {
-                this.domain = dom;
-                bootstrap();
-              };
-              doc.write("&lt;body onload='document._boomrl();'&gt;");
-            } else {
-              win._boomrl = function () {
-                bootstrap();
-              };
-              if (win.addEventListener) {
-                win.addEventListener("load", win._boomrl, false);
-              } else if (win.attachEvent) {
-                win.attachEvent("onload", win._boomrl);
-              }
-            }
-            doc.close();
-          }
-          var link = document.createElement("link");
-          if (link.relList &amp;&amp;
-            typeof link.relList.supports === "function" &amp;&amp;
-            link.relList.supports("preload") &amp;&amp;
-            ("as" in link)) {
-            window.BOOMR.snippetMethod = "p";
-            link.href = window.BOOMR.url;
-            link.rel = "preload";
-            link.as = "script";
-            link.addEventListener("load", promote);
-            link.addEventListener("error", function () {
-              iframeLoader(true);
-            });
-            setTimeout(function () {
-              if (!promoted) {
-                iframeLoader(true);
-              }
-            }, LOADER_TIMEOUT);
-            BOOMR_lstart = new Date().getTime();
-            parentNode.appendChild(link);
-          } else {
-            iframeLoader(false);
-          }
-          function boomerangSaveLoadTime(e) {
-            window.BOOMR_onload = (e &amp;&amp; e.timeStamp) || new Date().getTime();
-          }
-          if (window.addEventListener) {
-            window.addEventListener("load", boomerangSaveLoadTime, false);
-          } else if (window.attachEvent) {
-            window.attachEvent("onload", boomerangSaveLoadTime);
-          }
-          if (document.addEventListener) {
-            document.addEventListener("onBoomerangLoaded", function (e) {
-              e.detail.BOOMR.init({
-                producer_url: "https://monorail-edge.shopifysvc.com/v1/produce",
-                ResourceTiming: {
-                  enabled: true,
-                  trackedResourceTypes: ["script", "img", "css"]
-                },
-         </v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str" xml:space="preserve">
-        <v xml:space="preserve">     });
-              e.detail.BOOMR.t_end = new Date().getTime();
-            });
-          } else if (document.attachEvent) {
-            document.attachEvent("onpropertychange", function (e) {
-              if (!e) e = event;
-              if (e.propertyName === "onBoomerangLoaded") {
-                e.detail.BOOMR.init({
-                  producer_url: "https://monorail-edge.shopifysvc.com/v1/produce",
-                  ResourceTiming: {
-                    enabled: true,
-                    trackedResourceTypes: ["script", "img", "css"]
-                  },
-                });
-                e.detail.BOOMR.t_end = new Date().getTime();
-              }
-            });
-          }
-        })();
-        if (!isDuplicatedThankYouPageView()) {
-          setCookieIfThankYouPage();
-          window.ShopifyAnalytics.lib.page(
-            null,
-            { "pageType": "home" }
-          );
-        }
-      });
-      var eventsListenerScript = document.createElement('script');
-      eventsListenerScript.async = true;
-      eventsListenerScript.src = "//cdn.shopify.com/s/assets/shop_events_listener-43fce3d908d9bd272394a7b71efb84146cdd385cdb9ca0fd444b2281d7f9b65a.js";
-      document.getElementsByTagName('head')[0].appendChild(eventsListenerScript);
-    })();&lt;/script&gt;
-  &lt;script crossorigin="anonymous" data-source-attribution="shopify.loadfeatures" defer="defer" src="js/load_feature-589ff3342d639ed23c94f5fc11e03d64e0788e2a4a687391ebeeeef20eaf2f50.js"&gt;&lt;/script&gt;
+        <v xml:space="preserve">3342d639ed23c94f5fc11e03d64e0788e2a4a687391ebeeeef20eaf2f50.js"&gt;&lt;/script&gt;
   &lt;script crossorigin="anonymous" defer="defer" src="js/storefront-21b5dddfc8b64c1ad68cee3ba7448d1ffa15c24e969ebc1fbccf1a3784b659ad.js"&gt;&lt;/script&gt;
   &lt;script data-source-attribution="shopify.dynamic-checkout" defer="defer" src="js/features-87e8399988880142f2c62771b9d8f2ff6c290b3ff745dd426eb0dfe0db9d1dae.js" crossorigin="anonymous"&gt;&lt;/script&gt;
   &lt;style id="shopify-dynamic-checkout-cart"&gt;
@@ -1256,12 +936,7 @@
       padding: 5px 20px;
       border-radius: 60px;
       width: 200px;
-      font-we</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8" t="str" xml:space="preserve">
-        <v xml:space="preserve">ight: 700;
+      font-weight: 700;
       letter-spacing: 1px;
       text-align: center;
       line-height: 2.2;
@@ -1310,6 +985,12 @@
     .main-content .shopify-section {
       display: none;
     }
+</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str" xml:space="preserve">
+        <v xml:space="preserve">
     .main-content .shopify-section:first-child {
       display: inherit;
     }
@@ -1377,12 +1058,7 @@
         line-height: 1.5;
       }
     }
- </v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
-      <c r="A9" t="str" xml:space="preserve">
-        <v xml:space="preserve">   /* ------------------------------ Buttons ----------------------------------- */
+    /* ------------------------------ Buttons ----------------------------------- */
     .btn,
     .btn--secondary {
       -moz-user-select: "none";
@@ -1438,7 +1114,12 @@
       top: 0;
       left: 0;
       width: 100%;
-      height: 100%;
+ </v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str" xml:space="preserve">
+        <v xml:space="preserve">     height: 100%;
       outline: 2px solid #df0f4f;
       transition: outline 0.1s linear;
     }
@@ -1500,12 +1181,7 @@
     }
     .announcement-bar__close {
       position: absolute;
-      righ</v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10" t="str" xml:space="preserve">
-        <v xml:space="preserve">t: 20px;
+      right: 20px;
       padding: 0;
       width: 30px;
       height: 30px;
@@ -1562,7 +1238,12 @@
     @media only screen and (max-width: 749px) {
       .site-header__logo-image {
         max-height: 30px;
-      }
+ </v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str" xml:space="preserve">
+        <v xml:space="preserve">     }
     }
     .site-header__logo-image--transparent {
       display: none;
@@ -1626,12 +1307,7 @@
       height: 2px;
       width: 16px;
       left: 50%;
-      margin-l</v>
-      </c>
-    </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11" t="str" xml:space="preserve">
-        <v xml:space="preserve">eft: -8px;
+      margin-left: -8px;
       background: #df0f4f;
       position: absolute;
       transition: all 0.25s ease-out;
@@ -1691,7 +1367,12 @@
     }
     /* ----------------------------- Slideshow --------------------------------- */
     .slideshow {
-      display: -webkit-flex;
+      display: -webkit-fl</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str" xml:space="preserve">
+        <v xml:space="preserve">ex;
       display: -ms-flexbox;
       display: flex;
       width: 100%;
@@ -1754,19 +1435,19 @@
       left: 0;
     }
   &lt;/style&gt;
-  &lt;link title="theme" rel="preload" href="//cdn.</v>
-      </c>
-    </row>
-    <row r="12" xml:space="preserve">
-      <c r="A12" t="str" xml:space="preserve">
-        <v xml:space="preserve">shopify.com/s/files/1/2065/8833/t/308/assets/theme.scss.css?v=8221659769997418919" as="style"&gt;
+  &lt;link title="theme" rel="preload" href="//cdn.shopify.com/s/files/1/2065/8833/t/308/assets/theme.scss.css?v=8221659769997418919" as="style"&gt;
   &lt;noscript&gt;&lt;span data-translate="2"&gt;&lt;span data-translate="2"&gt;
       &lt;link rel="stylesheet" href="css/theme.scss.css"&gt;&lt;/span&gt;&lt;/span&gt;&lt;/noscript&gt;
   &lt;script&gt;
     /*! loadCSS. [c]2017 Filament Group, Inc. MIT License */
     !function (a) { "use strict"; var b = function (b, c, d) { function e(a) { return h.body ? a() : void setTimeout(function () { e(a) }) } function f() { i.addEventListener &amp;&amp; i.removeEventListener("load", f); if (!Shopify.designMode) i.media = d || "all" } var g, h = a.document, i = h.createElement("link"); if (c) g = c; else { var j = (h.body || h.getElementsByTagName("head")[0]).childNodes; g = j[j.length - 1] } var k = h.styleSheets; i.rel = "stylesheet", i.href = b, i.media = Shopify.designMode ? d || "all" : "only x", e(function () { g.parentNode.insertBefore(i, c ? g : g.nextSibling) }); var l = function (a) { for (var b = i.href, c = k.length; c--;)if (k[c].href === b) return a(); setTimeout(function () { l(a) }) }; return i.addEventListener &amp;&amp; i.addEventListener("load", f), i.onloadcssdefined = l, l(f), i }; "undefined" != typeof exports ? exports.loadCSS = b : a.loadCSS = b }("undefined" != typeof global ? global : this);
     /*! onloadCSS. (onload callback for loadCSS) [c]2017 Filament Group, Inc. MIT License */
-    function onloadCSS(a, b) { function c() { !d &amp;&amp; b &amp;&amp; (d = !0, b.call(a)) } var d; a.addEventListener &amp;&amp; a.addEventListener("load", c), a.attachEvent &amp;&amp; a.attachEvent("onload", c), "isApplicationInstalled" in navigator &amp;&amp; "onloadcssdefined" in a &amp;&amp; a.onloadcssdefined(c) }
+    function onloadCSS(a, b) { function c() { !d &amp;&amp; b &amp;&amp; (d </v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str" xml:space="preserve">
+        <v xml:space="preserve">= !0, b.call(a)) } var d; a.addEventListener &amp;&amp; a.addEventListener("load", c), a.attachEvent &amp;&amp; a.attachEvent("onload", c), "isApplicationInstalled" in navigator &amp;&amp; "onloadcssdefined" in a &amp;&amp; a.onloadcssdefined(c) }
     // Insert our stylesheet before our preload &lt;link&gt; tag
     var preload = document.querySelector('link[href="//cdn.shopify.com/s/files/1/2065/8833/t/308/assets/theme.scss.css?v=8221659769997418919"]');
     var stylesheet = loadCSS('//cdn.shopify.com/s/files/1/2065/8833/t/308/assets/theme.scss.css?v=8221659769997418919', preload);
@@ -1791,12 +1472,7 @@
         },
         map: {
           zeroResults: "No results for that address",
-          overQueryLimit: "You have exceeded the Google API usage limit. Consider upgrading to a \u003ca href=\"https:\/\/</v>
-      </c>
-    </row>
-    <row r="13" xml:space="preserve">
-      <c r="A13" t="str" xml:space="preserve">
-        <v xml:space="preserve">developers.google.com\/maps\/premium\/usage-limits\"\u003ePremium Plan\u003c\/a\u003e.",
+          overQueryLimit: "You have exceeded the Google API usage limit. Consider upgrading to a \u003ca href=\"https:\/\/developers.google.com\/maps\/premium\/usage-limits\"\u003ePremium Plan\u003c\/a\u003e.",
           authError: "There was a problem authenticating your Google Maps API Key.",
           addressError: "Error looking up that address"
         }
@@ -1832,19 +1508,19 @@
   &lt;!-- start Mixpanel --&gt;
   &lt;script type="text/javascript"&gt;(function (c, a) {
       if (!a.__SV) {
-        var b = window; try { var d, m, j, k = b.location, f = k.hash; d = function (a, b) { return (m = a.match(RegExp(b + "=([^&amp;]*)"))) ? m[1] : null }; f &amp;&amp; d(f, "state") &amp;&amp; (j = JSON.parse(decodeURIComponent(d(f, "state"))), "mpeditor" === j.action &amp;&amp; (b.sessionStorage.setItem("_mpcehash", f), history.replaceState(j.desiredHash || "", c.title, k.pathname + k.search))) } catch (n) { } var l, h; window.mixpanel = a; a._i = []; a.init = function (b, d, g) {
+        var b = window; try { var d, m, j, k = b.location, f </v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str" xml:space="preserve">
+        <v xml:space="preserve">= k.hash; d = function (a, b) { return (m = a.match(RegExp(b + "=([^&amp;]*)"))) ? m[1] : null }; f &amp;&amp; d(f, "state") &amp;&amp; (j = JSON.parse(decodeURIComponent(d(f, "state"))), "mpeditor" === j.action &amp;&amp; (b.sessionStorage.setItem("_mpcehash", f), history.replaceState(j.desiredHash || "", c.title, k.pathname + k.search))) } catch (n) { } var l, h; window.mixpanel = a; a._i = []; a.init = function (b, d, g) {
           function c(b, i) {
             var a = i.split("."); 2 == a.length &amp;&amp; (b = b[a[0]], i = a[1]); b[i] = function () {
               b.push([i].concat(Array.prototype.slice.call(arguments,
                 0)))
             }
           } var e = a; "undefined" !== typeof g ? e = a[g] = [] : g = "mixpanel"; e.people = e.people || []; e.toString = function (b) { var a = "mixpanel"; "mixpanel" !== g &amp;&amp; (a += "." + g); b || (a += " (stub)"); return a }; e.people.toString = function () { return e.toString(1) + ".people (stub)" }; l = "disable time_event track track_pageview track_links track_forms track_with_groups add_group set_group remove_group register register_once alias unregister identify name_tag set_config reset opt_in_tracking opt_out_tracking has_opted_in_tracking has_opted_out_tracking clear_opt_in_out_tracking people.set people.set_once people.unset people.increment people.append people.union people.track_charge people.clear_charges people.delete_user people.remove".split(" ");
-          for (h = 0; h &lt; l.length; h++)c(e, l[h]); var f = "set set_once union unset remove delete".split(" "); e.get_group = function () { function a(c) { b[c] = function () { c</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14" t="str" xml:space="preserve">
-        <v xml:space="preserve">all2_args = arguments; call2 = [c].concat(Array.prototype.slice.call(call2_args, 0)); e.push([d, call2]) } } for (var b = {}, d = ["get_group"].concat(Array.prototype.slice.call(arguments, 0)), c = 0; c &lt; f.length; c++)a(f[c]); return b }; a._i.push([b, d, g])
+          for (h = 0; h &lt; l.length; h++)c(e, l[h]); var f = "set set_once union unset remove delete".split(" "); e.get_group = function () { function a(c) { b[c] = function () { call2_args = arguments; call2 = [c].concat(Array.prototype.slice.call(call2_args, 0)); e.push([d, call2]) } } for (var b = {}, d = ["get_group"].concat(Array.prototype.slice.call(arguments, 0)), c = 0; c &lt; f.length; c++)a(f[c]); return b }; a._i.push([b, d, g])
         }; a.__SV = 1.2; b = c.createElement("script"); b.type = "text/javascript"; b.async = !0; b.src = "undefined" !== typeof MIXPANEL_CUSTOM_LIB_URL ?
           MIXPANEL_CUSTOM_LIB_URL : "file:" === c.location.protocol &amp;&amp; "//cdn4.mxpnl.com/libs/mixpanel-2-latest.min.js".match(/^\/\//) ? "https://cdn4.mxpnl.com/libs/mixpanel-2-latest.min.js" : "//cdn4.mxpnl.com/libs/mixpanel-2-latest.min.js"; d = c.getElementsByTagName("script")[0]; d.parentNode.insertBefore(b, d)
       }
@@ -1876,7 +1552,12 @@
       align-items: center;
       justify-content: space-between;
     }
-    .preload_header-left {
+    .preload</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str" xml:space="preserve">
+        <v xml:space="preserve">_header-left {
       background: #eee;
       border-radius: 100px;
       width: 200px;
@@ -1915,12 +1596,7 @@
       /* Chrome10+,Safari5.1+ */
       background: -o-linear-gradient(left, rgba(255, 255, 255, 0) 0%, rgba(255, 255, 255, 0.8) 50%, rgba(128, 186, 232, 0) 99%, rgba(125, 185, 232, 0) 100%);
       /* Opera 11.10+ */
-      background: -ms-linear-gradient(le</v>
-      </c>
-    </row>
-    <row r="15" xml:space="preserve">
-      <c r="A15" t="str" xml:space="preserve">
-        <v xml:space="preserve">ft, rgba(255, 255, 255, 0) 0%, rgba(255, 255, 255, 0.8) 50%, rgba(128, 186, 232, 0) 99%, rgba(125, 185, 232, 0) 100%);
+      background: -ms-linear-gradient(left, rgba(255, 255, 255, 0) 0%, rgba(255, 255, 255, 0.8) 50%, rgba(128, 186, 232, 0) 99%, rgba(125, 185, 232, 0) 100%);
       /* IE10+ */
       background: linear-gradient(to right, rgba(255, 255, 255, 0) 0%, rgba(255, 255, 255, 0.8) 50%, rgba(128, 186, 232, 0) 99%, rgba(125, 185, 232, 0) 100%);
       /* W3C */
@@ -1948,7 +1624,12 @@
       display: none !important
     }
     .jdgm-author-all-initials {
-      display: none !important
+      display: none !important</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str" xml:space="preserve">
+        <v xml:space="preserve">
     }
     .jdgm-author-last-initial {
       display: none !important
@@ -2004,12 +1685,7 @@
         transform: rotate(0deg)
       }
       100% {
-        -webkit</v>
-      </c>
-    </row>
-    <row r="16" xml:space="preserve">
-      <c r="A16" t="str" xml:space="preserve">
-        <v xml:space="preserve">-transform: rotate(359deg);
+        -webkit-transform: rotate(359deg);
         -ms-transform: rotate(359deg);
         transform: rotate(359deg)
       }
@@ -2028,7 +1704,12 @@
     }
     @font-face {
       font-family: 'JudgemeStar';
-      src: url("data:application/x-font-woff;charset=utf-8;base64,d09GRgABAAAAAAScAA0AAAAABrAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABGRlRNAAAEgAAAABoAAAAcbyQ+3kdERUYAAARgAAAAHgAAACAAMwAGT1MvMgAAAZgAAABGAAAAVi+vS9xjbWFwAAAB8AAAAEAAAAFKwBMjvmdhc3AAAARYAAAACAAAAAj//wADZ2x5ZgAAAkAAAAEJAAABdH33LXtoZWFkAAABMAAAAC0AAAA2BroQKWhoZWEAAAFgAAAAHAAAACQD5QHQaG10eAAAAeAAAAAPAAAAFAYAAABsb2NhAAACMAAAAA4AAAAOAO4AeG1heHAAAAF8AAAAHAAAACAASgAvbmFtZQAAA0wAAADeAAABkorWfVZwb3N0AAAELAAAACkAAABEp3ubLXgBY2BkYADhPPP4OfH8Nl8ZuJkYQODS2fRrCPr/aSYGxq1ALgcDWBoAO60LkwAAAHgBY2BkYGDc+v80gx4TAwgASaAICmABAFB+Arl4AWNgZGBgYGPQYWBiAAIwyQgWc2AAAwAHVQB6eAFjYGRiYJzAwMrAwejDmMbAwOAOpb8ySDK0MDAwMbByMsCBAAMCBKS5pjA4PGB4wMR44P8BBj3GrQymQGFGkBwAjtgK/gAAeAFjYoAAEA1jAwAAZAAHAHgB3crBCcAwDEPRZydkih567CDdf4ZskmLwFBV8xBfCaC4BXkOUmx4sU0h2ngNb9V0vQCxaRKIAevT7fGWuBrEAAAAAAAAAAAA0AHgAugAAeAF9z79Kw1AUx/FzTm7un6QmJtwmQ5Bg1abgEGr/BAqlU6Gju+Cgg1MkQ/sA7Vj7BOnmO/gUvo2Lo14NqIO6/IazfD8HEODtmQCfoANwNsyp2/GJt3WKQrd1NLiYYWx2PBqOsmJMEOznPOTzfSCrhAtbbLdmeFLJV9eKd63WLrZcIcuaEVdssWCKM6pLCfTVOYbz/0pNSMSZKLIZpvh78sAUH6PlMrreTCabP9r+Z/puPZ2ur/RqpQHgh+MIegCnXeM4MRAPjYN//5tj4ZtTjkFqEdmeMShlEJ7tVAly2TAkx6R68Fl4E/aVvn8JqHFQ4JS1434gXKcuL31dDhzs3YbsEOAd/IU88gAAAHgBfY4xTgMxEEVfkk0AgRCioKFxQYd2ZRtpixxgRU2RfhU5q5VWseQ4JdfgAJyBlmNwAM7ABRhZQ0ORwp7nr+eZAa54YwYg9zm3ynPOeFRe8MCrciXOh/KSS76UV5L/iDmrLiS5AeU519wrL3jmSbkS5115yR2fyivJv9kx0ZMZ2RLZw27q87iNQi8EBo5FSPIMw3HqBboi5lKTGAGDp8FKXWP+t9TU01Lj5His1Ba6uM9dTEMwvrFmbf5GC/q2drW3ruXUhhsCiQOjznFlCzYhHUZp4xp76vsvQh89CQAAeAFjYGJABowM6IANLMrEyMTIzMjCXpyRWJBqZshWXJJYBKOMAFHFBucAAAAAAAAB//8AAngBY2BkYGDgA2IJBhBgAvKZGViBJAuYxwAABJsAOgAAeAFjYGBgZACCk535hiD60tn0azAaAEqpB6wAAA==") format("woff");
+      src: url("data:application/x-font-woff;charset=utf-8;base64,d09GRgABAAAAAAScAA0AAAAABrAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABGRlRNAAAEgAAAABoAAAAcbyQ+3kdERUYAAARgAAAAHgAAACAAMwAGT1MvMgAAAZgAAABGAAAAVi+vS9xjbWFwAAAB8AAAAEAAAAFKwBMjvmdhc3AAAARYAAAACAAAAAj//wADZ2x5ZgAAAkAAAAEJAAABdH33LXtoZWFkAAABMAAAAC0AAAA2BroQKWhoZWEAAAFgAAAAHAAAACQD5QHQaG10eAAAAeAAAAAPAAAAFAYAAABsb2NhAAACMAAAAA4AAAAOAO4AeG1heHAAAAF8AAAAHAAAACAASgAvbmFtZQAAA0wAAADeAAABkorWfVZwb3N0AAAELAAAACkAAABEp3ubLXgBY2BkYADhPPP4OfH8Nl8ZuJkYQODS2fRrCPr/aSYGxq1ALgcDWBoAO60LkwAAAHgBY2BkYGDc+v80gx4TAwgASaAICmABAFB+Arl4AWNgZGBgYGPQYWBiAAIwyQgWc2AAAwAHVQB6eAFjYGRiYJzAwMrAwejDmMbAwOAOpb8ySDK0MDAwMbByMsCBAAMCBKS5pjA4PGB4wMR44P8BBj3GrQymQGFGkBwAjtgK/gAAeAFjYoAAEA1jAwAAZAAHAHgB3crBCcAwDEPRZydkih567CDdf4ZskmLwFBV8xBfCaC4BXkOUmx4sU0h2ngNb9V0vQCxaRKIAevT7fGWuBrEAAAAAAAAAAAA0AHgAugAAeAF9z79Kw1AUx/FzTm7un6QmJtwmQ5Bg1abgEGr/BAqlU6Gju+Cgg1MkQ/sA7Vj7BOnmO/gUvo2Lo14NqIO6/IazfD8HEODtmQCfoANwNsyp2/G</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Jt3WKQrd1NLiYYWx2PBqOsmJMEOznPOTzfSCrhAtbbLdmeFLJV9eKd63WLrZcIcuaEVdssWCKM6pLCfTVOYbz/0pNSMSZKLIZpvh78sAUH6PlMrreTCabP9r+Z/puPZ2ur/RqpQHgh+MIegCnXeM4MRAPjYN//5tj4ZtTjkFqEdmeMShlEJ7tVAly2TAkx6R68Fl4E/aVvn8JqHFQ4JS1434gXKcuL31dDhzs3YbsEOAd/IU88gAAAHgBfY4xTgMxEEVfkk0AgRCioKFxQYd2ZRtpixxgRU2RfhU5q5VWseQ4JdfgAJyBlmNwAM7ABRhZQ0ORwp7nr+eZAa54YwYg9zm3ynPOeFRe8MCrciXOh/KSS76UV5L/iDmrLiS5AeU519wrL3jmSbkS5115yR2fyivJv9kx0ZMZ2RLZw27q87iNQi8EBo5FSPIMw3HqBboi5lKTGAGDp8FKXWP+t9TU01Lj5His1Ba6uM9dTEMwvrFmbf5GC/q2drW3ruXUhhsCiQOjznFlCzYhHUZp4xp76vsvQh89CQAAeAFjYGJABowM6IANLMrEyMTIzMjCXpyRWJBqZshWXJJYBKOMAFHFBucAAAAAAAAB//8AAngBY2BkYGDgA2IJBhBgAvKZGViBJAuYxwAABJsAOgAAeAFjYGBgZACCk535hiD60tn0azAaAEqpB6wAAA==") format("woff");
       font-weight: normal;
       font-style: normal
     }
@@ -2064,12 +1745,7 @@
       -webkit-box-sizing: border-box;
       -moz-box-sizing: border-box;
       box-sizing: border-box;
-      -webkit-overf</v>
-      </c>
-    </row>
-    <row r="17" xml:space="preserve">
-      <c r="A17" t="str" xml:space="preserve">
-        <v xml:space="preserve">low-scrolling: touch
+      -webkit-overflow-scrolling: touch
     }
     .jdgm-hidden {
       display: none !important;
@@ -2106,7 +1782,12 @@
 &lt;/head&gt;
 &lt;body id="pivo" class="template-index data-animations"&gt;
   &lt;a class="visually-hidden skip-link" href="#MainContent"&gt;&lt;span data-translate="4"&gt;Перейти к содержанию&lt;/span&gt;&lt;/a&gt;
-  &lt;div class="preload_header"&gt;
+  &lt;d</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str" xml:space="preserve">
+        <v xml:space="preserve">iv class="preload_header"&gt;
     &lt;div class="preload_header-fakeBox"&gt;
       &lt;div class="preload_header-items preload_header-left"&gt;&lt;/div&gt;
       &lt;div class="preload_header-right-box"&gt;
@@ -2150,83 +1831,78 @@
     #Slideshow-slideshow .slideshow__heading,
     #Slideshow-slideshow .slideshow__button-label {
       color: #ffffff;
-    </v>
-      </c>
-    </row>
-    <row r="18" xml:space="preserve">
-      <c r="A18" t="str" xml:space="preserve">
-        <v xml:space="preserve">}
+    }
   &lt;/style&gt;
 &lt;div data-section-id="slideshow" data-section-type="slideshow-section"&gt;
   &lt;div id="Slideshow-slideshow" class="slideshow"&gt;
       &lt;div class="slideshow__image slideshow__image-- slideshow__overlay"&gt;
         &lt;div class="placeholder-background"&gt;
-          &lt;svg class="placeholder-svg" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 1052 400"&gt;&lt;path d="M727.6 121.3c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28.1c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zm-183.5 62.1c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28.1c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zm235.5 236.1c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zM43.9 47.9c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zm252.3 236c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zm706.2-190.7c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zM764.7 283.5c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zM525 40.9c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zm37.7 327.7c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zM50.9 276.5c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.5 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.6-6-6-6zM93.6 68.7c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zm194.1-13.8c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zm534.9 45c-2.3 0-4.2-1.9-4.2-4.2s1.9-4.2 4.2-4.2c2.3 0 4.2 1.9 4.2 4.2s-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.5-3.2-3.2-3.2zm-124 31.9c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2s4.2 1.9 4.2 4.2c0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zM544.1 44.1c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.5-3.2-3.2-3.2zM310.2 268.5c-2.3 0-4.2-1.9-4.2-4.2s1.9-4.2 4.2-4.2c2.3 0 4.2 1.9 4.2 4.2s-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zm-9.1-213.3c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zM26.6 64.9c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zm776.9 268c-2.3 0-4.2-1.9-4.2-4.2s1.9-4.2 4.2-4.2c2.3 0 4.2 1.9 4.2 4.2s-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1</v>
+          &lt;svg class="placeholder-svg" xmlns="http://www.w3.org/2000/svg" viewBox="0 0 1052 400"&gt;&lt;path d="M727.6 121.3c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28.1c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zm-183.5 62.1c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28.1c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zm235.5 236.1c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zM43.9 47.9c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zm252.3 236c-8.3 0-15-6.7-15-15s6.7-15 15-15 15 6.7 15 15-6.7 15-15 15zm0-28c-7.2 0-13 5.8-13 13s5.8 13 13 13 13-5.8 13-13-5.8-13-13-13zm706.2-190.7c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zM764.7 283.5c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zM525 40.9c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zm37.7 327.7c-4.4 0-8-3.</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zM50.9 276.5c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.5 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.6-6-6-6zM93.6 68.7c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zm194.1-13.8c-4.4 0-8-3.6-8-8s3.6-8 8-8 8 3.6 8 8-3.6 8-8 8zm0-14c-3.3 0-6 2.7-6 6s2.7 6 6 6 6-2.7 6-6-2.7-6-6-6zm534.9 45c-2.3 0-4.2-1.9-4.2-4.2s1.9-4.2 4.2-4.2c2.3 0 4.2 1.9 4.2 4.2s-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.5-3.2-3.2-3.2zm-124 31.9c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2s4.2 1.9 4.2 4.2c0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zM544.1 44.1c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.5-3.2-3.2-3.2zM310.2 268.5c-2.3 0-4.2-1.9-4.2-4.2s1.9-4.2 4.2-4.2c2.3 0 4.2 1.9 4.2 4.2s-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zm-9.1-213.3c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zM26.6 64.9c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zm776.9 268c-2.3 0-4.2-1.9-4.2-4.2s1.9-4.2 4.2-4.2c2.3 0 4.2 1.9 4.2 4.2s-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.5-3.2-3.2-3.2zm-234.9 13.1c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zm-528.4-75c-2.3 0-4.2-1.9-4.2-4.2s1.9-4.2 4.2-4.2 4.2 1.9 4.2 4.2-1.8 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zm980.9-3.2c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zM463.5 272c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.5-3.2-3.2-3.2zm564.4-88.1L897.9 9.1c-.4-.5-1.2-.5-1.6 0L766.2 176.4c-.2.3-.3.8-.1 1.2.2.3.5.7.9.7h260.1c.4 0 .7-.3.9-.7.2-.4.1-.8-.1-1.1zm-156.5-16.7l-4.8 1.5c-1.8-13.9 2.7-25.4 13.2-34.1.2-.2.2-.5.1-.7-.2-.2-.5-.2-.7-.1-10.9 9-15.4 20.9-13.5 35.2-.5.2-1.1.4-1.7.5-1.2.4-2.3.8-3.5 1.2-.7-3.3-1.4-6.2-2.2-8.7-.1-.3-.4-.4-.6-.3-.3.1-.4.4-.3.6.8 2.5 1.5 5.4 2.2 8.7-1.7.6-3.4 1.1-5.1 1.7-5.6-22.4-9.8-21.8-35.3-18.4-3.2.4-6.8.9-10.8 1.4-4.1.5-7.1-.2-9.1-2.1-1.4-1.4-2.3-3.3-2.7-5.5l1.8-2.3c-.1.2-.2.5-.1.8.2.5.7.7 1.2.5.5-.2.7-.7.5-1.2-.2-.5-.7-.7-1.2-.5-.1 0-.2.1-.3.2l2.5-3.2c.2 2.5.9 4.6 2.4 6.1 1.5 1.4 3.5 2.2 6.3 2.2.8 0 1.7-.1 2.6-.2.3 0 .5-.3.4-.6s-.3-.5-.6-.4c-3.8.5-6.4-.1-8.1-</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v xml:space="preserve">1.7-1.5-1.5-2.1-3.9-2.2-6.6l4.2-5.4c9.4-.2 18.1-.9 26-2.1.3 0 .5-.3.4-.6 0-.3-.3-.5-.6-.4-7.5 1.2-15.9 1.9-25 2.1l1.3-1.6c.4.5 1 .8 1.6.8.2 0 .5 0 .7-.1 1.1-.4 1.6-1.6 1.2-2.6-.2-.6-.6-1-1.2-1.2l1.3-1.6c9.1-.6 19.9-1.8 29.8-4.2 22.2-5.3 29.6-19.6 35.6-31.2 4.8-9.3 8.4-16.1 18-13.8l-1.3 6.7c-.1.5.2 1.1.8 1.2h.2c.5 0 .9-.3 1-.8l1.3-6.7c3.7.9 7.1 1.6 10.3 2.2l-1.3 6.4c-.1.5.2 1.1.8 1.2h.2c.5 0 .9-.3 1-.8l1.3-6.4c3 .6 5.8 1.1 8.3 1.6.7.1 1.4.3 2.1.4l-1.3 6.5c-.1.5.2 1.1.8 1.2h.2c.5 0 .9-.3 1-.8l1.3-6.5c4 .8 7.4 1.5 10.2 2.3l-1.2 6.2c-.1.5.2 1.1.8 1.2h.2c.5 0 .9-.3 1-.8l1.2-6c5 1.8 8.2 4.3 10.2 9 0 .1.1.2.1.3 1.6 3.9 2.5 9.3 2.8 16.9-1.5.1-3.3.2-5.3.4-.3 0-.5.3-.5.5 0 .3.2.5.5.5 2-.2 3.8-.3 5.2-.4.1 1.3.1 2.7.1 4.2-3.3.2-14.3.8-26.8 3.4-20.1 4.2-34.3 11.1-42.2 20.5-5.8 7-8 15.2-6.7 24.3zm-61.6-36.2c.4 0 .7.3.9.7.2.5-.1 1.1-.6 1.3-.5.2-1.1-.1-1.3-.6l1-1.4zm87.3-112.3l61.2 78.8c-4.5-.2-8.8-.7-12.7-1.9-2.3-5.2-6-7.9-11.5-9.9l.5-2.6c.1-.5-.2-1.1-.8-1.2-.5-.1-1.1.2-1.2.8l-.5 2.4c-2.9-.9-6.3-1.6-10.2-2.3l.4-2.1c.1-.5-.2-1.1-.8-1.2-.5-.1-1.1.2-1.2.8l-.4 2.1c-.7-.1-1.4-.3-2.1-.4-2.5-.5-5.2-1-8.2-1.6l.4-2.2c.1-.5-.2-1.1-.8-1.2-.5-.1-1.1.2-1.2.8l-.4 2.2c-3.2-.6-6.6-1.4-10.3-2.2l.4-2c.1-.5-.2-1.1-.8-1.2-.5-.1-1.1.2-1.2.8l-.4 1.9c-4.8-1.1-8.3-.3-11.1 1.8l-7.3-1.5c-.4-.1-.9.1-1.1.5-.2.3-3.9 7.6-1.2 14.9-5.7 11-13.1 24.2-33.8 29.2-9.1 2.2-19 3.4-27.6 4l83.9-107.5zm-14.6 62.2c-2.4 2.5-4.4 5.9-6.3 9.7-.9-4.6.6-9.1 1.3-10.7l5 1zm-2.9 63.5c9.4-11.3 27.5-17 41-19.9 14.7-3.1 27.4-3.4 27.5-3.4.5 0 1-.5 1-1-.2-10.1-1-17.1-2.7-22.2 3.6.9 8.2 1.5 13.4 1.6l30.5 39.3c-10.9 5.2-22 9.7-33.4 13.5-15.6 5.2-25.8 5.8-36.7 6.4-11.7.6-24.8 1.4-46.9 7.9-1.1-8.4 1-15.9 6.3-22.2zm-89.5 10.4c.1.4.1.9.2 1.3l1.8-2.3 2.9-3.8c.6 1.9 1.5 3.7 2.9 5 2.4 2.4 6.1 3.3 10.7 2.7 4-.5 7.6-1 10.8-1.4 25.6-3.5 27.9-3.7 33.1 17.1-15.8 5-27.4 8.2-35.6 10.2h-15.5c-5.7-8-8.2-19.1-9.4-29.6l-1.8 2.2c1.2 9.7 3.6 19.4 8.6 27.4h-29.9l21.2-27.4c.1-.5.1-.9 0-1.4L767 177.2l23.1-29.8zm85.1 28.8l6.8-2.5.9 2.5h-7.7zm-2.9 0h-28.7c7.8-3 14.7-4.9 20.6-6.9 6.1-2.1 11.1-3.8 14.6-4.8l2.9 8.1-9.4 3.6zm152.8 0h-140l-4.4-12.1c20.6-5 33.8-5.7 47.8-6.4 2.1-.1 4.3-.2 6.5-.4 8.8-.5 30.2-5.7 59.6-20.5l-1.2-1.6c-28.9 14.5-49.9 19.6-58.5 20.1-2.2.1-4.4.2-6.5.3-14.3.7-27.8 1.4-49 6.6-.1 0-.2 0-.3.1h-.1c-3.7.9-8.9 2.8-15.4 5-7.4 2.5-16.6 5.8-26.9 8.8h-11.2c9.6-3 22.4-6.4 39.2-12 27.6-9.3 42.6-10.2 55.7-10.9 11-.6 21.4-1.2 37.2-6.5 11.7-3.9 23-8.5 34.1-13.8l1.8 2.3 1.2 1.6c.3-.1.6-.3.9-.4l.1.1 31.5 40.7-31.5-40.6c-.3.2-.6.3-.9.4l30.3 39.2z"/&gt;&lt;path d="M855 149.4c.1.2.3.3.4.3.1 0 .2 0 .2-.1.2-.1.3-.4.2-.7-6.3-12.2-16.4-10.7-34.7-8.1-1.4.2-2.9.4-4.4.6-.3 0-.5.3-.4.6 0 .3.3.5.6.4 1.5-.2 3-.4 4.4-.6 17.9-2.6 27.8-4 33.7 7.6zm28.3-25.4c.1.1.3.2.4.2.1 0 .2 0 .3-.1 12.1-8.1 30.3-13.5 53.9-15.9.3 0 .5-.3.4-.5 0-.3-.3-.5-.5-.4-23.8 2.4-42 7.8-54.3 16-.3.2-.3.5-.2.7zm3.1-30.9c.3-.1.4-.4.3-.6-.1-.3-.4-.4-.6-.3-3 1-5.5 2.9-7.2 5.5-1.8 2.8-11.5 16.9-25.4 22.2-4.9 1.8-10.4 3.4-16.4 4.5-.3.1-.4.3-.4.6 0 .2.3.4.5.4h.1c6.1-1.2 11.6-2.7 16.5-4.6 14.2-5.4 </v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>24.1-19.7 25.9-22.6 1.6-2.4 4-4.2 6.7-5.1zm4.3-.6c.4 0 .9 0 1.3.1l22.1 2.6h.1c.2 0 .5-.2.5-.4 0-.3-.2-.5-.4-.6l-22.1-2.7c-.5-.1-.9-.2-1.4-.2-.3 0-.5.3-.5.6-.1.2.1.6.4.6zm26.5 2.5c0 .3.2.5.4.6 4.6.5 8.3 3.9 9.2 8.4l.3 1.6c0 .2.3.4.5.4h.1c.3-.1.4-.3.4-.6l-.3-1.6c-1-4.9-5.1-8.6-10.1-9.2-.2 0-.4.2-.5.4z"/&gt;&lt;ellipse transform="rotate(-20.016 944.06 109.69)" cx="944.1" cy="109.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 939.31 110.263)" cx="939.4" cy="110.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 914.644 113.925)" cx="914.7" cy="113.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 924.99 112.103)" cx="925" cy="112.1" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 928.9 111.65)" cx="928.9" cy="111.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 909.974 115.297)" cx="910" cy="115.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 899.37 118.964)" cx="899.4" cy="119" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 894.725 120.853)" cx="894.7" cy="120.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 874.344 136.748)" cx="874.4" cy="136.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 881.238 129.294)" cx="881.3" cy="129.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 885.095 126.307)" cx="885.1" cy="126.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 872.082 140.004)" cx="872.1" cy="140" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 868.997 149.4)" cx="869" cy="149.4" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 868.683 152.79)" cx="868.7" cy="152.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 855.214 156.368)" cx="855.2" cy="156.4" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 853.88 152.703)" cx="853.9" cy="152.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 847.56 144.56)" cx="847.6" cy="144.6" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 843.473 142.673)" cx="843.5" cy="142.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 827.555 143.41)" cx="827.6" cy="143.4" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 832.317 142.79)" cx="832.3" cy="142.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 811.065 145.516)" cx="811.1" cy="145.5" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 816.355 144.84)" cx="816.4" cy="144.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 800.762 142.79)" cx="800.8" cy="142.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 930.208 105.774)" cx="930.3" cy="105.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 929.345 101.854)" cx="929.4" cy="101.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 927.505 98.355)" cx="927.6" cy="98.4" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 925.4 95.16)" cx="925.4" cy="95.2" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 921.753 93.307)" cx="921.8" cy="93.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 917.842 92.26)" cx="917.9" cy="92.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 913.847 91.802)" cx="913.8" cy="91</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 910.554 91.235)" cx="910.6" cy="91.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 906.513 90.77)" cx="906.5" cy="90.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 901.752 90.09)" cx="901.8" cy="90.1" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 897.63 89.598)" cx="897.6" cy="89.6" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 893.483 89.146)" cx="893.5" cy="89.2" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 889.072 88.807)" cx="889.1" cy="88.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 884.517 89.494)" cx="884.5" cy="89.5" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 880.373 91.976)" cx="880.4" cy="92" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 877.565 94.954)" cx="877.6" cy="95" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 872.024 102.866)" cx="872" cy="102.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 869.188 105.844)" cx="869.2" cy="105.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 861.102 113.444)" cx="861.2" cy="113.5" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 857.688 115.7)" cx="857.8" cy="115.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 848.15 119.605)" cx="848.2" cy="119.6" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 843.256 120.825)" cx="843.5" cy="120.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 834.034 122.542)" cx="834.4" cy="122.6" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 829.758 123.153)" cx="830.1" cy="123.2" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 818.873 124.066)" cx="819.2" cy="124.1" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 814.146 124.62)" cx="814.4" cy="124.6" rx=".9" ry=".9"/&gt;&lt;path d="M874.7 100.6c.2 0 .5 0 .7-.1.5-.2.9-.6 1.1-1.1.2-.5.3-1 .1-1.6-.2-.5-.6-.9-1.1-1.1-.5-.2-1-.3-1.6-.1-1.1.4-1.6 1.6-1.2 2.6.4.9 1.1 1.4 2 1.4zm-.4-3c.1 0 .2-.1.4-.1.1 0 .3 0 .4.1.2.1.4.3.5.6.1.3.1.5 0 .8-.1.2-.3.4-.6.5-.5.2-1.1-.1-1.3-.6-.2-.5.1-1.1.6-1.3zm-10.2 13.5c.3.1.6.2.9.2.2 0 .5 0 .7-.1 1.1-.4 1.6-1.6 1.2-2.6-.2-.5-.6-.9-1.1-1.1-.5-.2-1-.3-1.6-.1-.5.2-.9.6-1.1 1.1-.2.5-.3 1-.1 1.6.3.4.6.8 1.1 1zm0-2.3c.1-.2.3-.4.6-.5.1 0 .2-.1.4-.1.1 0 .3 0 .4.1.2.1.4.3.5.6.2.5-.1 1.1-.6 1.3-.3.1-.5.1-.8 0-.2-.1-.4-.3-.5-.6-.2-.2-.2-.5 0-.8zm-11.3 10.4c.2 0 .5 0 .7-.1 1.1-.4 1.6-1.6 1.2-2.6-.4-1.1-1.6-1.6-2.6-1.2-.5.2-.9.6-1.1 1.1-.2.5-.3 1-.1 1.6.3.7 1.1 1.2 1.9 1.2zm-.9-2.5c.1-.2.3-.4.6-.5.1 0 .2-.1.4-.1.4 0 .8.3 1 .7.2.5-.1 1.1-.6 1.3-.5.2-1.1-.1-1.3-.6-.3-.2-.3-.5-.1-.8zm-13.8 6.4c.3.1.6.2.9.2.2 0 .5 0 .7-.1.5-.2.9-.6 1.1-1.1.2-.5.3-1 .1-1.6-.2-.5-.6-.9-1.1-1.1-.5-.2-1-.3-1.6-.1-1.1.4-1.6 1.6-1.2 2.6.2.5.6.9 1.1 1.2zm.5-2.8c.1 0 .2-.1.4-.1.1 0 .3 0 .4.1.2.1.4.3.5.6.1.3.1.5 0 .8-.1.2-.3.4-.6.5-.3.1-.5.1-.8 0-.2-.1-.4-.3-.5-.6-.2-.6.1-1.2.6-1.3zm-13.1 1.4c-.5-.2-1-.3-1.6-.1-1.1.4-1.6 1.6-1.2 2.6.3.8 1.1 1.3 1.9 1.3.2 0 .5 0 .7-.1.5-.2.9-.6 1.1-1.1.2-.5.3-1 .1-1.6-.2-.4-.5-.8-1-1zm0 2.3c-.1.2-.3.4-.6.5-.5.2-1.1-.1-1.3-.6-.2-.5.1-1.1.6-1.3.1 0 .2-.1.4-.1.1 0 .3 0 .4.</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>1.2.1.4.3.5.6.2.2.2.5 0 .8zm30.3 35.3c-1 .3-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .2-.4.2-1 .1-1.4-.2-.5-.5-.8-1-1-.4-.3-.9-.3-1.4-.1zm1.4 2.1c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.1.3.1.5 0 .7zm13.2-4.3c-.4-1-1.4-1.5-2.4-1.1-1 .3-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .2-.5.3-1 .1-1.4zm-1 1c-.1.2-.3.4-.5.4s-.4.1-.7 0c-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.2.1.5 0 .7zm2.5-13.5c-.3-1-1.4-1.5-2.4-1.1-1 .4-1.5 1.4-1.1 2.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1 1.1-.4 1.6-1.4 1.2-2.4zm-1.4 1.4c-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.1.5-.1 1-.5 1.1zm8.5-12.4c.2-.4.2-1 .1-1.4-.3-1-1.4-1.5-2.4-1.1-1 .4-1.5 1.4-1.1 2.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1.5-.3.9-.6 1.1-1zm-.9-.5c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.3.1.5 0 .7zm10.5-11.3c-1 .4-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .2-.4.2-1 .1-1.4-.4-1-1.5-1.5-2.4-1.1zm1.4 2.1c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.2.1.4 0 .7zm14.9-8.3c-.4-.2-1-.2-1.4-.1-.5.2-.8.5-1 1-.2.4-.2 1-.1 1.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1 1-.4 1.5-1.4 1.1-2.4-.1-.4-.4-.8-.9-1zm-.5 2.5c-.4.2-.9-.1-1.1-.5-.1-.2-.1-.4 0-.7.1-.2.3-.4.5-.4.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.2.4 0 .9-.5 1.1zm17.1-5.7c-.3-1-1.4-1.5-2.4-1.1-1 .4-1.5 1.4-1.1 2.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1 1-.3 1.5-1.4 1.2-2.4zm-1.5 1.5c-.4.2-.9-.1-1.1-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.2.4 0 .9-.5 1.1zm14.4-4.7c-.4-.2-1-.2-1.4-.1-.5.2-.8.5-1 1-.2.4-.2 1-.1 1.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1 1-.3 1.5-1.4 1.1-2.4-.1-.4-.4-.7-.9-1zm-.5 2.5c-.4.2-.9-.1-1.1-.5-.1-.2-.1-.4 0-.7.1-.2.3-.4.5-.4.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.2.5 0 1-.5 1.1zM853 147.5c-.2-.5-.5-.8-1-1-.4-.2-1-.2-1.4-.1-.5.2-.8.5-1 1-.2.4-.2 1-.1 1.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.9-.4 1.4-1.5 1.1-2.4zm-1.5 1.4c-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.1-.2-.1-.4 0-.7.1-.2.3-.4.5-.4.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.2.4 0 .9-.5 1.1zm-11.4-7.2c-.3-1-1.4-1.5-2.4-1.1-1 .4-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .3-.4.3-.9.1-1.4zm-.9 1c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.3.1.5 0 .7zm-17-.4c-.4-.2-1-.2-1.4-.1-1 .3-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1 1-.3 1.5-1.4 1.1-2.4-.2-.4-.6-.8-1-1zm-.5 2.5c-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.2.5-.1 1-.5 1.1zm-14.8 0c-.4-1-1.4-1.5-2.4-1.1-1 .3-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .2-.5.2-1 .1-1.4zm-1 1c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.2.1.5 0 .7zM986.7 210.2h-170c-.6 0-1 .4-1 1v170c0 .6.4 1 1 1h170c.6 0 1-.4 1-1v-170c0-.5-.4-1-1-1zm-126.5 104c2.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.5-3.2-3.2-3.2zm-234.9 13.1c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zm-528.4-75c-2.3 0-4.2-1.9-4.2-4.2s1.9-4.2 4.2-4.2 4.2 1.9 4.2 4.2-1.8 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zm980.9-3.2c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.4-3.2-3.2-3.2zM463.5 272c-2.3 0-4.2-1.9-4.2-4.2 0-2.3 1.9-4.2 4.2-4.2 2.3 0 4.2 1.9 4.2 4.2 0 2.3-1.9 4.2-4.2 4.2zm0-7.4c-1.8 0-3.2 1.4-3.2 3.2s1.4 3.2 3.2 3.2 3.2-1.4 3.2-3.2-1.5-3.2-3.2-3.2zm564.4-88.1L897.9 9.1c-.4-.5-1.2-.5-1.6 0L766.2 176.4c-.2.3-.3.8-.1 1.2.2.3.5.7.9.7h260.1c.4 0 .7-.3.9-.7.2-.4.1-.8-.1-1.1zm-156.5-16.7l-4.8 1.5c-1.8-13.9 2.7-25.4 13.2-34.1.2-.2.2-.5.1-.7-.2-.2-.5-.2-.7-.1-10.9 9-15.4 20.9-13.5 35.2-.5.2-1.1.4-1.7.5-1.2.4-2.3.8-3.5 1.2-.7-3.3-1.4-6.2-2.2-8.7-.1-.3-.4-.4-.6-.3-.3.1-.4.4-.3.6.8 2.5 1.5 5.4 2.2 8.7-1.7.6-3.4 1.1-5.1 1.7-5.6-22.4-9.8-21.8-35.3-18.4-3.2.4-6.8.9-10.8 1.4-4.1.5-7.1-.2-9.1-2.1-1.4-1.4-2.3-3.3-2.7-5.5l1.8-2.3c-.1.2-.2.5-.1.8.2.5.7.7 1.2.5.5-.2.7-.7.5-1.2-.2-.5-.7-.7-1.2-.5-.1 0-.2.1-.3.2l2.5-3.2c.2 2.5.9 4.6 2.4 6.1 1.5 1.4 3.5 2.2 6.3 2.2.8 0 1.7-.1 2.6-.2.3 0 .5-.3.4-.6s-.3-.5-.6-.4c-3.8.5-6.4-.1-8.1-1.7-1.5-1.5-2.1-3.9-2.2-6.6l4.2-5.4c9.4-.2 18.1-.9 26-2.1.3 0 .5-.3.4-.6 0-.3-.3-.5-.6-.4-7.5 1.2-15.9 1.9-25 2.1l1.3-1.6c.4.5 1 .8 1.6.8.2 0 .5 0 .7-.1 1.1-.4 1.6-1.6 1.2-2.6-.2-.6-.6-1-1.2-1.2l1.3-1.6c9.1-.6 19.9-1.8 29.8-4.2 22.2-5.3 29.6-19.6 35.6-31.2 4.8-9.3 8.4-16.1 18-13.8l-1.3 6.7c-.1.5.2 1.1.8 1.2h.2c.5 0 .9-.3 1-.8l1.3-6.7c3.7.9 7.1 1.6 10.3 2.2l-1.3 6.4c-.1.5.2 1.1.8 1.2h.2c.5 0 .9-.3 1-.8l1.3-6.4c3 .6 5.8 1.1 8.3 1.6.7.1 1.4.3 2.1.4l-1.3 6.5c-.1.5.2 1.1.8 1.2h.2c.5 0 .9-.3 1-.8l1.3-6.5c4 .8 7.4 1.5 10.2 2.3l-1.2 6.2c-.1.5.2 1.1.8 1.2h.2c.5 0 .9-.3 1-.8l1.2-6c5 1.8 8.2 4.3 10.2 9 0 .1.1.2.1.3 1.6 3.9 2.5 9.3 2.8 16.9-1.5.1-3.3.2-5.3.4-.3 0-.5.3-.5.5 0 .3.2.5.5.5 2-.2 3.8-.3 5.2-.4.1 1.3.1 2.7.1 4.2-3.3.2-14.3.8-26.8 3.4-20.1 4.2-34.3 11.1-42.2 20.5-5.8 7-8 15.2-6.7 24.3zm-61.6-36.2c.4 0 .7.3.9.7.2.5-.1 1.1-.6 1.3-.5.2-1.1-.1-1.3-.6l1-1.4zm87.3-112.3l61.2 78.8c-4.5-.2-8.8-.7-12.7-1.9-2.3-5.2-6-7.9-11.5-9.9l.5-2.6c.1-.5-.2-1.1-.8-1.2-.5-.1-1.1.2-1.2.8l-.5 2.4c-2.9-.9-6.3-1.6-10.2-2.3l.4-2.1c.1-.5-.2-1.1-.8-1.2-.5-.1-1.1.2-1.2.8l-.4 2.1c-.7-.1-1.4-.3-2.1-.4-2.5-.5-5.2-1-8.2-1.6l.4-2.2c.1-.5-.2-1.1-.8-1.2-.5-.1-1.1.2-1.2.8l-.4 2.2c-3.2-.6-6.6-1.4-10.3-2.2l.4-2c.1-.5-.2-1.1-.8-1.2-.5-.1-1.1.2-1.2.8l-.4 1.9c-4.8-1.1-8.3-.3-11.1 1.8l-7.3-1.5c-.4-.1-.9.1-1.1.5-.2.3-3.9 7.6-1.2 14.9-5.7 11-13.1 24.2-33.8 29.2-9.1 2.2-19 3.4-27.6 4l83.9-107.5zm-14.6 62.2c-2.4 2.5-4.4 5.9-6.3 9.7-.9-4.6.6-9.1 1.3-10.7l5 1zm-2.9 63.5c9.4-11.3 27.5-17 41-19.9 14.7-3.1 27.4-3.4 27.5-3.4.5 0 1-.5 1-1-.2-10.1-1-17.1-2.7-22.2 3.6.9 8.2 1.5 13.4 1.6l30.5 39.3c-10.9 5.2-22 9.7-33.4 13</v>
+        <v>.8 33.8 12.3 71.3 30.6 8.6 4.2 16.7 8.4 24.1 12.3v.1c.1.1.3.2.4.2h.1c8.7 4.6 16.4 9 22.8 12.7.1.1.3.2.4.2.1 0 .2 0 .3-.1-.1.1-.1.1-.2.1 2.3 1.3 4.3 2.5 6.3 3.6v6.2h-34.4c-.1 0-.2.1-.3.1h-.2c-.1 0-.3-.1-.4-.1h-10.7c-8.5-3-16.8-6.7-24.7-10.6-22.8-11.2-46.8-27.4-67.3-41.8-.1-.1-.2-.2-.3-.2-2.9-2-5.7-4-8.5-6-8.1-5.7-15.2-10.8-21.2-14.7v-4.6c5 2.8 10.3 6.5 16.5 10.8.1.1.2.1.3.1.2 0 .3-.1.4-.2.2-.2 0-.5-.2-.7-6.5-4.5-12-8.3-17-11.1v-.5c1 .2.9.3 1.3.5 28.5 12.1 39.7 13.1 41.2 13.1zm27.3-46.9c-2.6-3.4-3.9-6.7-4.5-9.6 3.6 4.8 8.4 7.7 9.4 8.3.2 2.1.5 4.2.9 6.5v.1c0 .1 0 .3.1.4.4 2.6 1 5.3 1.7 8.1 0 .1.1.1.1.2.1.1.2 0 .4 0-.1 0-.3.2-.4.1 1.4 5.6 3.4 11.7 6.1 17.7.6.2.9.3 1 .3.2 0 .4.2.4.5 0-.2-.2-.4-.4-.4 0 0-.4-.1-1-.2-2.7-.7-10.6-3.2-18.6-8.3-.6-.8-1.1-1.4-1.5-2l9.7-1.1c.4 0 .8-.4.9-.8s-.1-.9-.5-1.1c-6.8-3.8-10.1-14.1-11.1-17.8l6.5.8c.4 0 .8-.1 1-.5.1-.4 0-.9-.2-1.2zm-4.8-17.2l4.3 2.1c.3.1.6.1.9 0s.5-.4.5-.7c.4-2.1-2.5-8.6-3.7-11 .4-2.1 1.8-4.4 3.5-6.6-1.1 7.1 3.1 13.6 3.7 14.5-.3 4.4-.4 10 .2 16.4-1.8-1.2-6.6-4.5-9.6-9.4-.2-2.3 0-4.2.2-5.3zm14.6 1.6c.4.3.9.3 1.3-.1l8.4-7.9c.2.6.4 1.3.6 2-2.2 2.7-10.5 13-13.7 24.3-1.2-8.8-1.2-16.4-.8-21.9.4-1.5 2.9-9.8 7.1-14.3 1 1.5 1.8 2.9 1.9 3.5.3 1.6-2.7 8.6-5 13.1-.3.5-.2 1 .2 1.3zm42.3-20.1c6.3 3.4 10.1 9.3 14.1 15.5 4.4 6.7 8.9 13.7 16.9 17.6.1.1.3.1.4.1.4 0 .7-.2.9-.6.2-.5 0-1.1-.5-1.3-7.5-3.7-11.9-10.4-16.1-16.9-1.7-2.7-3.5-5.4-5.5-7.9 1.9 1.4 3.7 2.7 5.6 4.1 4.2 3.1 8.4 6.3 13.6 9.3.3.2.6.4.9.5 1.4.8 2.7 1.6 4.2 2.3.4.2.9.4 1.3.6 3.5 1.7 7.1 3 10.1 4.2V353c-17-9.3-41-22.1-70.2-35.2l-1 .7.9-.7 8.9-6.9c.4-.3.5-.8.3-1.2-.2-.4-.7-.7-1.1-.6l-7.5 1.6 5.2-7.9c.3-.4.2-.9-.1-1.2-.3-.3-.8-.4-1.2-.1l-5.5 3.4c1.4-2.6 3.3-5.8 3.9-6.8 3.7-6.3 1.5-14.7-.9-23.6-.6-2.2-1.2-4.5-1.7-6.7-.1-.4-.4-.7-.9-.8-.4 0-.8.2-1 .5l-6.8 13.4c.3-3.4 1.4-9.2 4.9-17.4 1.8-4.2-2.4-18.4-3.3-21.4.7-.8 1.3-1.5 1.7-2 1.6-1.9 5.8-5.8 11.2-8.3 6.7-3.2 12.8-3.2 18.3-.2zM958 356.2l13.1-9c.8.4 1.6.9 2.5 1.3l-13.1 9c-.9-.4-1.7-.8-2.5-1.3zm-6.9-3.6l13.1-9c2 1.1 4 2.1 5.9 3.1l-13.1 9c-1.9-1-3.9-2.1-5.9-3.1zm-51.6-41.9c0-.2-.1-.4-.3-.5l-1.4-1.2 4.6-.1c.5 0 .8-.3 1-.8.1-.4-.1-.9-.5-1.1-8.7-4.7-14.5-9.9-18-13.7 8.1 4.7 15.6 6.9 16.9 6.9.3 1 1 1.2 1 1.8v.2c.6 1.1 1.1 2.3 1.7 3.5 0 .1 0 .1.1.2 1.7 3.1 3.6 6.3 5.7 9.5-3.6-1.6-7.2-3.2-10.8-4.7zm-5.3-38.2c2.5-11.4 10.8-22.2 13.6-25.7.4 1.4.8 2.9 1.1 4.4-2.5 2.7-11.7 13.8-13.7 26.7-.3-1.8-.7-3.6-1-5.4zm1.8 8.5c.7-13.1 10.1-24.8 13.2-28.5 1 4.4 1.5 8.6.8 10.1-6.5 15.1-5.1 22.2-5 22.5.1.4.4.7.9.8.4 0 .8-.2 1-.5l7.4-14.6c.4 1.4.7 2.8 1.1 4.1.1.2.1.4.2.6-.9 4-4.4 17.4-12.4 25.5-3.3-6.9-5.6-13.6-7.2-20 0 .1 0-.1 0 0zm20.5 16c-1.1 1.8-5.8 10.2-5.8 10.3-.2.4-.2.9.2 1.2.3.3.8.4 1.2.1l5-3.1-4 6.1c-.2.3-.2.8 0 1.1.2.3.6.5 1 .4l5.6-1.2-6.3 4.8c-.6-.3-1.3-.6-1.9-.8.1-.1 0-.3 0-.5-2.2-3.3-4.2-6.6-6-9.8 6.3-5.5 10.6-14.7 12.4-19.2.5 4 .3 7.6-1.4 10.6zm-11.5 7.7c-.5-.9-.9-1.9-1.4-2.8 7.4-7.3 11.1-18.9 12.5-24.4.6 2.4 1.2 4.7 1.5 6.9-1.3 3.4-5.8 14.3-12.6 20.3zm-2.5-3c0-.1.1-.2.1-.2 0 .1-.1.2-.1.2zm9.5 16.6l-13.4 9.2-2.7-1.2 13.4-9.</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>.5-15.6 5.2-25.8 5.8-36.7 6.4-11.7.6-24.8 1.4-46.9 7.9-1.1-8.4 1-15.9 6.3-22.2zm-89.5 10.4c.1.4.1.9.2 1.3l1.8-2.3 2.9-3.8c.6 1.9 1.5 3.7 2.9 5 2.4 2.4 6.1 3.3 10.7 2.7 4-.5 7.6-1 10.8-1.4 25.6-3.5 27.9-3.7 33.1 17.1-15.8 5-27.4 8.2-35.6 10.2h-15.5c-5.7-8-8.2-19.1-9.4-29.6l-1.8 2.2c1.2 9.7 3.6 19.4 8.6 27.4h-29.9l21.2-27.4c.1-.5.1-.9 0-1.4L767 177.2l23.1-29.8zm85.1 28.8l6.8-2.5.9 2.5h-7.7zm-2.9 0h-28.7c7.8-3 14.7-4.9 20.6-6.9 6.1-2.1 11.1-3.8 14.6-4.8l2.9 8.1-9.4 3.6zm152.8 0h-140l-4.4-12.1c20.6-5 33.8-5.7 47.8-6.4 2.1-.1 4.3-.2 6.5-.4 8.8-.5 30.2-5.7 59.6-20.5l-1.2-1.6c-28.9 14.5-49.9 19.6-58.5 20.1-2.2.1-4.4.2-6.5.3-14.3.7-27.8 1.4-49 6.6-.1 0-.2 0-.3.1h-.1c-3.7.9-8.9 2.8-15.4 5-7.4 2.5-16.6 5.8-26.9 8.8h-11.2c9.6-3 22.4-6.4 39.2-12 27.6-9.3 42.6-10.2 55.7-10.9 11-.6 21.4-1.2 37.2-6.5 11.7-3.9 23-8.5 34.1-13.8l1.8 2.3 1.2 1.6c.3-.1.6-.3.9-.4l.1.1 31.5 40.7-31.5-40.6c-.3.2-.6.3-.9.4l30.3 39.2z"/&gt;&lt;path d="M855 149.4c.1.2.3.3.4.3.1 0 .2 0 .2-.1.2-.1.3-.4.2-.7-6.3-12.2-16.4-10.7-34.7-8.1-1.4.2-2.9.4-4.4.6-.3 0-.5.3-.4.6 0 .3.3.5.6.4 1.5-.2 3-.4 4.4-.6 17.9-2.6 27.8-4 33.7 7.6zm28.3-25.4c.1.1.3.2.4.2.1 0 .2 0 .3-.1 12.1-8.1 30.3-13.5 53.9-15.9.3 0 .5-.3.4-.5 0-.3-.3-.5-.5-.4-23.8 2.4-42 7.8-54.3 16-.3.2-.3.5-.2.7zm3.1-30.9c.3-.1.4-.4.3-.6-.1-.3-.4-.4-.6-.3-3 1-5.5 2.9-7.2 5.5-1.8 2.8-11.5 16.9-25.4 22.2-4.9 1.8-10.4 3.4-16.4 4.5-.3.1-.4.3-.4.6 0 .2.3.4.5.4h.1c6.1-1.2 11.6-2.7 16.5-4.6 14.2-5.4 24.1-19.7 25.9-22.6 1.6-2.4 4-4.2 6.7-5.1zm4.3-.6c.4 0 .9 0 1.3.1l22.1 2.6h.1c.2 0 .5-.2.5-.4 0-.3-.2-.5-.4-.6l-22.1-2.7c-.5-.1-.9-.2-1.4-.2-.3 0-.5.3-.5.6-.1.2.1.6.4.6zm26.5 2.5c0 .3.2.5.4.6 4.6.5 8.3 3.9 9.2 8.4l.3 1.6c0 .2.3.4.5.4h.1c.3-.1.4-.3.4-.6l-.3-1.6c-1-4.9-5.1-8.6-10.1-9.2-.2 0-.4.2-.5.4z"/&gt;&lt;ellipse transform="rotate(-20.016 944.06 109.69)" cx="944.1" cy="109.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 939.31 110.263)" cx="939.4" cy="110.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 914.644 113.925)" cx="914.7" cy="113.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 924.99 112.103)" cx="925" cy="112.1" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 928.9 111.65)" cx="928.9" cy="111.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 909.974 115.297)" cx="910" cy="115.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 899.37 118.964)" cx="899.4" cy="119" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 894.725 120.853)" cx="894.7" cy="120.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 874.344 136.748)" cx="874.4" cy="136.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 881.238 129.294)" cx="881.3" cy="129.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 885.095 126.307)" cx="885.1" cy="126.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 872.082 140.004)" cx="872.1" cy="140" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 868.997 149.4)" cx="869" cy="149.4" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 868.683 152.79)" cx="868.7" cy="152.8" rx=".9" ry=".9"/&gt;&lt;ellipse transfor</v>
+        <v>2 2.7 1.2zm1.1.5c.9.4 1.8.8 2.6 1.2l-13.2 9.1c-.1 0-.1.1-.1.1l-2.7-1.2 13.4-9.2zm3.7 1.7c2.1 1 4.2 1.9 6.3 2.9l-13.3 9.1c-2.2-1-4.3-1.9-6.4-2.8l13.4-9.2zm7.4 3.3c.9.4 1.7.8 2.6 1.2l-13.2 9.1c-.9-.4-1.8-.8-2.6-1.2l13.2-9.1zm3.6 1.7c2.1 1 4.2 2 6.2 2.9l-13.2 9.1c-2.1-1-4.2-2-6.3-2.9l13.3-9.1zm7.3 3.5c.9.4 1.7.8 2.6 1.2l-13.1 9.1c-.9-.4-1.7-.8-2.6-1.2l13.1-9.1zm3.6 1.7c2.1 1 4.1 2 6.1 3l-13.1 9c-2.1-1-4.1-2-6.2-3l13.2-9zm7.2 3.5c4.8 2.4 9.4 4.7 13.8 7l-13.1 9c-4.4-2.3-9-4.6-13.8-6.9l13.1-9.1zm14.7 7.5c.8.4 1.7.9 2.5 1.3l-13.1 9c-.8-.4-1.7-.9-2.5-1.3l13.1-9zm-67.1-98.2c.4-3.3.8-5.1.9-5.2 0 0 .8-3.6 3.6-7.7.6.8 1.1 1.6 1.6 2.3-2.9 2.9-4.9 7.3-6.1 10.6zm-.1-5.4s-.1.3-.2.7c-.4-2.7-.7-7.2 1.1-10.8.1-.1.1-.3 0-.4.3-.2.5-.5.7-.6.7.9 1.5 1.9 2.2 2.9-2.9 4.2-3.8 8-3.8 8.2zm-.7 3.5c-.2 1.4-.4 3.1-.6 5.1-1.4-2.5-4.3-8.5-2.4-14.5 1.1-1.2 2.2-2.4 3.2-3.3-2 5.6-.3 12-.2 12.7zm-4.8 44.5l-8.6 1c-.3 0-.6.2-.8.5s-.1.7 0 .9c.2.4 5.6 9.7 20.2 18.4l-3.5.1c-.4 0-.8.3-.9.7-.1.3-.1.6.1.9-8.5-3.5-17.3-7-26.3-10.5 3.2-6.7 7.6-14.6 12.8-21.8 1.6 3.5 3.9 7.2 7 9.8zm20.4 30.6l-13.4 9.3c-17.2-7.3-29.6-12-33.1-13.3.1-.2.2-.5.3-.7.9-2.3 2.7-6.7 5.2-12 14.4 5.4 28.1 11 41 16.7zm-90.6 63.5v-59.5c12 4.2 26.9 8.2 28.8 8.7-1.7-1.2-3.3-2.3-4.9-3.5-5.9-1.7-15.9-4.5-23.9-7.4v-9.2c6 3.9 12.6 8.7 20.1 13.9l3.9 2.7c1.6 1.1 3.2 2.3 4.9 3.4h.5-.5c20.5 14.4 44.6 30.8 67.6 42 6.4 3.2 13.1 5.8 20 8.8H817.7zm0-79.5c-.1 0-.2-.1-.3-.1.1.1.2.1.3.1zm-1 0v-.3l.1.1-.1.2.1 1.2c.2.1.4.3.6.4-.3-.1-.7-.2-.7-.4v-1.2zm170 69l-1 .7v1.3c0-.2-.8-.4-1.1-.6l-1.4.9 1.4-.9 1.1-.7 1-.7v-1.2 1.2zm0-13.9v1.2l-1 .7v3.1l-8.6 5.9.9.6 7.7-5.3v-.1l1-.6V360v1.2l-1 .7v3.1l-5.3 3.6.9.6 4.4-3v-.1l1-.6v-1.2 1.2l-1 .7v2.9l-.1.1-2 1.4c-.8-.4-1.6-.9-2.4-1.4-.3-.2-.6-.4-1-.6-.8-.4-1.6-.9-2.4-1.4-.3-.2-.6-.4-1-.6-.8-.4-1.6-.9-2.4-1.4-.3-.2-.6-.4-1-.5-3.7-2.1-7.8-4.4-12.1-6.7l13.1-9 .4-.3-.4.3c4 2.2 7.1 4.2 11.1 6.1.2.3 1.2.4 1.2.7zm0-96.3l-.1-.1v-.1l-.9-.3v-.1c0 .1 1 .2 1 .3v.3zm0-2.1c0-.1 0-.1 0 0v-.2c0-.1-.7-.2-1-.3v-.1c-3-1-5.7-2.1-8.7-3.5-.6-.3-1.2-.5-1.8-.8-1.4-.7-2.8-1.5-4.1-2.2-3.9-2.3-7.5-5-11.3-7.8-3.4-2.5-6.8-5-10.6-7.4-2.6-1.8-5.5-3.6-8.6-5.3-13.8-7.5-27.7 3.8-31.9 8.8-.5.6-1.2 1.5-2.1 2.5-.1.1-.1.2-.1.2l-5.4 5.1c1.5-3.5 3.2-7.7 2.8-9.5-.5-2.9-7.2-11.2-8-12.1-.2-.2-.4-.3-.7-.4-.3 0-.5.1-.7.2-.4.4-10.6 8.7-11.8 15.8 0 .2 0 .4.1.6 1.4 3 2.8 6.5 3.4 8.5l-3.8-1.9c-.3-.1-.6-.1-.8 0-.3.1-.5.3-.6.6-.1.4-2.7 8.6 3.6 18.3l-5.7-.7c-.3 0-.6.1-.9.3-.2.2-.3.6-.2.9.1.3.7 3.4 2.3 7.2-.2.1-.4.2-.5.3-5.5 7.4-10 15.7-13.3 22.7-.7-.3-1.4-.5-2.1-.8-.5-.2-1.1.1-1.3.6s.1 1.1.6 1.3c.6.2 1.3.5 1.9.7-2.5 5.3-4.2 9.6-5.2 12-.2.4-.3.8-.4 1-2.7-.3-14.3-2-39.9-12.7-.7-.3-1.1-.6-2.1-.8v-86.4h168v44.6c0 .1 1 .2 1 .4v.3z"/&gt;&lt;path d="M986.7 357v-1.3c0-.2-1-.4-1-.6v1.4l-12 8.2c.3.2.6.4.9.5l11.1-7.6v-.1l1-.5zm-140.9-35.6c2.7 1.9 5.4 3.8 8.3 5.8.1.1.2.1.3.1.2 0 .3-.1.4-.2.2-.2.1-.5-.1-.7-2.8-2-5.6-3.9-8.3-5.8l-2.2-1.6c-.2-.2-.5-.1-.7.1-.2.2-.1.5.1.7l2.2 1.6zm105.3 57.9c-12.3-4.3-22.7-8.5-31.8-13-20.5-10-41.2-23.8-57-34.6-.2-.2-.5-.1-.7.1-.2.2-.1.5.1.7 15.8 10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v xml:space="preserve">m="rotate(-20.016 855.214 156.368)" cx="855.2" cy="156.4" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 853.88 152.703)" cx="853.9" cy="152.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 847.56 144.56)" cx="847.6" cy="144.6" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 843.473 142.673)" cx="843.5" cy="142.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 827.555 143.41)" cx="827.6" cy="143.4" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 832.317 142.79)" cx="832.3" cy="142.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 811.065 145.516)" cx="811.1" cy="145.5" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 816.355 144.84)" cx="816.4" cy="144.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 800.762 142.79)" cx="800.8" cy="142.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 930.208 105.774)" cx="930.3" cy="105.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 929.345 101.854)" cx="929.4" cy="101.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 927.505 98.355)" cx="927.6" cy="98.4" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 925.4 95.16)" cx="925.4" cy="95.2" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 921.753 93.307)" cx="921.8" cy="93.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 917.842 92.26)" cx="917.9" cy="92.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 913.847 91.802)" cx="913.8" cy="91.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 910.554 91.235)" cx="910.6" cy="91.3" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 906.513 90.77)" cx="906.5" cy="90.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 901.752 90.09)" cx="901.8" cy="90.1" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 897.63 89.598)" cx="897.6" cy="89.6" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 893.483 89.146)" cx="893.5" cy="89.2" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 889.072 88.807)" cx="889.1" cy="88.8" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 884.517 89.494)" cx="884.5" cy="89.5" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 880.373 91.976)" cx="880.4" cy="92" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 877.565 94.954)" cx="877.6" cy="95" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 872.024 102.866)" cx="872" cy="102.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-20.016 869.188 105.844)" cx="869.2" cy="105.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 861.102 113.444)" cx="861.2" cy="113.5" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 857.688 115.7)" cx="857.8" cy="115.7" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 848.15 119.605)" cx="848.2" cy="119.6" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 843.256 120.825)" cx="843.5" cy="120.9" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 834.034 122.542)" cx="834.4" cy="122.6" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 829.758 123.153)" cx="830.1" cy="123.2" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 818.873 124.066)" </v>
+        <v>.9 36.5 24.7 57.1 34.8 9.1 4.4 19.4 8.9 31.6 12.9h.6c.1 0 .2 0 .2-.1h.1c.1 0 .1-.1.1-.2.1-.1 0-.5-.3-.6zm-56-97.8c0-.1-.1-.3-.1-.4v.1c0 .1 0 .2.1.3zM776.7 224.3L648 60.4c-.4-.5-1.2-.5-1.6 0l-128.7 164c-.3.4-.3.9 0 1.2l128.7 164c.2.2.5.4.8.4s.6-.1.8-.4l128.7-164c.3-.4.3-.9 0-1.3zm-129.5 163l-87.1-111 13.9 4.1h.3c.4 0 .8-.3 1-.7l17.2-57.6c2.9 4.3 10.5 16.8 17.5 35.4 8.5 22.6 13.8 34.7 31.1 41.9 13.2 5.5 34.3 8.1 67 10.4l-60.9 77.5zM543.5 255.2l33.9 10.1-1.9 6.2-25.1-7.5-6.9-8.8zm5.8-61.8l-3.9-1.2 4.3-5.5 24.6 7.3c3.4 2.9 6.8 6.1 10.3 9.8l-24.7-7.4c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l26.3 7.8c2.5 2.7 4.9 5.6 7.3 8.7-.1 0-.2.1-.3.1l-50.5-15.1.5-3.7 1.9-2.4 4.3 1.3h.1c.2 0 .4-.1.5-.4.1.2-.1-.1-.4-.2zm1.1-7.5l4.4-5.6c4.8 2.7 10.9 6.7 17.6 12.2l-22-6.6zm38 42.6l-18.7-5.6c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l18.7 5.6-1.9 6.2-47.2-14.1 1-6.5 22.6 6.7h.1c.2 0 .4-.1.5-.4.1-.3-.1-.5-.3-.6l-22.7-6.8 1-6.5 49.1 14.7-1.9 6.4zm-8.6 28.7l-44-13.1 1-6.5 37.1 11.1h.1c.2 0 .4-.1.5-.4.1-.3-.1-.5-.3-.6l-37.3-11.1 1-6.5 46 13.7-4.1 13.4zm4.3-14.3L538 229.1l1-6.5 47 14-1.9 6.3zm6.4-21.6l-49.3-14.7 1-6.5 50.2 15-1.9 6.2zm-50.7-21.9l.5.1-1 6.5-.7-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.9.3-1 6.5-.7-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.9.3-1 6.5-.7-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.9.3-1 6.5-.7-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.9.3-1 6.5-.6-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.8.2-.9 6-14.2-17.9 20.1-25.6zm-4.2 45.7l43.9 13.1-1.9 6.2-35.2-10.5-6.8-8.7v-.1zm39.6 27.4l-1.7 5.7-15.6-4.7-6.4-8.1 23.7 7.1zm36.6-15.6c-8-21.3-17-34.7-18.7-37.2l1.2-4.1c5.7 7.6 11 16.5 15.7 26.8 2.4 5.4 4.5 10.4 6.3 14.9 13.6 32.9 17.5 42.5 95.9 47.1l-2.8 3.6c-78-5.6-82.6-11.2-97.6-51.1zm6.4-.4c-1.8-4.4-3.9-9.5-6.4-14.9-16.2-36.1-41.5-54.7-55.8-62.8l41.1-52.4c-1.8 4.7-3.5 8.8-5 12.4-7.8 19.1-10.7 26.2-2.3 39 10.7 16.1 27.2 32.1 41.5 28.4 6.1-1.6 10.1-6.7 10.8-13.9.4-4.2.7-8.8 1-13.6 1-15.5 2.3-34.9 7-55.8 3.8-16.9 12.7-16.1 26-15 2.3.2 4.6.4 6.9.5l3.4 4.3c-1.5 12.4-5.2 44.2-6.2 66.8-3 70 9.2 77.6 32.7 85.8 8.9 3.1 15.6 7.4 20.1 12.7l-19.3 24.6c-78.4-4.7-82.2-13.9-95.5-46.1zm-6.8-148.2c24.6 5.9 34.3 12.3 36.8 14.2-4.8 21.1-6 40.5-7 56.1-.3 4.8-.6 9.3-1 13.6-.6 6.3-3.9 10.8-9.3 12.1-8.7 2.2-23.6-3.9-39.3-27.6-.5-.7-.9-1.4-1.3-2.1 10.6 15.3 22.4 24.1 32.3 24.1h1.1c.3 0 .5-.3.5-.5 0-.3-.3-.5-.5-.5-10.4.7-23.3-9.2-34.5-26.6-.2-.2-.5-.3-.7-.1-3.6-8.7-.7-15.7 5.7-31.3 2.1-5 4.6-11.2 7.3-18.5l9.9-12.9zm70-2.1c-1.7-.1-3.5-.3-5.1-.4-13.1-1.1-23.6-2-27.9 15.5-3-2.2-12.7-8.3-36.3-14l35.1-44.8 34.2 43.7zm32.3 157.1c-23.3-8.2-34.4-15.2-31.4-83.9.9-21.4 4.3-51.1 5.9-64.6L774.6 225l-40.3 51.3c-4.6-5.4-11.5-9.8-20.6-13z"/&gt;&lt;path d="M632.9 193.5c.2 0 .3-.1.4-.2 1.5-2.2 2.5-4.9 2.8-8 .3-3.6.6-7.6.9-11.4 0-.3-.2-.5-.5-.5-.2 0-.5.2-.5.5-.3 3.8-.6 7.7-.9 11.4-.3 2.9-1.1 5.4-2.6 7.5-.2.2-.1.5.1.7.1-.1.2 0 .3 0zm4.2-28.6s.1 0 0 0c.3 0 .5-.2.5-.5.7-9.7 1.8-21.4 4-34.1 0-.3-.1-.5-.4-.6-.3 0-.5.1-.6.4-2.3 12.7-3.3 24.4-4.1 34.2.1.3.4.5.6.6zM508.7 10.2h-183c-.6 0-1 .4-1 1v181c0 .6.4 1 1 1h183c.6 0 1-.4 1-1v-181c0-.5-.4-1-1-1zm-1 181h-181v-179h181v16H5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>cx="819.2" cy="124.1" rx=".9" ry=".9"/&gt;&lt;ellipse transform="rotate(-6.8 814.146 124.62)" cx="814.4" cy="124.6" rx=".9" ry=".9"/&gt;&lt;path d="M874.7 100.6c.2 0 .5 0 .7-.1.5-.2.9-.6 1.1-1.1.2-.5.3-1 .1-1.6-.2-.5-.6-.9-1.1-1.1-.5-.2-1-.3-1.6-.1-1.1.4-1.6 1.6-1.2 2.6.4.9 1.1 1.4 2 1.4zm-.4-3c.1 0 .2-.1.4-.1.1 0 .3 0 .4.1.2.1.4.3.5.6.1.3.1.5 0 .8-.1.2-.3.4-.6.5-.5.2-1.1-.1-1.3-.6-.2-.5.1-1.1.6-1.3zm-10.2 13.5c.3.1.6.2.9.2.2 0 .5 0 .7-.1 1.1-.4 1.6-1.6 1.2-2.6-.2-.5-.6-.9-1.1-1.1-.5-.2-1-.3-1.6-.1-.5.2-.9.6-1.1 1.1-.2.5-.3 1-.1 1.6.3.4.6.8 1.1 1zm0-2.3c.1-.2.3-.4.6-.5.1 0 .2-.1.4-.1.1 0 .3 0 .4.1.2.1.4.3.5.6.2.5-.1 1.1-.6 1.3-.3.1-.5.1-.8 0-.2-.1-.4-.3-.5-.6-.2-.2-.2-.5 0-.8zm-11.3 10.4c.2 0 .5 0 .7-.1 1.1-.4 1.6-1.6 1.2-2.6-.4-1.1-1.6-1.6-2.6-1.2-.5.2-.9.6-1.1 1.1-.2.5-.3 1-.1 1.6.3.7 1.1 1.2 1.9 1.2zm-.9-2.5c.1-.2.3-.4.6-.5.1 0 .2-.1.4-.1.4 0 .8.3 1 .7.2.5-.1 1.1-.6 1.3-.5.2-1.1-.1-1.3-.6-.3-.2-.3-.5-.1-.8zm-13.8 6.4c.3.1.6.2.9.2.2 0 .5 0 .7-.1.5-.2.9-.6 1.1-1.1.2-.5.3-1 .1-1.6-.2-.5-.6-.9-1.1-1.1-.5-.2-1-.3-1.6-.1-1.1.4-1.6 1.6-1.2 2.6.2.5.6.9 1.1 1.2zm.5-2.8c.1 0 .2-.1.4-.1.1 0 .3 0 .4.1.2.1.4.3.5.6.1.3.1.5 0 .8-.1.2-.3.4-.6.5-.3.1-.5.1-.8 0-.2-.1-.4-.3-.5-.6-.2-.6.1-1.2.6-1.3zm-13.1 1.4c-.5-.2-1-.3-1.6-.1-1.1.4-1.6 1.6-1.2 2.6.3.8 1.1 1.3 1.9 1.3.2 0 .5 0 .7-.1.5-.2.9-.6 1.1-1.1.2-.5.3-1 .1-1.6-.2-.4-.5-.8-1-1zm0 2.3c-.1.2-.3.4-.6.5-.5.2-1.1-.1-1.3-.6-.2-.5.1-1.1.6-1.3.1 0 .2-.1.4-.1.1 0 .3 0 .4.1.2.1.4.3.5.6.2.2.2.5 0 .8zm30.3 35.3c-1 .3-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .2-.4.2-1 .1-1.4-.2-.5-.5-.8-1-1-.4-.3-.9-.3-1.4-.1zm1.4 2.1c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.1.3.1.5 0 .7zm13.2-4.3c-.4-1-1.4-1.5-2.4-1.1-1 .3-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .2-.5.3-1 .1-1.4zm-1 1c-.1.2-.3.4-.5.4s-.4.1-.7 0c-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.2.1.5 0 .7zm2.5-13.5c-.3-1-1.4-1.5-2.4-1.1-1 .4-1.5 1.4-1.1 2.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1 1.1-.4 1.6-1.4 1.2-2.4zm-1.4 1.4c-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.1.5-.1 1-.5 1.1zm8.5-12.4c.2-.4.2-1 .1-1.4-.3-1-1.4-1.5-2.4-1.1-1 .4-1.5 1.4-1.1 2.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1.5-.3.9-.6 1.1-1zm-.9-.5c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.3.1.5 0 .7zm10.5-11.3c-1 .4-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .2-.4.2-1 .1-1.4-.4-1-1.5-1.5-2.4-1.1zm1.4 2.1c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.2.1.4 0 .7zm14.9-8.3c-.4-.2-1-.2-1.4-.1-.5.2-.8.5-1 1-.2.4-.2 1-.1 1.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1 1-.4 1.5-1.4 1.1-2.4-.1-.4-.4-.8-.9-1zm-.5 2.5c-.4.2-.9-.1-1.1-.5-.1-.2-.1-.4 0-.7.1-.2.3-.4.5-.4.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.2.4 0 .9-.5 1.1zm17.1-5.7c-.3-1-1.4-1.5-2.4-1.1-1 .4-1.5 1.4-1.1 2.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1 1-.3 1.5-1.4 1.2-2.4zm-1.5 1.</v>
+        <v>04c-.6 0-1.3.6-1.3 1.1v3.9h-91c-2.5-3-3.7-4.6-3.7-4.7-.2-.4-.7-.6-1.1-.5l-10.8 3.1c-.3.1-.5.2-.6.5s-.2.6-.1.8c0 .1.1-.3.3.7h-7v-3.9c0-.6-.4-1.1-.9-1.1h-17.3c-.6 0-.7.6-.7 1.1v3.9h-25.1c-1.8 0-2.9 1.3-2.9 3.2v15.2c0 12.1-1.5 24.4-2.8 37.5-1.4 14.3-3 29-3 44.5 0 12.5 2.3 17.8 5.9 25.8 1 2.3 2.3 4.9 3.6 8 0 .1.1.2.1.3.1.2 0 .5.1.7 2.3 5.2 7.6 8.9 13.6 8.9h148.4v14zM417.6 52.5l5.7-7.4 4.1 3.1 4.1 3.1-5.7 7.4-8.2-6.2zm6.9 7.8l-.8 1-3.3-2.5.8-1 3.3 2.5zm-8.1-6.2l3.3 2.5-.8 1-3.3-2.5.8-1zm-18.6-21.3l9-2.6c1.3 1.9 5.8 7.8 14.9 13.8l-5.6 7.3c-12.9-9.2-17.1-16.1-18.3-18.5zm26.7 10.7l.7-1 3.3 2.5-.7 1-3.3-2.5zm4.8 3.7l.7-1 3.3 2.5-.7 1-3.3-2.5zm3.7 5.4l10.4 8-2.1 2.7-3.6 4.7-10.4-8 5.7-7.4zm-.9 14.1c.1-.1.1-.2.2-.3l4.2 3.2-.5.7c-.3.4-.3 1.1.2 1.4.2.1.4.2.6.2.3 0 .6-.1.8-.4l9.1-11.9c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-.4.6-4.2-3.2.1-.1c.5-.7 1.3-1.1 2.2-1.2.9-.1 1.7.1 2.4.6l49.1 37.7c1.4 1.1 1.7 3.1.6 4.5-1.1-.8-2.2-1.5-3.3-2.3l.4-.5c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-1 1.3-6.9 9-1.1 1.5c-.3.4-.3 1.1.2 1.4.2.1.4.2.6.2.3 0 .6-.1.8-.4l.6-.7 1.9 1.2c.6.4 1.3.8 1.9 1.2-.3 0-.6.1-.8.4-.5.7-1.3 1.1-2.2 1.2-.9.1-1.7-.1-2.4-.6l-49.1-37.7c-.7-.5-1.1-1.3-1.2-2.2-.4-.9-.1-1.7.4-2.4zm54.3 38.3l-1.9-1.1 5.7-7.4c2.3 1.6 4.7 3.2 6.9 4.7 3.6 2.5 6.6 5 10.6 7.3v10c-7-3.9-13.5-8.4-21.3-13.5zm11.9-5.4c-.6-.4-1.3-.8-1.9-1.2 1.7-2.3 1.2-5.5-1-7.2l-49.1-37.7c-1.1-.9-2.5-1.2-3.9-1-1.4.2-2.6.9-3.5 2 0 .1-.1.1-.1.2l-4.7-3.6 1.3-1.7c.3-.4.3-1.1-.2-1.4l-4.1-3.1.3-.4c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-.3.4-4.1-3.1c-.2-.2-.5-.2-.7-.2-.3 0-.5.2-.7.4l-1.4 1.8v.1c-3.8-2.5-6.8-5.2-9.1-7.2h94.2V106c-3-2-6.2-4.2-9.4-6.4zm6.7-66.4h-.3v-3h3v3H505zm-118.3-3v3h-15v-3h15zM346.5 169c.1 0 .1 0 0 0zm46.4-32.1c.1.2.3.4.3.6s-.2.4-.3.6c.1-.2.2-.4.2-.6s-.1-.5-.2-.6zm.2 22.3c.1.1.3.1.5.1s.3-.1.5-.1h12.1c.1.1.3.1.5.1s.3-.1.5-.1h.6v2h-.4c-.2-.2-.4-.3-.7-.3s-.5.1-.7.3h-11.6c-.2-.2-.4-.3-.7-.3s-.5.1-.7.3h-.2v-2h.3zm6.6-19.4c-.6 0-1 .4-1 1v.4h-4v-19h11v19h-5v-.4c0-.5-.4-1-1-1zm-1 3.4v7.4c-.2-.1-.4-.1-.6.1-1.1 1.1-1.1 2.9 0 4 .6.6 1.3.8 2 .8s1.5-.3 2-.8c1.1-1.1 1.1-2.9 0-4-.2-.2-.5-.2-.7 0s-.2.5 0 .7c.7.7.7 1.9 0 2.6-.7.7-1.9.7-2.6 0-.7-.7-.7-1.8-.1-2.5v.4c0 .6.4 1 1 1s1-.4 1-1v-8.6h5v9.9c-.1.1-.1.3-.1.4s0 .3.1.4v3.3h-11v-3.7c0 .2 0 .4-.2.5.1-.1.2-.3.2-.5v-10.3h4zm-4 15.4c0 .2-.1.3-.3.4.1-.1.2-.3.3-.4zm11.1-5.8c.1-.4.4-.6.8-.6-.3 0-.6.3-.8.6zm3.2 4.4h-1.3v-3h2.6c.6 0 1.4-.1 1.4-.7v-11.7c0-.6-.9-.6-1.4-.6h-2.6v-3.1c0 .2.3.1.7.1h75.1c.1 0 .3.2.3.2v2.8h-2.6c-.6 0-1.4.1-1.4.6v11.7c0 .6.8.7 1.4.7h2.6v3h-1.3c-.6 0-.7.6-.7 1.1v3.6c0 .6.1 1.3.7 1.3h1.3v6.4c0 .3.1.6.4.8l6 4.8h-88.9l-.5.4c-.2.1-.4.2-.6.2.2 0 .4-.1.6-.2l.5-.4 6.1-4.8c.2-.2.4-.5.4-.8v-6.4h1.3c.6 0 .7-.7.7-1.3v-3.6c-.1-.5-.3-1.1-.8-1.1zm-1.3-5v-9h2v9h-2zm77.5 7h12.1c.1.1.3.1.5.1s.3-.1.5-.1h.5v2h-.3c-.2-.2-.4-.3-.7-.3s-.5.1-.7.3h-11.6c-.2-.2-.4-.3-.7-.3s-.5.1-.7.3h-.3v-2h.5c.1.1.3.1.5.1s.3 0 .4-.1zm-.5-7c.5 0 .9.5 1 1-.1-.4-.5-1-1-1zm13.1 0c-.5 0-.9.5-1 1v-.1c0-.5.4-.9 1-.9zm-.4-15c0-.6.4-.9 1-.9-.5-.1-.9.4-1 .9zm-.5 21.6c-.1-.1-.1-.3-.1-.5-.1.2 0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>5c-.4.2-.9-.1-1.1-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.2.4 0 .9-.5 1.1zm14.4-4.7c-.4-.2-1-.2-1.4-.1-.5.2-.8.5-1 1-.2.4-.2 1-.1 1.4.3.8 1 1.2 1.7 1.2.2 0 .4 0 .6-.1 1-.3 1.5-1.4 1.1-2.4-.1-.4-.4-.7-.9-1zm-.5 2.5c-.4.2-.9-.1-1.1-.5-.1-.2-.1-.4 0-.7.1-.2.3-.4.5-.4.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.2.5 0 1-.5 1.1zM853 147.5c-.2-.5-.5-.8-1-1-.4-.2-1-.2-1.4-.1-.5.2-.8.5-1 1-.2.4-.2 1-.1 1.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.9-.4 1.4-1.5 1.1-2.4zm-1.5 1.4c-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.1-.2-.1-.4 0-.7.1-.2.3-.4.5-.4.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.2.4 0 .9-.5 1.1zm-11.4-7.2c-.3-1-1.4-1.5-2.4-1.1-1 .4-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .3-.4.3-.9.1-1.4zm-.9 1c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.3.1.5 0 .7zm-17-.4c-.4-.2-1-.2-1.4-.1-1 .3-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1 1-.3 1.5-1.4 1.1-2.4-.2-.4-.6-.8-1-1zm-.5 2.5c-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.1 0 .2 0 .4.1s.4.3.4.5c.2.5-.1 1-.5 1.1zm-14.8 0c-.4-1-1.4-1.5-2.4-1.1-1 .3-1.5 1.4-1.1 2.4.2.5.5.8 1 1 .2.1.5.2.8.2.2 0 .4 0 .6-.1.5-.2.8-.5 1-1 .2-.5.2-1 .1-1.4zm-1 1c-.1.2-.3.4-.5.4-.2.1-.4.1-.7 0-.2-.1-.4-.3-.4-.5-.2-.4.1-.9.5-1.1.1 0 .2-.1.3-.1.3 0 .7.2.8.6.1.2.1.5 0 .7zM986.7 210.2h-170c-.6 0-1 .4-1 1v170c0 .6.4 1 1 1h170c.6 0 1-.4 1-1v-170c0-.5-.4-1-1-1zm-126.5 104c2.3.8 33.8 12.3 71.3 30.6 8.6 4.2 16.7 8.4 24.1 12.3v.1c.1.1.3.2.4.2h.1c8.7 4.6 16.4 9 22.8 12.7.1.1.3.2.4.2.1 0 .2 0 .3-.1-.1.1-.1.1-.2.1 2.3 1.3 4.3 2.5 6.3 3.6v6.2h-34.4c-.1 0-.2.1-.3.1h-.2c-.1 0-.3-.1-.4-.1h-10.7c-8.5-3-16.8-6.7-24.7-10.6-22.8-11.2-46.8-27.4-67.3-41.8-.1-.1-.2-.2-.3-.2-2.9-2-5.7-4-8.5-6-8.1-5.7-15.2-10.8-21.2-14.7v-4.6c5 2.8 10.3 6.5 16.5 10.8.1.1.2.1.3.1.2 0 .3-.1.4-.2.2-.2 0-.5-.2-.7-6.5-4.5-12-8.3-17-11.1v-.5c1 .2.9.3 1.3.5 28.5 12.1 39.7 13.1 41.2 13.1zm27.3-46.9c-2.6-3.4-3.9-6.7-4.5-9.6 3.6 4.8 8.4 7.7 9.4 8.3.2 2.1.5 4.2.9 6.5v.1c0 .1 0 .3.1.4.4 2.6 1 5.3 1.7 8.1 0 .1.1.1.1.2.1.1.2 0 .4 0-.1 0-.3.2-.4.1 1.4 5.6 3.4 11.7 6.1 17.7.6.2.9.3 1 .3.2 0 .4.2.4.5 0-.2-.2-.4-.4-.4 0 0-.4-.1-1-.2-2.7-.7-10.6-3.2-18.6-8.3-.6-.8-1.1-1.4-1.5-2l9.7-1.1c.4 0 .8-.4.9-.8s-.1-.9-.5-1.1c-6.8-3.8-10.1-14.1-11.1-17.8l6.5.8c.4 0 .8-.1 1-.5.1-.4 0-.9-.2-1.2zm-4.8-17.2l4.3 2.1c.3.1.6.1.9 0s.5-.4.5-.7c.4-2.1-2.5-8.6-3.7-11 .4-2.1 1.8-4.4 3.5-6.6-1.1 7.1 3.1 13.6 3.7 14.5-.3 4.4-.4 10 .2 16.4-1.8-1.2-6.6-4.5-9.6-9.4-.2-2.3 0-4.2.2-5.3zm14.6 1.6c.4.3.9.3 1.3-.1l8.4-7.9c.2.6.4 1.3.6 2-2.2 2.7-10.5 13-13.7 24.3-1.2-8.8-1.2-16.4-.8-21.9.4-1.5 2.9-9.8 7.1-14.3 1 1.5 1.8 2.9 1.9 3.5.3 1.6-2.7 8.6-5 13.1-.3.5-.2 1 .2 1.3zm42.3-20.1c6.3 3.4 10.1 9.3 14.1 15.5 4.4 6.7 8.9 13.7 16.9 17.6.1.1.3.1.4.1.4 0 .7-.2.9-.6.2-.5 0-1.1-.5-1.3-7.5-3.7-11.9-10.4-16.1-16.9-1.7-2.7-3.5-5.4-5.5-7.9 1.9 1.4 3.7 2.7 5.6 4.1 4.2 3.1 8.4 6.3 13.6 9.3.3.2.6.4.9.5 1.4.8 2.7 1.6 4.2 2.3.4.2.9.4 1.3.6 3.5 1.7 7.1 3 10.1 4.2V353c-17-9.3-41-22.1-70.2-35.2l-1 .7.9-.7 8.9-6.9c.4-.3.5-.8.3-1.2-.2-.4-.7</v>
+        <v xml:space="preserve"> .4.1.5zm-.2-17.6h-4v-.4c0-.6-.4-1-1-1s-1 .4-1 1v.4h-5v-19h11v19zm-6 2v8.6c0 .6.4 1 1 1s1-.4 1-1v-.3c.5.7.5 1.7-.2 2.4s-1.9.7-2.6 0c-.7-.7-.7-1.9 0-2.6.2-.2.2-.5 0-.7s-.5-.2-.7 0c-1.1 1.1-1.1 2.9 0 4 .6.6 1.3.8 2 .8s1.5-.3 2-.8c1.1-1.1 1.1-2.9 0-4-.1-.1-.3-.2-.5-.1v-7.3h4v14h-11v-14h5zm6.1 18.4c0 .1-.1.2-.1.4 0-.2 0-.3.1-.4zm-.1 1.6v6l-5.5 4.4-5.5-4.4v-6h11zm-13-11h-2v-9h2v9zm-89 11h11v6l-5.5 4.4-5.5-4.4v-6zm-.2-1.7zm13 0c.1.1.2.2.2.5 0-.2-.1-.4-.2-.5zm-.1-2.5c.2-.2.3-.4.3-.6 0 .2-.1.5-.3.6zm-14.7-6.8h-2v-9h2v9zm0-13.9v2.9H390c-.6 0-1.2.1-1.2.6v11.7c0 .6.7.7 1.2.7h2.8v3h-1.5c-.6 0-.5.6-.5 1.1v3.6c0 .6 0 1.3.5 1.3h1.5v6.4c0 .3.1.6.3.8l6 4.8h-39.7c-5.3 0-9.8-3.2-11.8-7.7-.1-.2 0-.5-.1-.7-.1-.3-.2-.5-.3-.8-.3-1.2-.4-2.5-.4-3.7v-26.7c2 1.8 4.7 2.6 7.8 2.6h37.5c.2 0 .6.2.6.1s.1-.1.1-.1l-.1.1zm115 36.9h-15.4l-.5.4c-.2.1-.4.2-.6.2.2 0 .4-.1.6-.2l.5-.4 6-4.8c.2-.2.4-.5.4-.8v-6.4h1.4c.6 0 .6-.7.6-1.3v-3.6c0-.6-.1-1.1-.6-1.1h-1.4v-3h2.7c.6 0 1.3-.1 1.3-.7v-11.7c0-.6-.8-.6-1.3-.6h-2.7v-3h9v37zm-9-23v-9h2v9h-2zm9-20.5v-.3c-.1.1-.1.2-.1.3v.2c0 .1 0 .2.1.3v4h-9v-14h2.9c.6 0 1-.4 1-1s-.4-1-1-1h-20.8c-.6 0-1 .4-1 1s.4 1 1 1h2.9v14.3s-.2-.3-.3-.3h-75.1c-.3 0-.7.4-.7.6v-14.6h2.8c.6 0 1-.4 1-1s-.4-1-1-1h-20.8c-.6 0-1 .4-1 1s.4 1 1 1h3v14.4s0 .1.1.1l-.1-.1v-.1c0-.1-.4-.4-.6-.4h-37.5c-6.2 0-10.8-4.9-10.8-11.1V51.6c0 10.5-1 21.1-2 32.2v41.3c0 3.2 1 6.2 3 8.5v25.6c-.5-.2-.7-.4-.9-.7-3.6-8-5.8-12.9-5.9-25 0-15.4 1.6-30.1 3-44.3.2-1.8-.3-3.6.7-5.5 1-11.1 1.8-21.7 1.8-32.2 0-.5-.3-1-.8-1h.1c.6 0 1 .4 1 1V36.4c0-.7.1-1.2.9-1.2h51c.4 0 .7-.3.9-.6-.3-.6-.6-1.1-.7-1.4.2 0 .4.8.7 1.4 1.8 3.2 6.5 9.8 18.3 18.2l-1.4 1.8c-.2.2-.2.5-.2.7 0 .3.2.5.4.7l4.1 3.1-.3.4c-.3.4-.3 1.1.2 1.4.2.1.4.2.6.2.3 0 .6-.1.8-.4l.3-.4 4.1 3.1c.2.1.4.2.6.2.3 0 .6-.1.8-.4l1.4-1.8 4.7 3.6c-.1.1-.2.1-.3.3-.9 1.1-1.2 2.5-1 3.9.2 1.4.9 2.6 2 3.5l49.1 37.7c.9.7 2 1.1 3.2 1.1h.7c1.4-.2 2.6-.9 3.5-2 .2-.3.2-.7.1-1-.1-.2-.2-.3-.3-.4.1.1.4.3.4.4 7 4.6 13.6 8.7 19.6 12.3v10.6c.1-.1.2-.2.4-.2-.3 0-.5.4-.6.5z"/&gt;&lt;path d="M345.6 168.4s.1 0 0 0c0-.1 0 0 0 0zm100.2-89.6c.3 0 .6-.1.8-.4l.5-.7 25.6 19.6-.5.7c-.3.4-.3 1.1.2 1.4.2.1.4.2.6.2.3 0 .6-.1.8-.4l9.1-11.9c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-.4.6-25.6-19.6.4-.6c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-1 1.3-6.9 9-1.1 1.5c-.3.4-.3 1.1.2 1.4 0 .3.2.3.5.3zm8.2-10.1l25.6 19.6-5.7 7.5-25.6-19.6 5.7-7.5zm-104.8 39.7c.3 0 .5-.2.5-.5V90.6c0-.3-.2-.5-.5-.5s-.5.2-.5.5V108c0 .2.2.4.5.4zm34.7 22.8h-26.3c-4.4 0-7.8-3.3-7.8-7.7v-7.8c0-.3-.2-.5-.5-.5s-.5.2-.5.5v7.8c0 4.9 3.9 8.7 8.8 8.7h26.3c.3 0 .5-.2.5-.5s-.3-.5-.5-.5zm74.2 0h-43c-.3 0-.5.2-.5.5s.2.5.5.5h43c.3 0 .5-.2.5-.5s-.3-.5-.5-.5zm18.3 0h-11.9c-.3 0-.5.2-.5.5s.2.5.5.5h11.9c.3 0 .5-.2.5-.5s-.2-.5-.5-.5z"/&gt;&lt;g&gt;&lt;path d="M529.9 380.5L398.8 210.7c-.4-.5-1.2-.5-1.6 0L266.1 380.5c-.2.3-.3.8-.1 1.1.2.3.5.6.9.6h262.2c.4 0 .7-.3.9-.6.2-.3.2-.8-.1-1.1zm-166-84c5.9-2.7 10.1-3.7 15.6-1.7 5.9 2.2 8.2 5.8 10.6 11.9-.6 1.1-1.1 2.2-1.6 3.3l-13.1-4.3-12.6-5.4h-.1c.4-1.3.7-2.6 1-3.8h.2zm95.4 49c-.5-.2-1.1.1-1.3.6 0 .1-.1.3-.1.4 0-.1 0-.3.1-</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>-.7-1.1-.6l-7.5 1.6 5.2-7.9c.3-.4.2-.9-.1-1.2-.3-.3-.8-.4-1.2-.1l-5.5 3.4c1.4-2.6 3.3-5.8 3.9-6.8 3.7-6.3 1.5-14.7-.9-23.6-.6-2.2-1.2-4.5-1.7-6.7-.1-.4-.4-.7-.9-.8-.4 0-.8.2-1 .5l-6.8 13.4c.3-3.4 1.4-9.2 4.9-17.4 1.8-4.2-2.4-18.4-3.3-21.4.7-.8 1.3-1.5 1.7-2 1.6-1.9 5.8-5.8 11.2-8.3 6.7-3.2 12.8-3.2 18.3-.2zM958 356.2l13.1-9c.8.4 1.6.9 2.5 1.3l-13.1 9c-.9-.4-1.7-.8-2.5-1.3zm-6.9-3.6l13.1-9c2 1.1 4 2.1 5.9 3.1l-13.1 9c-1.9-1-3.9-2.1-5.9-3.1zm-51.6-41.9c0-.2-.1-.4-.3-.5l-1.4-1.2 4.6-.1c.5 0 .8-.3 1-.8.1-.4-.1-.9-.5-1.1-8.7-4.7-14.5-9.9-18-13.7 8.1 4.7 15.6 6.9 16.9 6.9.3 1 1 1.2 1 1.8v.2c.6 1.1 1.1 2.3 1.7 3.5 0 .1 0 .1.1.2 1.7 3.1 3.6 6.3 5.7 9.5-3.6-1.6-7.2-3.2-10.8-4.7zm-5.3-38.2c2.5-11.4 10.8-22.2 13.6-25.7.4 1.4.8 2.9 1.1 4.4-2.5 2.7-11.7 13.8-13.7 26.7-.3-1.8-.7-3.6-1-5.4zm1.8 8.5c.7-13.1 10.1-24.8 13.2-28.5 1 4.4 1.5 8.6.8 10.1-6.5 15.1-5.1 22.2-5 22.5.1.4.4.7.9.8.4 0 .8-.2 1-.5l7.4-14.6c.4 1.4.7 2.8 1.1 4.1.1.2.1.4.2.6-.9 4-4.4 17.4-12.4 25.5-3.3-6.9-5.6-13.6-7.2-20 0 .1 0-.1 0 0zm20.5 16c-1.1 1.8-5.8 10.2-5.8 10.3-.2.4-.2.9.2 1.2.3.3.8.4 1.2.1l5-3.1-4 6.1c-.2.3-.2.8 0 1.1.2.3.6.5 1 .4l5.6-1.2-6.3 4.8c-.6-.3-1.3-.6-1.9-.8.1-.1 0-.3 0-.5-2.2-3.3-4.2-6.6-6-9.8 6.3-5.5 10.6-14.7 12.4-19.2.5 4 .3 7.6-1.4 10.6zm-11.5 7.7c-.5-.9-.9-1.9-1.4-2.8 7.4-7.3 11.1-18.9 12.5-24.4.6 2.4 1.2 4.7 1.5 6.9-1.3 3.4-5.8 14.3-12.6 20.3zm-2.5-3c0-.1.1-.2.1-.2 0 .1-.1.2-.1.2zm9.5 16.6l-13.4 9.2-2.7-1.2 13.4-9.2 2.7 1.2zm1.1.5c.9.4 1.8.8 2.6 1.2l-13.2 9.1c-.1 0-.1.1-.1.1l-2.7-1.2 13.4-9.2zm3.7 1.7c2.1 1 4.2 1.9 6.3 2.9l-13.3 9.1c-2.2-1-4.3-1.9-6.4-2.8l13.4-9.2zm7.4 3.3c.9.4 1.7.8 2.6 1.2l-13.2 9.1c-.9-.4-1.8-.8-2.6-1.2l13.2-9.1zm3.6 1.7c2.1 1 4.2 2 6.2 2.9l-13.2 9.1c-2.1-1-4.2-2-6.3-2.9l13.3-9.1zm7.3 3.5c.9.4 1.7.8 2.6 1.2l-13.1 9.1c-.9-.4-1.7-.8-2.6-1.2l13.1-9.1zm3.6 1.7c2.1 1 4.1 2 6.1 3l-13.1 9c-2.1-1-4.1-2-6.2-3l13.2-9zm7.2 3.5c4.8 2.4 9.4 4.7 13.8 7l-13.1 9c-4.4-2.3-9-4.6-13.8-6.9l13.1-9.1zm14.7 7.5c.8.4 1.7.9 2.5 1.3l-13.1 9c-.8-.4-1.7-.9-2.5-1.3l13.1-9zm-67.1-98.2c.4-3.3.8-5.1.9-5.2 0 0 .8-3.6 3.6-7.7.6.8 1.1 1.6 1.6 2.3-2.9 2.9-4.9 7.3-6.1 10.6zm-.1-5.4s-.1.3-.2.7c-.4-2.7-.7-7.2 1.1-10.8.1-.1.1-.3 0-.4.3-.2.5-.5.7-.6.7.9 1.5 1.9 2.2 2.9-2.9 4.2-3.8 8-3.8 8.2zm-.7 3.5c-.2 1.4-.4 3.1-.6 5.1-1.4-2.5-4.3-8.5-2.4-14.5 1.1-1.2 2.2-2.4 3.2-3.3-2 5.6-.3 12-.2 12.7zm-4.8 44.5l-8.6 1c-.3 0-.6.2-.8.5s-.1.7 0 .9c.2.4 5.6 9.7 20.2 18.4l-3.5.1c-.4 0-.8.3-.9.7-.1.3-.1.6.1.9-8.5-3.5-17.3-7-26.3-10.5 3.2-6.7 7.6-14.6 12.8-21.8 1.6 3.5 3.9 7.2 7 9.8zm20.4 30.6l-13.4 9.3c-17.2-7.3-29.6-12-33.1-13.3.1-.2.2-.5.3-.7.9-2.3 2.7-6.7 5.2-12 14.4 5.4 28.1 11 41 16.7zm-90.6 63.5v-59.5c12 4.2 26.9 8.2 28.8 8.7-1.7-1.2-3.3-2.3-4.9-3.5-5.9-1.7-15.9-4.5-23.9-7.4v-9.2c6 3.9 12.6 8.7 20.1 13.9l3.9 2.7c1.6 1.1 3.2 2.3 4.9 3.4h.5-.5c20.5 14.4 44.6 30.8 67.6 42 6.4 3.2 13.1 5.8 20 8.8H817.7zm0-79.5c-.1 0-.2-.1-.3-.1.1.1.2.1.3.1zm-1 0v-.3l.1.1-.1.2.1 1.2c.2.1.4.3.6.4-.3-.1-.7-.2-.7-.4v-1.2zm170 69l-1 .7v1.3c0-.2-.8-.4-1.1-.6l-1.4.9 1.4-.9 1.1-.7 1-.7v-1.2 1.2zm0-13.9v1.2l-1 .7v3.1l-8.6 5.9.9.6 7.</v>
+        <v xml:space="preserve">.4.2-.5.8-.8 1.3-.6l1.1.4c1-1.8 1.8-3.6 2.5-5.5s1.3-3.9 1.7-5.9l2.7 1-4.3 11.4-2.7-1-1-.4zm1.8-5.8c-3.6 9.6-10.7 17.3-20 21.5-9.3 4.2-19.6 4.5-29.1.9-19.7-7.4-29.7-29.7-22.3-49.5 3.6-9.6 10.7-17.3 20-21.5 5-2.3 10.3-3.4 15.7-3.4 4.5 0 9.1.8 13.4 2.5 19.6 7.4 29.7 29.6 22.3 49.5zm-100.9-38.2c-3.6 9.6-10.7 17.3-20 21.5-8.9 4.1-18.9 4.5-28.1 1.3l2.2-2.8c3.4 1 6.8 1.6 10.3 1.6 4.9 0 9.7-1 14.3-3.1 8.5-3.9 15-10.8 18.3-19.7 3.9-10.5 2.5-21.7-2.9-30.6l2.2-2.8c6.3 10 8.1 22.7 3.7 34.6zm-23.1-9.7l14 5.9-8.1-2.8c-2.2-.8-4.5-1.4-6.8-1.9l.9-1.2zm5.2 5l13.1 4.4h.2c-3.3 7.9-9.4 14.2-17.3 17.8-7.5 3.4-15.7 3.9-23.5 1.6l20-25.9c2.5.7 5.1 1.3 7.5 2.1zm14.5 1.3c-.1-.1-.2-.2-.4-.3l-18-7.6 15.1-19.6c4.8 8 6.2 18 3.3 27.5zm-47 27.6c.2 0 .4.1.6.2.1.1.3.1.4.1 4.5 1.6 9.1 2.5 13.7 2.5 5.6 0 11.2-1.2 16.5-3.6 9.5-4.3 16.7-11.9 20.7-21.5l13 4.3 12.7 5.4c-7 20.6 3.5 43.2 23.9 50.9 4.6 1.7 9.4 2.6 14.1 2.6 3.5 0 7.4-.5 10.4-1.4 1-.2 1.4-.4 2-.6v-.3.3c1.4-.5 2.7-1 4.1-1.6.5-.2.9-.4 1.4-.7.9 2.9 1.6 5.8 2 8.8.2 1.4-.3 2.8-1.5 3.7-1.1.9-2.6 1.1-3.9.5-1.5-.6-2.5-2.2-2.4-3.8 0-.5.1-1 .1-1.6.1-1.4.2-3.2.2-5.3-.7.2-1.3.4-2 .6 0 1.8-.1 3.3-.2 4.6 0 .6-.1 1.2-.1 1.7-.1 2.5 1.3 4.8 3.6 5.8.8.3 1.5.5 2.3.5 1.3 0 2.6-.4 3.6-1.3 1.7-1.3 2.5-3.4 2.2-5.6-.5-3.2-1.2-6.4-2.2-9.5v-.1c-.2-.5-.7-.8-1.3-.7-.4.1-.7.5-.7.9 0-.4.3-.7.7-.9.5-.2 1.1.1 1.3.7v.1c5.9-3.3 10.8-8 14.3-13.7l3.9 1.5c.1 0 .2.1.4.1.1 0 .3 0 .4-.1.2-.1.4-.3.5-.6l5-13.3c.2-.5-.1-1.1-.6-1.3l-3.9-1.5c2.9-18.6-7.4-37.3-25.6-44.2-10-3.8-20.9-3.4-30.7 1-7.3 3.3-13.3 8.6-17.5 15.3-2-4.9-4.6-9.2-11.2-11.6-6.3-2.4-11.2-.9-16 1.2 1.6-10.3-.9-20.6-6.5-28.9L398 213l129.1 167.2H269l41.8-54.1c-.1-.1-.3-.1-.4-.2-.3-.1-.5-.1-.6-.2L267 381.2l42.8-55.5z"/&gt;&lt;path d="M437.6 293.3c-8.7-3.3-18.1-3-26.6.9s-15 10.8-18.3 19.7c-6.8 18.1 2.4 38.4 20.4 45.2 4 1.5 8.1 2.3 12.3 2.3 4.9 0 9.7-1 14.3-3.1 8.5-3.9 15-10.8 18.3-19.7 6.7-18.2-2.4-38.5-20.4-45.3zm-24.2 64.8c-17.1-6.4-25.9-25.3-20.3-42.6.1 0 .1.1.2.1l12.7 5.3c7.8 3.3 14.7 8 20.6 13.8v.1c5.2 6.1 8.2 14.1 8.9 23.5 0 .1 0 .2.1.3-7.2 2.4-15 2.2-22.2-.5zm25.8-.9c-.6.3-1.1.5-1.7.7-.4-5-1.4-9.6-3.1-13.8 2.5 3.7 4.7 7.6 6.4 11.8.1.1.1.2.2.3-.5.4-1.1.7-1.8 1zm17.8-19.1c-2.7 7.3-7.7 13.3-14.2 17.2v-.1c-6.9-16.4-19.6-29.2-35.9-36.1l-8-3.4 58.5 19.7c.1 0 .2.1.3.1h.3c-.4.9-.7 1.8-1 2.6zm1.3-4.3c-.1-.1-.2-.2-.4-.3l-63-21.3c-.2-.1-.4-.1-.5 0 3.4-7.7 9.4-13.7 17-17.2 4.4-2 9.2-3 13.9-3 4 0 8 .7 11.9 2.2 16.1 6.1 24.9 23.2 21.1 39.6z"/&gt;&lt;/g&gt;&lt;g&gt;&lt;path d="M299.4 186.4L161.8 11.1c-.4-.5-1.2-.5-1.6 0L22.5 186.4c-.3.4-.3.9 0 1.2l137.6 175.3c.2.2.5.4.8.4s.6-.1.8-.4l137.6-175.3c.4-.3.4-.9.1-1.2zm-71.6-52.5l-2.3-3.7c-.1-.1-.1-.2-.1-.4 0 .1.1.3.1.4l2.3 3.7 3.7 6c-.7 2.7-.5 5.3.6 7.2.9 1.6 2.4 2.8 4.4 3.3.8.2 1.7.4 2.5.6 3.4.7 6.3 1.2 7 5 .1.5.5.8 1 .8h.2c.1 0 .3-.1.4-.1.3 3.8.2 7.9-.2 12-.7 6.8-1.8 13.2-3.3 19.1l-.6 2.3-.9 3.3c-1.9 6.2-4.2 12-6.9 17.3l-7.9-76.8zm-2.6-12.4c0 .1.1.3.1.4l1.5 2.5 10.9 17.9c.3.5.1 1.2-.4 1.5-.2.1-.5.2-.8.1-.3-.1-.5-.2-.7-.5l-8.6-14.2-.5-4.9-1.5-2.5v-.3zm9.1 23c.4.7 1.1 1.2 1.9 1.4.2.1.5.1.7.1.6 </v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>7-5.3v-.1l1-.6V360v1.2l-1 .7v3.1l-5.3 3.6.9.6 4.4-3v-.1l1-.6v-1.2 1.2l-1 .7v2.9l-.1.1-2 1.4c-.8-.4-1.6-.9-2.4-1.4-.3-.2-.6-.4-1-.6-.8-.4-1.6-.9-2.4-1.4-.3-.2-.6-.4-1-.6-.8-.4-1.6-.9-2.4-1.4-.3-.2-.6-.4-1-.5-3.7-2.1-7.8-4.4-12.1-6.7l13.1-9 .4-.3-.4.3c4 2.2 7.1 4.2 11.1 6.1.2.3 1.2.4 1.2.7zm0-96.3l-.1-.1v-.1l-.9-.3v-.1c0 .1 1 .2 1 .3v.3zm0-2.1c0-.1 0-.1 0 0v-.2c0-.1-.7-.2-1-.3v-.1c-3-1-5.7-2.1-8.7-3.5-.6-.3-1.2-.5-1.8-.8-1.4-.7-2.8-1.5-4.1-2.2-3.9-2.3-7.5-5-11.3-7.8-3.4-2.5-6.8-5-10.6-7.4-2.6-1.8-5.5-3.6-8.6-5.3-13.8-7.5-27.7 3.8-31.9 8.8-.5.6-1.2 1.5-2.1 2.5-.1.1-.1.2-.1.2l-5.4 5.1c1.5-3.5 3.2-7.7 2.8-9.5-.5-2.9-7.2-11.2-8-12.1-.2-.2-.4-.3-.7-.4-.3 0-.5.1-.7.2-.4.4-10.6 8.7-11.8 15.8 0 .2 0 .4.1.6 1.4 3 2.8 6.5 3.4 8.5l-3.8-1.9c-.3-.1-.6-.1-.8 0-.3.1-.5.3-.6.6-.1.4-2.7 8.6 3.6 18.3l-5.7-.7c-.3 0-.6.1-.9.3-.2.2-.3.6-.2.9.1.3.7 3.4 2.3 7.2-.2.1-.4.2-.5.3-5.5 7.4-10 15.7-13.3 22.7-.7-.3-1.4-.5-2.1-.8-.5-.2-1.1.1-1.3.6s.1 1.1.6 1.3c.6.2 1.3.5 1.9.7-2.5 5.3-4.2 9.6-5.2 12-.2.4-.3.8-.4 1-2.7-.3-14.3-2-39.9-12.7-.7-.3-1.1-.6-2.1-.8v-86.4h168v44.6c0 .1 1 .2 1 .4v.3z"/&gt;&lt;path d="M986.7 357v-1.3c0-.2-1-.4-1-.6v1.4l-12 8.2c.3.2.6.4.9.5l11.1-7.6v-.1l1-.5zm-140.9-35.6c2.7 1.9 5.4 3.8 8.3 5.8.1.1.2.1.3.1.2 0 .3-.1.4-.2.2-.2.1-.5-.1-.7-2.8-2-5.6-3.9-8.3-5.8l-2.2-1.6c-.2-.2-.5-.1-.7.1-.2.2-.1.5.1.7l2.2 1.6zm105.3 57.9c-12.3-4.3-22.7-8.5-31.8-13-20.5-10-41.2-23.8-57-34.6-.2-.2-.5-.1-.7.1-.2.2-.1.5.1.7 15.8 10.9 36.5 24.7 57.1 34.8 9.1 4.4 19.4 8.9 31.6 12.9h.6c.1 0 .2 0 .2-.1h.1c.1 0 .1-.1.1-.2.1-.1 0-.5-.3-.6zm-56-97.8c0-.1-.1-.3-.1-.4v.1c0 .1 0 .2.1.3zM776.7 224.3L648 60.4c-.4-.5-1.2-.5-1.6 0l-128.7 164c-.3.4-.3.9 0 1.2l128.7 164c.2.2.5.4.8.4s.6-.1.8-.4l128.7-164c.3-.4.3-.9 0-1.3zm-129.5 163l-87.1-111 13.9 4.1h.3c.4 0 .8-.3 1-.7l17.2-57.6c2.9 4.3 10.5 16.8 17.5 35.4 8.5 22.6 13.8 34.7 31.1 41.9 13.2 5.5 34.3 8.1 67 10.4l-60.9 77.5zM543.5 255.2l33.9 10.1-1.9 6.2-25.1-7.5-6.9-8.8zm5.8-61.8l-3.9-1.2 4.3-5.5 24.6 7.3c3.4 2.9 6.8 6.1 10.3 9.8l-24.7-7.4c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l26.3 7.8c2.5 2.7 4.9 5.6 7.3 8.7-.1 0-.2.1-.3.1l-50.5-15.1.5-3.7 1.9-2.4 4.3 1.3h.1c.2 0 .4-.1.5-.4.1.2-.1-.1-.4-.2zm1.1-7.5l4.4-5.6c4.8 2.7 10.9 6.7 17.6 12.2l-22-6.6zm38 42.6l-18.7-5.6c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l18.7 5.6-1.9 6.2-47.2-14.1 1-6.5 22.6 6.7h.1c.2 0 .4-.1.5-.4.1-.3-.1-.5-.3-.6l-22.7-6.8 1-6.5 49.1 14.7-1.9 6.4zm-8.6 28.7l-44-13.1 1-6.5 37.1 11.1h.1c.2 0 .4-.1.5-.4.1-.3-.1-.5-.3-.6l-37.3-11.1 1-6.5 46 13.7-4.1 13.4zm4.3-14.3L538 229.1l1-6.5 47 14-1.9 6.3zm6.4-21.6l-49.3-14.7 1-6.5 50.2 15-1.9 6.2zm-50.7-21.9l.5.1-1 6.5-.7-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.9.3-1 6.5-.7-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.9.3-1 6.5-.7-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.9.3-1 6.5-.7-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.9.3-1 6.5-.6-.2c-.3-.1-.5.1-.6.3-.1.3.1.5.3.6l.8.2-.9 6-14.2-17.9 20.1-25.6zm-4.2 45.7l43.9 13.1-1.9 6.2-35.2-10.5-6.8-8.7v-.1zm39.6 27.4l-1.7 5.7-15.6-4.7-6.4-8.1 23.7 7.1zm36.6-15.6c-8-21.3-17-34.7-18.7-37.2l1.2-4.1c5.7 7.6 11 16.5 15.7 26.8 2.4 5.4 4.5 10.4 6.3 14.9 13.6 32.9 17.5 4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>2.5 95.9 47.1l-2.8 3.6c-78-5.6-82.6-11.2-97.6-51.1zm6.4-.4c-1.8-4.4-3.9-9.5-6.4-14.9-16.2-36.1-41.5-54.7-55.8-62.8l41.1-52.4c-1.8 4.7-3.5 8.8-5 12.4-7.8 19.1-10.7 26.2-2.3 39 10.7 16.1 27.2 32.1 41.5 28.4 6.1-1.6 10.1-6.7 10.8-13.9.4-4.2.7-8.8 1-13.6 1-15.5 2.3-34.9 7-55.8 3.8-16.9 12.7-16.1 26-15 2.3.2 4.6.4 6.9.5l3.4 4.3c-1.5 12.4-5.2 44.2-6.2 66.8-3 70 9.2 77.6 32.7 85.8 8.9 3.1 15.6 7.4 20.1 12.7l-19.3 24.6c-78.4-4.7-82.2-13.9-95.5-46.1zm-6.8-148.2c24.6 5.9 34.3 12.3 36.8 14.2-4.8 21.1-6 40.5-7 56.1-.3 4.8-.6 9.3-1 13.6-.6 6.3-3.9 10.8-9.3 12.1-8.7 2.2-23.6-3.9-39.3-27.6-.5-.7-.9-1.4-1.3-2.1 10.6 15.3 22.4 24.1 32.3 24.1h1.1c.3 0 .5-.3.5-.5 0-.3-.3-.5-.5-.5-10.4.7-23.3-9.2-34.5-26.6-.2-.2-.5-.3-.7-.1-3.6-8.7-.7-15.7 5.7-31.3 2.1-5 4.6-11.2 7.3-18.5l9.9-12.9zm70-2.1c-1.7-.1-3.5-.3-5.1-.4-13.1-1.1-23.6-2-27.9 15.5-3-2.2-12.7-8.3-36.3-14l35.1-44.8 34.2 43.7zm32.3 157.1c-23.3-8.2-34.4-15.2-31.4-83.9.9-21.4 4.3-51.1 5.9-64.6L774.6 225l-40.3 51.3c-4.6-5.4-11.5-9.8-20.6-13z"/&gt;&lt;path d="M632.9 193.5c.2 0 .3-.1.4-.2 1.5-2.2 2.5-4.9 2.8-8 .3-3.6.6-7.6.9-11.4 0-.3-.2-.5-.5-.5-.2 0-.5.2-.5.5-.3 3.8-.6 7.7-.9 11.4-.3 2.9-1.1 5.4-2.6 7.5-.2.2-.1.5.1.7.1-.1.2 0 .3 0zm4.2-28.6s.1 0 0 0c.3 0 .5-.2.5-.5.7-9.7 1.8-21.4 4-34.1 0-.3-.1-.5-.4-.6-.3 0-.5.1-.6.4-2.3 12.7-3.3 24.4-4.1 34.2.1.3.4.5.6.6zM508.7 10.2h-183c-.6 0-1 .4-1 1v181c0 .6.4 1 1 1h183c.6 0 1-.4 1-1v-181c0-.5-.4-1-1-1zm-1 181h-181v-179h181v16H504c-.6 0-1.3.6-1.3 1.1v3.9h-91c-2.5-3-3.7-4.6-3.7-4.7-.2-.4-.7-.6-1.1-.5l-10.8 3.1c-.3.1-.5.2-.6.5s-.2.6-.1.8c0 .1.1-.3.3.7h-7v-3.9c0-.6-.4-1.1-.9-1.1h-17.3c-.6 0-.7.6-.7 1.1v3.9h-25.1c-1.8 0-2.9 1.3-2.9 3.2v15.2c0 12.1-1.5 24.4-2.8 37.5-1.4 14.3-3 29-3 44.5 0 12.5 2.3 17.8 5.9 25.8 1 2.3 2.3 4.9 3.6 8 0 .1.1.2.1.3.1.2 0 .5.1.7 2.3 5.2 7.6 8.9 13.6 8.9h148.4v14zM417.6 52.5l5.7-7.4 4.1 3.1 4.1 3.1-5.7 7.4-8.2-6.2zm6.9 7.8l-.8 1-3.3-2.5.8-1 3.3 2.5zm-8.1-6.2l3.3 2.5-.8 1-3.3-2.5.8-1zm-18.6-21.3l9-2.6c1.3 1.9 5.8 7.8 14.9 13.8l-5.6 7.3c-12.9-9.2-17.1-16.1-18.3-18.5zm26.7 10.7l.7-1 3.3 2.5-.7 1-3.3-2.5zm4.8 3.7l.7-1 3.3 2.5-.7 1-3.3-2.5zm3.7 5.4l10.4 8-2.1 2.7-3.6 4.7-10.4-8 5.7-7.4zm-.9 14.1c.1-.1.1-.2.2-.3l4.2 3.2-.5.7c-.3.4-.3 1.1.2 1.4.2.1.4.2.6.2.3 0 .6-.1.8-.4l9.1-11.9c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-.4.6-4.2-3.2.1-.1c.5-.7 1.3-1.1 2.2-1.2.9-.1 1.7.1 2.4.6l49.1 37.7c1.4 1.1 1.7 3.1.6 4.5-1.1-.8-2.2-1.5-3.3-2.3l.4-.5c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-1 1.3-6.9 9-1.1 1.5c-.3.4-.3 1.1.2 1.4.2.1.4.2.6.2.3 0 .6-.1.8-.4l.6-.7 1.9 1.2c.6.4 1.3.8 1.9 1.2-.3 0-.6.1-.8.4-.5.7-1.3 1.1-2.2 1.2-.9.1-1.7-.1-2.4-.6l-49.1-37.7c-.7-.5-1.1-1.3-1.2-2.2-.4-.9-.1-1.7.4-2.4zm54.3 38.3l-1.9-1.1 5.7-7.4c2.3 1.6 4.7 3.2 6.9 4.7 3.6 2.5 6.6 5 10.6 7.3v10c-7-3.9-13.5-8.4-21.3-13.5zm11.9-5.4c-.6-.4-1.3-.8-1.9-1.2 1.7-2.3 1.2-5.5-1-7.2l-49.1-37.7c-1.1-.9-2.5-1.2-3.9-1-1.4.2-2.6.9-3.5 2 0 .1-.1.1-.1.2l-4.7-3.6 1.3-1.7c.3-.4.3-1.1-.2-1.4l-4.1-3.1.3-.4c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-.3.4-4.1-3.1c-.2-.2-.5-.2-.7-.2-.3 0-.5.2-.7.4l-1.4 1.8v.1c-3.8-2.5-6.8-5.2-9.1-7.2h94.2V</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>106c-3-2-6.2-4.2-9.4-6.4zm6.7-66.4h-.3v-3h3v3H505zm-118.3-3v3h-15v-3h15zM346.5 169c.1 0 .1 0 0 0zm46.4-32.1c.1.2.3.4.3.6s-.2.4-.3.6c.1-.2.2-.4.2-.6s-.1-.5-.2-.6zm.2 22.3c.1.1.3.1.5.1s.3-.1.5-.1h12.1c.1.1.3.1.5.1s.3-.1.5-.1h.6v2h-.4c-.2-.2-.4-.3-.7-.3s-.5.1-.7.3h-11.6c-.2-.2-.4-.3-.7-.3s-.5.1-.7.3h-.2v-2h.3zm6.6-19.4c-.6 0-1 .4-1 1v.4h-4v-19h11v19h-5v-.4c0-.5-.4-1-1-1zm-1 3.4v7.4c-.2-.1-.4-.1-.6.1-1.1 1.1-1.1 2.9 0 4 .6.6 1.3.8 2 .8s1.5-.3 2-.8c1.1-1.1 1.1-2.9 0-4-.2-.2-.5-.2-.7 0s-.2.5 0 .7c.7.7.7 1.9 0 2.6-.7.7-1.9.7-2.6 0-.7-.7-.7-1.8-.1-2.5v.4c0 .6.4 1 1 1s1-.4 1-1v-8.6h5v9.9c-.1.1-.1.3-.1.4s0 .3.1.4v3.3h-11v-3.7c0 .2 0 .4-.2.5.1-.1.2-.3.2-.5v-10.3h4zm-4 15.4c0 .2-.1.3-.3.4.1-.1.2-.3.3-.4zm11.1-5.8c.1-.4.4-.6.8-.6-.3 0-.6.3-.8.6zm3.2 4.4h-1.3v-3h2.6c.6 0 1.4-.1 1.4-.7v-11.7c0-.6-.9-.6-1.4-.6h-2.6v-3.1c0 .2.3.1.7.1h75.1c.1 0 .3.2.3.2v2.8h-2.6c-.6 0-1.4.1-1.4.6v11.7c0 .6.8.7 1.4.7h2.6v3h-1.3c-.6 0-.7.6-.7 1.1v3.6c0 .6.1 1.3.7 1.3h1.3v6.4c0 .3.1.6.4.8l6 4.8h-88.9l-.5.4c-.2.1-.4.2-.6.2.2 0 .4-.1.6-.2l.5-.4 6.1-4.8c.2-.2.4-.5.4-.8v-6.4h1.3c.6 0 .7-.7.7-1.3v-3.6c-.1-.5-.3-1.1-.8-1.1zm-1.3-5v-9h2v9h-2zm77.5 7h12.1c.1.1.3.1.5.1s.3-.1.5-.1h.5v2h-.3c-.2-.2-.4-.3-.7-.3s-.5.1-.7.3h-11.6c-.2-.2-.4-.3-.7-.3s-.5.1-.7.3h-.3v-2h.5c.1.1.3.1.5.1s.3 0 .4-.1zm-.5-7c.5 0 .9.5 1 1-.1-.4-.5-1-1-1zm13.1 0c-.5 0-.9.5-1 1v-.1c0-.5.4-.9 1-.9zm-.4-15c0-.6.4-.9 1-.9-.5-.1-.9.4-1 .9zm-.5 21.6c-.1-.1-.1-.3-.1-.5-.1.2 0 .4.1.5zm-.2-17.6h-4v-.4c0-.6-.4-1-1-1s-1 .4-1 1v.4h-5v-19h11v19zm-6 2v8.6c0 .6.4 1 1 1s1-.4 1-1v-.3c.5.7.5 1.7-.2 2.4s-1.9.7-2.6 0c-.7-.7-.7-1.9 0-2.6.2-.2.2-.5 0-.7s-.5-.2-.7 0c-1.1 1.1-1.1 2.9 0 4 .6.6 1.3.8 2 .8s1.5-.3 2-.8c1.1-1.1 1.1-2.9 0-4-.1-.1-.3-.2-.5-.1v-7.3h4v14h-11v-14h5zm6.1 18.4c0 .1-.1.2-.1.4 0-.2 0-.3.1-.4zm-.1 1.6v6l-5.5 4.4-5.5-4.4v-6h11zm-13-11h-2v-9h2v9zm-89 11h11v6l-5.5 4.4-5.5-4.4v-6zm-.2-1.7zm13 0c.1.1.2.2.2.5 0-.2-.1-.4-.2-.5zm-.1-2.5c.2-.2.3-.4.3-.6 0 .2-.1.5-.3.6zm-14.7-6.8h-2v-9h2v9zm0-13.9v2.9H390c-.6 0-1.2.1-1.2.6v11.7c0 .6.7.7 1.2.7h2.8v3h-1.5c-.6 0-.5.6-.5 1.1v3.6c0 .6 0 1.3.5 1.3h1.5v6.4c0 .3.1.6.3.8l6 4.8h-39.7c-5.3 0-9.8-3.2-11.8-7.7-.1-.2 0-.5-.1-.7-.1-.3-.2-.5-.3-.8-.3-1.2-.4-2.5-.4-3.7v-26.7c2 1.8 4.7 2.6 7.8 2.6h37.5c.2 0 .6.2.6.1s.1-.1.1-.1l-.1.1zm115 36.9h-15.4l-.5.4c-.2.1-.4.2-.6.2.2 0 .4-.1.6-.2l.5-.4 6-4.8c.2-.2.4-.5.4-.8v-6.4h1.4c.6 0 .6-.7.6-1.3v-3.6c0-.6-.1-1.1-.6-1.1h-1.4v-3h2.7c.6 0 1.3-.1 1.3-.7v-11.7c0-.6-.8-.6-1.3-.6h-2.7v-3h9v37zm-9-23v-9h2v9h-2zm9-20.5v-.3c-.1.1-.1.2-.1.3v.2c0 .1 0 .2.1.3v4h-9v-14h2.9c.6 0 1-.4 1-1s-.4-1-1-1h-20.8c-.6 0-1 .4-1 1s.4 1 1 1h2.9v14.3s-.2-.3-.3-.3h-75.1c-.3 0-.7.4-.7.6v-14.6h2.8c.6 0 1-.4 1-1s-.4-1-1-1h-20.8c-.6 0-1 .4-1 1s.4 1 1 1h3v14.4s0 .1.1.1l-.1-.1v-.1c0-.1-.4-.4-.6-.4h-37.5c-6.2 0-10.8-4.9-10.8-11.1V51.6c0 10.5-1 21.1-2 32.2v41.3c0 3.2 1 6.2 3 8.5v25.6c-.5-.2-.7-.4-.9-.7-3.6-8-5.8-12.9-5.9-25 0-15.4 1.6-30.1 3-44.3.2-1.8-.3-3.6.7-5.5 1-11.1 1.8-21.7 1.8-32.2 0-.5-.3-1-.8-1h.1c.6 0 1 .4 1 1V36.4c0-.7.1-1.2.9-1.2h51c.4 0 .7-.3.9-.6-.3-.6-.6-1.1-.7-1.4.2 0 .4.8.7 1.4 1.8 3.2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v xml:space="preserve"> 6.5 9.8 18.3 18.2l-1.4 1.8c-.2.2-.2.5-.2.7 0 .3.2.5.4.7l4.1 3.1-.3.4c-.3.4-.3 1.1.2 1.4.2.1.4.2.6.2.3 0 .6-.1.8-.4l.3-.4 4.1 3.1c.2.1.4.2.6.2.3 0 .6-.1.8-.4l1.4-1.8 4.7 3.6c-.1.1-.2.1-.3.3-.9 1.1-1.2 2.5-1 3.9.2 1.4.9 2.6 2 3.5l49.1 37.7c.9.7 2 1.1 3.2 1.1h.7c1.4-.2 2.6-.9 3.5-2 .2-.3.2-.7.1-1-.1-.2-.2-.3-.3-.4.1.1.4.3.4.4 7 4.6 13.6 8.7 19.6 12.3v10.6c.1-.1.2-.2.4-.2-.3 0-.5.4-.6.5z"/&gt;&lt;path d="M345.6 168.4s.1 0 0 0c0-.1 0 0 0 0zm100.2-89.6c.3 0 .6-.1.8-.4l.5-.7 25.6 19.6-.5.7c-.3.4-.3 1.1.2 1.4.2.1.4.2.6.2.3 0 .6-.1.8-.4l9.1-11.9c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-.4.6-25.6-19.6.4-.6c.3-.4.3-1.1-.2-1.4-.4-.3-1.1-.3-1.4.2l-1 1.3-6.9 9-1.1 1.5c-.3.4-.3 1.1.2 1.4 0 .3.2.3.5.3zm8.2-10.1l25.6 19.6-5.7 7.5-25.6-19.6 5.7-7.5zm-104.8 39.7c.3 0 .5-.2.5-.5V90.6c0-.3-.2-.5-.5-.5s-.5.2-.5.5V108c0 .2.2.4.5.4zm34.7 22.8h-26.3c-4.4 0-7.8-3.3-7.8-7.7v-7.8c0-.3-.2-.5-.5-.5s-.5.2-.5.5v7.8c0 4.9 3.9 8.7 8.8 8.7h26.3c.3 0 .5-.2.5-.5s-.3-.5-.5-.5zm74.2 0h-43c-.3 0-.5.2-.5.5s.2.5.5.5h43c.3 0 .5-.2.5-.5s-.3-.5-.5-.5zm18.3 0h-11.9c-.3 0-.5.2-.5.5s.2.5.5.5h11.9c.3 0 .5-.2.5-.5s-.2-.5-.5-.5z"/&gt;&lt;g&gt;&lt;path d="M529.9 380.5L398.8 210.7c-.4-.5-1.2-.5-1.6 0L266.1 380.5c-.2.3-.3.8-.1 1.1.2.3.5.6.9.6h262.2c.4 0 .7-.3.9-.6.2-.3.2-.8-.1-1.1zm-166-84c5.9-2.7 10.1-3.7 15.6-1.7 5.9 2.2 8.2 5.8 10.6 11.9-.6 1.1-1.1 2.2-1.6 3.3l-13.1-4.3-12.6-5.4h-.1c.4-1.3.7-2.6 1-3.8h.2zm95.4 49c-.5-.2-1.1.1-1.3.6 0 .1-.1.3-.1.4 0-.1 0-.3.1-.4.2-.5.8-.8 1.3-.6l1.1.4c1-1.8 1.8-3.6 2.5-5.5s1.3-3.9 1.7-5.9l2.7 1-4.3 11.4-2.7-1-1-.4zm1.8-5.8c-3.6 9.6-10.7 17.3-20 21.5-9.3 4.2-19.6 4.5-29.1.9-19.7-7.4-29.7-29.7-22.3-49.5 3.6-9.6 10.7-17.3 20-21.5 5-2.3 10.3-3.4 15.7-3.4 4.5 0 9.1.8 13.4 2.5 19.6 7.4 29.7 29.6 22.3 49.5zm-100.9-38.2c-3.6 9.6-10.7 17.3-20 21.5-8.9 4.1-18.9 4.5-28.1 1.3l2.2-2.8c3.4 1 6.8 1.6 10.3 1.6 4.9 0 9.7-1 14.3-3.1 8.5-3.9 15-10.8 18.3-19.7 3.9-10.5 2.5-21.7-2.9-30.6l2.2-2.8c6.3 10 8.1 22.7 3.7 34.6zm-23.1-9.7l14 5.9-8.1-2.8c-2.2-.8-4.5-1.4-6.8-1.9l.9-1.2zm5.2 5l13.1 4.4h.2c-3.3 7.9-9.4 14.2-17.3 17.8-7.5 3.4-15.7 3.9-23.5 1.6l20-25.9c2.5.7 5.1 1.3 7.5 2.1zm14.5 1.3c-.1-.1-.2-.2-.4-.3l-18-7.6 15.1-19.6c4.8 8 6.2 18 3.3 27.5zm-47 27.6c.2 0 .4.1.6.2.1.1.3.1.4.1 4.5 1.6 9.1 2.5 13.7 2.5 5.6 0 11.2-1.2 16.5-3.6 9.5-4.3 16.7-11.9 20.7-21.5l13 4.3 12.7 5.4c-7 20.6 3.5 43.2 23.9 50.9 4.6 1.7 9.4 2.6 14.1 2.6 3.5 0 7.4-.5 10.4-1.4 1-.2 1.4-.4 2-.6v-.3.3c1.4-.5 2.7-1 4.1-1.6.5-.2.9-.4 1.4-.7.9 2.9 1.6 5.8 2 8.8.2 1.4-.3 2.8-1.5 3.7-1.1.9-2.6 1.1-3.9.5-1.5-.6-2.5-2.2-2.4-3.8 0-.5.1-1 .1-1.6.1-1.4.2-3.2.2-5.3-.7.2-1.3.4-2 .6 0 1.8-.1 3.3-.2 4.6 0 .6-.1 1.2-.1 1.7-.1 2.5 1.3 4.8 3.6 5.8.8.3 1.5.5 2.3.5 1.3 0 2.6-.4 3.6-1.3 1.7-1.3 2.5-3.4 2.2-5.6-.5-3.2-1.2-6.4-2.2-9.5v-.1c-.2-.5-.7-.8-1.3-.7-.4.1-.7.5-.7.9 0-.4.3-.7.7-.9.5-.2 1.1.1 1.3.7v.1c5.9-3.3 10.8-8 14.3-13.7l3.9 1.5c.1 0 .2.1.4.1.1 0 .3 0 .4-.1.2-.1.4-.3.5-.6l5-13.3c.2-.5-.1-1.1-.6-1.3l-3.9-1.5c2.9-18.6-7.4-37.3-25.6-44.2-10-3.8-20.9-3.4-30.7 1-7.3 3.3-13.3 8.6-17.5 15.3-2-4.9-4.6-9.2-11.2-11.6-6.3-2.4-11.2-.9-16 1.2 1.6-10.3-.9-20.6-6.</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>5-28.9L398 213l129.1 167.2H269l41.8-54.1c-.1-.1-.3-.1-.4-.2-.3-.1-.5-.1-.6-.2L267 381.2l42.8-55.5z"/&gt;&lt;path d="M437.6 293.3c-8.7-3.3-18.1-3-26.6.9s-15 10.8-18.3 19.7c-6.8 18.1 2.4 38.4 20.4 45.2 4 1.5 8.1 2.3 12.3 2.3 4.9 0 9.7-1 14.3-3.1 8.5-3.9 15-10.8 18.3-19.7 6.7-18.2-2.4-38.5-20.4-45.3zm-24.2 64.8c-17.1-6.4-25.9-25.3-20.3-42.6.1 0 .1.1.2.1l12.7 5.3c7.8 3.3 14.7 8 20.6 13.8v.1c5.2 6.1 8.2 14.1 8.9 23.5 0 .1 0 .2.1.3-7.2 2.4-15 2.2-22.2-.5zm25.8-.9c-.6.3-1.1.5-1.7.7-.4-5-1.4-9.6-3.1-13.8 2.5 3.7 4.7 7.6 6.4 11.8.1.1.1.2.2.3-.5.4-1.1.7-1.8 1zm17.8-19.1c-2.7 7.3-7.7 13.3-14.2 17.2v-.1c-6.9-16.4-19.6-29.2-35.9-36.1l-8-3.4 58.5 19.7c.1 0 .2.1.3.1h.3c-.4.9-.7 1.8-1 2.6zm1.3-4.3c-.1-.1-.2-.2-.4-.3l-63-21.3c-.2-.1-.4-.1-.5 0 3.4-7.7 9.4-13.7 17-17.2 4.4-2 9.2-3 13.9-3 4 0 8 .7 11.9 2.2 16.1 6.1 24.9 23.2 21.1 39.6z"/&gt;&lt;/g&gt;&lt;g&gt;&lt;path d="M299.4 186.4L161.8 11.1c-.4-.5-1.2-.5-1.6 0L22.5 186.4c-.3.4-.3.9 0 1.2l137.6 175.3c.2.2.5.4.8.4s.6-.1.8-.4l137.6-175.3c.4-.3.4-.9.1-1.2zm-71.6-52.5l-2.3-3.7c-.1-.1-.1-.2-.1-.4 0 .1.1.3.1.4l2.3 3.7 3.7 6c-.7 2.7-.5 5.3.6 7.2.9 1.6 2.4 2.8 4.4 3.3.8.2 1.7.4 2.5.6 3.4.7 6.3 1.2 7 5 .1.5.5.8 1 .8h.2c.1 0 .3-.1.4-.1.3 3.8.2 7.9-.2 12-.7 6.8-1.8 13.2-3.3 19.1l-.6 2.3-.9 3.3c-1.9 6.2-4.2 12-6.9 17.3l-7.9-76.8zm-2.6-12.4c0 .1.1.3.1.4l1.5 2.5 10.9 17.9c.3.5.1 1.2-.4 1.5-.2.1-.5.2-.8.1-.3-.1-.5-.2-.7-.5l-8.6-14.2-.5-4.9-1.5-2.5v-.3zm9.1 23c.4.7 1.1 1.2 1.9 1.4.2.1.5.1.7.1.6 0 1.1-.2 1.6-.4 1.4-.9 1.9-2.8 1-4.2l-1.9-3.1c1.2-.4 2.3-.3 3.4.4 3 1.9 5.2 7.5 6.1 14.6-1.6-3-5-3.7-7.8-4.2-.8-.2-1.6-.3-2.4-.5-1.5-.4-2.5-1.2-3.2-2.4-.6-1-.8-2.2-.7-3.6l1.3 1.9zm10 49.9l1.8-6.3v-.1c1.5-6 2.6-12.3 3.2-19.1 1.4-14.8-1.6-28.3-7.2-31.9-1.7-1.1-3.6-1.3-5.6-.5l-9.5-15.6c-.1-.2-.3-.4-.6-.4l-.7-6.4c-.2-2.3-2.1-3.8-4.4-3.8h-36.7c-2-3-4.2-4.9-6.4-6.2v-.1c-1.4-20.5-5.9-40.4-12.9-56.1-4-9.1-8.8-16.6-14.1-22.3l9.7-12.3L297.4 187l-56.9 72.5-4.2-41.8c3.6-8.6 6.1-16.7 8-23.3zM200 174.8c.1-1.1.1-2.3.2-3.4.1.2.4.3.6.4l1.1.2-1.4 7.9-5.7-1-5.7-1 1.4-7.9 1.1.2h.3c-.2 2.1-.4 3.2-.4 3.3 0 .3 0 .5.2.8s.4.4.6.4l6.5 1.1h.2c.2 0 .4-.1.6-.2.3-.3.4-.5.4-.8zm7.3 8.4l-6.1-.9 6.1.9-2.6 34.7c-.1.8-.5 1.5-1.1 2-.6.5-1.4.7-2.2.5l-26.9-4.7c-.8-.1-1.5-.6-1.9-1.3-.4-.7-.6-1.5-.4-2.3l9.5-33.5 6.2 1.1 9.2 1.6-2.6-.5 2.6.5 4.1.9h.1-.1l-4.1-.9 4.1.7-4.1-.7 4.1.7 6.1 1.2zm-9.2-9.7l-4.4-.8c.6-4 2.4-19.5-.7-38.7.6.2 1.1.4 1.7.5 0-.1-.1-.2-.1-.3-.1-.5.2-1.1.7-1.2h.4-.4c-.5.1-.8.7-.7 1.2 0 .1.1.2.1.3 2.2 8.1 4.4 21.3 3.4 39zm-29.4-58.4c-.8-2.4-1.1-4.7-.6-6.5.2 1.1.7 2.1.7 3.1 0 .1.2.2.3.3 0 .1.2.2.3.3 0 .1.1.1.1.2 4.8 8.7 20.9 12.8 30.3 15.2l1 .2v6.3c-23.1-5.9-30.3-13.6-32.1-19.1zm13 16.7l-.2-2c.1 0 .2.1.2.1v1.9zm-1.4-4.6c.5 0 .9.3 1 .8v.1c-.1-.5-.5-.9-1-.9zm3.1 37.8c.1.7-.1 1.1-.6 1.6-.4.5-1.1.6-1.7.6h-14.7c-.7 0-1.3-.1-1.7-.6-.4-.5-.6-.9-.6-1.6l4-35.8h11.2l4.1 35.8zm6.1-41.2h-.2.2zm-1.3-1.4c0 .2.1.4.1.6 0-.2-.2-.5-.3-.7-1.4-.5-2.3-1-4.3-1.6v-3.2c0-.6-.2-1.3-.7-1.3h-4.1l-.1.2v.1c0-1.5 0-3-.1-4.5.1.1.3.2.4.2h3.1c2.5 3 5.1 6.3 6 10.2zm-9.6-12.1v-.1c0-.5 0-1.1-.1-1.6.5.5 1.1.7 1.7 1.7H179c-</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>.1-.1-.2-.1-.4 0zm.2 7.9c-.1 0-.2-.1-.3-.1 0 0 0-.1.1-.1.2.1.4.2.7.2h2.4v1.6c-1-.4-1.5-.6-2.4-1.6h-.5zm-2-1.2c-2.4-1.6-4.4-3.4-5.6-5.6 0 0 0-.1-.1-.1-.1-2.8-.3-5.6-.5-8.5v-.1c-2.2-28.5-10.4-56-24-71.3l3.3-4.2c5.9 6.4 10.4 14.2 13.6 21.5 8.4 18.7 13.2 43.6 13.3 68.3zm13.9 5.9c-2-2.7-4-6.7-6.8-10.7 2.8 4 5 8 6.5 10.7h-.1s.2.1.3.1c0 0 .1 0 .1-.1zm-.4-.1c-.6-3.9-3-7.6-5.4-10.6 2.4 3 4.7 6.6 5.4 10.6zM83.8 110l61-77.7c.2.3.5.5.7.8 4.6 5.3 8.2 11.7 10.9 17.6 6.4 14.2 10.7 32.7 12.3 51.9v.2c-.7.9-2.4 3.4-2.7 7.4 0 0 0-.1 0 0H85l60.4-77.1c-.2-.3-.5-.5-.7-.7l-61 77.8-1.6 2-1.4 1.6 1.4-1.8 1.7-2zm-5.1 8.2v13.5l-.4-3.8c-.1-.5-.5-.7-1-.7h-5.6l6.7-9h.3zM68.8 129l1.6-2 2.6-3.3-2.6 3.5-1.6 2-4.3 5.3-.2 1.9 5.7-7.3h6.3l4 35.9c.1.7-.1 1.1-.6 1.6-.4.5-1.1.6-1.7.6H63.5c-.7 0-1.3-.1-1.7-.6-.4-.5-.6-1.1-.6-1.7l3.2-28.5.2-1.9 4.2-5.5zm9.9 128.5L23.3 187l.1-.1 55.3 70.3.8 1 8.5 11.1-8.5-10.8-.8-1zm153 14.8l-.8-.4-5.7 7.4h-58.9c-2.5 0-5 1.4-7.6 2h-.2 65.2L161 361l-62.6-79.7h14.7c-.5 0-.9-.5-1-1v-.1c.1.5.5.8 1 .8h.1c1-.2 2.2-.3 3.4-.5-1.3.2-2.4.4-3.4.6-.1 0-.1.1-.1.1h45.3c-.5 0-.9-.4-1-.9v-.4.3c.1.5.5.7 1 .7.1 0 .1.1.2.1 2.6-.6 5.2-1.9 7.6-1.9 38.9-11 58-35.7 68.3-57.7l-.4-3.9c-3 6.9-6.8 14-11.7 20.9-14.7 20.5-36.3 33.7-64.2 40.7l-.1-.1c-.1 0-.2.1-.3.1h-31.4c28.6-5 81.3-17.1 107.7-61.7l-.4-3.6c-28.7 51.8-93.1 61.2-117.4 64.7-1.2.2-2.4.6-3.4.6 0 0 0-.1-.1-.1s-.3.1-.4.1H96.8l-16-21h39.7c.3 0 .5-.2.5-.5s-.2-.5-.5-.5H80l-55.4-70.4L62 139.3l.2-1.8-.2 1.9-2.8 25.3c-.1 1.2.3 2.4 1.1 3.3.8.9 2 1.3 3.2 1.3h14.7c1.2 0 2.4-.4 3.2-1.3.8-.9 1.2-2.1 1.1-3.3L79 133.4c.2.3.5.5.8.5.6 0 1-.4 1-1v-15.3c0-.6-.2-1.3-.7-1.3H80l3.6-4H166v-1.9c0 .6-.1.9 0 1.9h.1c.5 0 .9-.5 1-1v.1c0 .6-.4.9-1 .9h-.1c.1 1 .3 2.1.7 3.4.1.3.2.6.3.6h.2c.6 0 1 .6 1 1.1v-.1c0-.5-.5-1.1-1-1.1h-.2s-.1.1-.1 0h-2.3c-.6 0-.9.7-.9 1.3v15.3c0 .6.4 1 1 1s1-.4 1-1v-14.6h1.4c.2 0 .3-.1.5-.2 0 .1.1.2.1.2l.2-.2c-.1.1-.1.2-.2.2 1.8 3.2 4.8 5.9 8.9 8.9h-9.4c-.5 0-.9.3-1 .8l-4.1 36.8c-.1 1.2.3 2.3 1.1 3.2.8.9 2 1.3 3.2 1.3h14.7c1.2 0 2.4-.4 3.2-1.3.8-.9 1.2-2.1 1.1-3.3l-3.5-31.3c.2.3.5.5.8.5.6 0 1-.4 1-1v-2c2 .9 4.5 1.8 7 2.6v-.4c-.1-.5.3-1.1.8-1.2-.5.1-.9.6-.8 1.2 0 .1 0 .3.1.4 2.5 15.1 2 28 1.4 34.9 0 0-.1 0-.1-.1l-2.1-.4c-.3 0-.5 0-.7.2-.2.2-.4.4-.4.6l-1.6 8.9-6.1-1.1-3.9-.7c-.5-.1-1.1.3-1.2.8-.1.5.3 1.1.8 1.2l2.8.5-9.4 33.4c-.4 1.3-.1 2.7.6 3.9s1.9 1.9 3.3 2.2l26.9 4.7c.3 0 .6.1.8.1 1.1 0 2.1-.3 3-1 1.1-.8 1.8-2.1 1.9-3.4l2.6-34.5 2.8.5h.2c.5 0 .9-.3 1-.8.1-.5-.3-1.1-.8-1.2l-9.9-1.8 1.6-8.9c0-.3 0-.5-.2-.7-.2-.2-.4-.4-.6-.4l-2.1-.4c-.4-.1-.7.1-.9.3.5-15.5-1.4-27.2-3.3-34.9 1.3.4 2.7.7 4.1 1.1h.2c.2 0 .7-.1.8-.2.2-.2.6-.5.6-.8V127c0-.5-.5-.9-1-1l-1.6-.4c-2.1-.5-4.6-1.2-7.1-1.9.1.4-.1.9-.5 1.1-.1.1-.3.1-.5.1.1 0 .3 0 .4-.1.4-.2.6-.7.5-1.1l-.1-.1c-1.3-2.7-3.8-7.4-6.7-11.4h35.2c1.2 0 2.3.8 2.4 2l10 99.7.3 3.5v.1l.4 3.9 4.1 40.4-7.1 9.1-15.4-10.2c-.2-.2-.5-.1-.7.1-.2.2-.1.5.1.7l15.3 10.1.8.7z"/&gt;&lt;path d="M201.4 207.1c-.3 0-.5.2-.5.5l-.5 7.1c0 .1-.1.3-.2.4-.1.1-.3.1-.4.1l-12.7-2.2-6.6-1.2-2.6-.5c-.1 0-.3-.1-.3-.2-.1-.1-.1-.3-.1-.4l5.3-</v>
-      </c>
-    </row>
-    <row r="31" xml:space="preserve">
-      <c r="A31" t="str" xml:space="preserve">
-        <v xml:space="preserve">18.7c.1-.3-.1-.5-.3-.6-.3-.1-.5.1-.6.3l-5.3 18.7c-.1.4 0 .8.2 1.2.2.4.6.6 1 .7l2.6.5 6.6 1.2 12.7 2.2h.3c.3 0 .7-.1.9-.3.3-.3.5-.6.6-1.1l.5-7.1c-.1-.3-.3-.5-.6-.6zm-18.2-18.9h.1c.2 0 .4-.1.5-.4l1-3.7 14.5 2.6c.3 0 .5-.1.6-.4 0-.3-.1-.5-.4-.6l-15-2.6c-.3 0-.5.1-.6.4l-1.2 4.1c.1.3.3.5.5.6zm18.6 14.5c.3 0 .5-.2.5-.5l.9-12c0-.3-.2-.5-.5-.5s-.5.2-.5.5l-.9 12c0 .3.2.5.5.5zm-24.9 54.5h-18.2c-.3 0-.5.2-.5.5s.2.5.5.5h18.2c.3 0 .5-.2.5-.5s-.2-.5-.5-.5zm-18-139.5c0-.3-.2-.5-.5-.5h-42.5c-.3 0-.5.2-.5.5s.2.5.5.5h42.5c.3 0 .5-.2.5-.5zm-93.8 45.6c.1.1.2 0 .4 0h10.4c.3 0 .5-.2.5-.5s-.2-.5-.5-.5H66l1.4-12.6c0-.3-.2-.4-.4-.4-.3 0-.5.2-.6.5L65 163.1c-.1.1 0 .1.1.2zm2.4-18.7c.1 0 .1 0 0 0 .3 0 .5-.2.6-.4l1.2-10.9c0-.3-.2-.5-.4-.6-.3 0-.5.2-.6.4L67.1 144c0 .3.2.6.4.6zm100.7 18.7c.1.1.2 0 .4 0h6.4c.3 0 .5-.2.5-.5s-.2-.5-.5-.5h-5.9l.5-3.9c0-.3-.2-.4-.4-.4-.3 0-.5.2-.6.5l-.5 4.7.1.1zm1.8-12.7s0 .1 0 0c.3 0 .5-.2.6-.4l1.9-17c0-.3-.2-.5-.4-.6-.3 0-.5.2-.6.4l-1.9 17c-.1.4.1.6.4.6zm-62.6-33.4H89.1c-.3 0-.5.2-.5.5s.2.5.5.5h18.2c.3 0 .5-.2.5-.5s-.1-.5-.4-.5z"/&gt;&lt;/g&gt;&lt;/svg&gt;
+        <v>0 1.1-.2 1.6-.4 1.4-.9 1.9-2.8 1-4.2l-1.9-3.1c1.2-.4 2.3-.3 3.4.4 3 1.9 5.2 7.5 6.1 14.6-1.6-3-5-3.7-7.8-4.2-.8-.2-1.6-.3-2.4-.5-1.5-.4-2.5-1.2-3.2-2.4-.6-1-.8-2.2-.7-3.6l1.3 1.9zm10 49.9l1.8-6.3v-.1c1.5-6 2.6-12.3 3.2-19.1 1.4-14.8-1.6-28.3-7.2-31.9-1.7-1.1-3.6-1.3-5.6-.5l-9.5-15.6c-.1-.2-.3-.4-.6-.4l-.7-6.4c-.2-2.3-2.1-3.8-4.4-3.8h-36.7c-2-3-4.2-4.9-6.4-6.2v-.1c-1.4-20.5-5.9-40.4-12.9-56.1-4-9.1-8.8-16.6-14.1-22.3l9.7-12.3L297.4 187l-56.9 72.5-4.2-41.8c3.6-8.6 6.1-16.7 8-23.3zM200 174.8c.1-1.1.1-2.3.2-3.4.1.2.4.3.6.4l1.1.2-1.4 7.9-5.7-1-5.7-1 1.4-7.9 1.1.2h.3c-.2 2.1-.4 3.2-.4 3.3 0 .3 0 .5.2.8s.4.4.6.4l6.5 1.1h.2c.2 0 .4-.1.6-.2.3-.3.4-.5.4-.8zm7.3 8.4l-6.1-.9 6.1.9-2.6 34.7c-.1.8-.5 1.5-1.1 2-.6.5-1.4.7-2.2.5l-26.9-4.7c-.8-.1-1.5-.6-1.9-1.3-.4-.7-.6-1.5-.4-2.3l9.5-33.5 6.2 1.1 9.2 1.6-2.6-.5 2.6.5 4.1.9h.1-.1l-4.1-.9 4.1.7-4.1-.7 4.1.7 6.1 1.2zm-9.2-9.7l-4.4-.8c.6-4 2.4-19.5-.7-38.7.6.2 1.1.4 1.7.5 0-.1-.1-.2-.1-.3-.1-.5.2-1.1.7-1.2h.4-.4c-.5.1-.8.7-.7 1.2 0 .1.1.2.1.3 2.2 8.1 4.4 21.3 3.4 39zm-29.4-58.4c-.8-2.4-1.1-4.7-.6-6.5.2 1.1.7 2.1.7 3.1 0 .1.2.2.3.3 0 .1.2.2.3.3 0 .1.1.1.1.2 4.8 8.7 20.9 12.8 30.3 15.2l1 .2v6.3c-23.1-5.9-30.3-13.6-32.1-19.1zm13 16.7l-.2-2c.1 0 .2.1.2.1v1.9zm-1.4-4.6c.5 0 .9.3 1 .8v.1c-.1-.5-.5-.9-1-.9zm3.1 37.8c.1.7-.1 1.1-.6 1.6-.4.5-1.1.6-1.7.6h-14.7c-.7 0-1.3-.1-1.7-.6-.4-.5-.6-.9-.6-1.6l4-35.8h11.2l4.1 35.8zm6.1-41.2h-.2.2zm-1.3-1.4c0 .2.1.4.1.6 0-.2-.2-.5-.3-.7-1.4-.5-2.3-1-4.3-1.6v-3.2c0-.6-.2-1.3-.7-1.3h-4.1l-.1.2v.1c0-1.5 0-3-.1-4.5.1.1.3.2.4.2h3.1c2.5 3 5.1 6.3 6 10.2zm-9.6-12.1v-.1c0-.5 0-1.1-.1-1.6.5.5 1.1.7 1.7 1.7H179c-.1-.1-.2-.1-.4 0zm.2 7.9c-.1 0-.2-.1-.3-.1 0 0 0-.1.1-.1.2.1.4.2.7.2h2.4v1.6c-1-.4-1.5-.6-2.4-1.6h-.5zm-2-1.2c-2.4-1.6-4.4-3.4-5.6-5.6 0 0 0-.1-.1-.1-.1-2.8-.3-5.6-.5-8.5v-.1c-2.2-28.5-10.4-56-24-71.3l3.3-4.2c5.9 6.4 10.4 14.2 13.6 21.5 8.4 18.7 13.2 43.6 13.3 68.3zm13.9 5.9c-2-2.7-4-6.7-6.8-10.7 2.8 4 5 8 6.5 10.7h-.1s.2.1.3.1c0 0 .1 0 .1-.1zm-.4-.1c-.6-3.9-3-7.6-5.4-10.6 2.4 3 4.7 6.6 5.4 10.6zM83.8 110l61-77.7c.2.3.5.5.7.8 4.6 5.3 8.2 11.7 10.9 17.6 6.4 14.2 10.7 32.7 12.3 51.9v.2c-.7.9-2.4 3.4-2.7 7.4 0 0 0-.1 0 0H85l60.4-77.1c-.2-.3-.5-.5-.7-.7l-61 77.8-1.6 2-1.4 1.6 1.4-1.8 1.7-2zm-5.1 8.2v13.5l-.4-3.8c-.1-.5-.5-.7-1-.7h-5.6l6.7-9h.3zM68.8 129l1.6-2 2.6-3.3-2.6 3.5-1.6 2-4.3 5.3-.2 1.9 5.7-7.3h6.3l4 35.9c.1.7-.1 1.1-.6 1.6-.4.5-1.1.6-1.7.6H63.5c-.7 0-1.3-.1-1.7-.6-.4-.5-.6-1.1-.6-1.7l3.2-28.5.2-1.9 4.2-5.5zm9.9 128.5L23.3 187l.1-.1 55.3 70.3.8 1 8.5 11.1-8.5-10.8-.8-1zm153 14.8l-.8-.4-5.7 7.4h-58.9c-2.5 0-5 1.4-7.6 2h-.2 65.2L161 361l-62.6-79.7h14.7c-.5 0-.9-.5-1-1v-.1c.1.5.5.8 1 .8h.1c1-.2 2.2-.3 3.4-.5-1.3.2-2.4.4-3.4.6-.1 0-.1.1-.1.1h45.3c-.5 0-.9-.4-1-.9v-.4.3c.1.5.5.7 1 .7.1 0 .1.1.2.1 2.6-.6 5.2-1.9 7.6-1.9 38.9-11 58-35.7 68.3-57.7l-.4-3.9c-3 6.9-6.8 14-11.7 20.9-14.7 20.5-36.3 33.7-64.2 40.7l-.1-.1c-.1 0-.2.1-.3.1h-31.4c28.6-5 81.3-17.1 107.7-61.7l-.4-3.6c-28.7 51.8-93.1 61.2-117.4 64.7-1.2.2-2.4.6-3.4.6 0 0 0-.1-.1-.1s-.3.1-.4.1H96.8l-16-21h39.7c.3 0 .5-.2.5-.5s-.2-.5-.5-.5H8</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str" xml:space="preserve">
+        <v xml:space="preserve">0l-55.4-70.4L62 139.3l.2-1.8-.2 1.9-2.8 25.3c-.1 1.2.3 2.4 1.1 3.3.8.9 2 1.3 3.2 1.3h14.7c1.2 0 2.4-.4 3.2-1.3.8-.9 1.2-2.1 1.1-3.3L79 133.4c.2.3.5.5.8.5.6 0 1-.4 1-1v-15.3c0-.6-.2-1.3-.7-1.3H80l3.6-4H166v-1.9c0 .6-.1.9 0 1.9h.1c.5 0 .9-.5 1-1v.1c0 .6-.4.9-1 .9h-.1c.1 1 .3 2.1.7 3.4.1.3.2.6.3.6h.2c.6 0 1 .6 1 1.1v-.1c0-.5-.5-1.1-1-1.1h-.2s-.1.1-.1 0h-2.3c-.6 0-.9.7-.9 1.3v15.3c0 .6.4 1 1 1s1-.4 1-1v-14.6h1.4c.2 0 .3-.1.5-.2 0 .1.1.2.1.2l.2-.2c-.1.1-.1.2-.2.2 1.8 3.2 4.8 5.9 8.9 8.9h-9.4c-.5 0-.9.3-1 .8l-4.1 36.8c-.1 1.2.3 2.3 1.1 3.2.8.9 2 1.3 3.2 1.3h14.7c1.2 0 2.4-.4 3.2-1.3.8-.9 1.2-2.1 1.1-3.3l-3.5-31.3c.2.3.5.5.8.5.6 0 1-.4 1-1v-2c2 .9 4.5 1.8 7 2.6v-.4c-.1-.5.3-1.1.8-1.2-.5.1-.9.6-.8 1.2 0 .1 0 .3.1.4 2.5 15.1 2 28 1.4 34.9 0 0-.1 0-.1-.1l-2.1-.4c-.3 0-.5 0-.7.2-.2.2-.4.4-.4.6l-1.6 8.9-6.1-1.1-3.9-.7c-.5-.1-1.1.3-1.2.8-.1.5.3 1.1.8 1.2l2.8.5-9.4 33.4c-.4 1.3-.1 2.7.6 3.9s1.9 1.9 3.3 2.2l26.9 4.7c.3 0 .6.1.8.1 1.1 0 2.1-.3 3-1 1.1-.8 1.8-2.1 1.9-3.4l2.6-34.5 2.8.5h.2c.5 0 .9-.3 1-.8.1-.5-.3-1.1-.8-1.2l-9.9-1.8 1.6-8.9c0-.3 0-.5-.2-.7-.2-.2-.4-.4-.6-.4l-2.1-.4c-.4-.1-.7.1-.9.3.5-15.5-1.4-27.2-3.3-34.9 1.3.4 2.7.7 4.1 1.1h.2c.2 0 .7-.1.8-.2.2-.2.6-.5.6-.8V127c0-.5-.5-.9-1-1l-1.6-.4c-2.1-.5-4.6-1.2-7.1-1.9.1.4-.1.9-.5 1.1-.1.1-.3.1-.5.1.1 0 .3 0 .4-.1.4-.2.6-.7.5-1.1l-.1-.1c-1.3-2.7-3.8-7.4-6.7-11.4h35.2c1.2 0 2.3.8 2.4 2l10 99.7.3 3.5v.1l.4 3.9 4.1 40.4-7.1 9.1-15.4-10.2c-.2-.2-.5-.1-.7.1-.2.2-.1.5.1.7l15.3 10.1.8.7z"/&gt;&lt;path d="M201.4 207.1c-.3 0-.5.2-.5.5l-.5 7.1c0 .1-.1.3-.2.4-.1.1-.3.1-.4.1l-12.7-2.2-6.6-1.2-2.6-.5c-.1 0-.3-.1-.3-.2-.1-.1-.1-.3-.1-.4l5.3-18.7c.1-.3-.1-.5-.3-.6-.3-.1-.5.1-.6.3l-5.3 18.7c-.1.4 0 .8.2 1.2.2.4.6.6 1 .7l2.6.5 6.6 1.2 12.7 2.2h.3c.3 0 .7-.1.9-.3.3-.3.5-.6.6-1.1l.5-7.1c-.1-.3-.3-.5-.6-.6zm-18.2-18.9h.1c.2 0 .4-.1.5-.4l1-3.7 14.5 2.6c.3 0 .5-.1.6-.4 0-.3-.1-.5-.4-.6l-15-2.6c-.3 0-.5.1-.6.4l-1.2 4.1c.1.3.3.5.5.6zm18.6 14.5c.3 0 .5-.2.5-.5l.9-12c0-.3-.2-.5-.5-.5s-.5.2-.5.5l-.9 12c0 .3.2.5.5.5zm-24.9 54.5h-18.2c-.3 0-.5.2-.5.5s.2.5.5.5h18.2c.3 0 .5-.2.5-.5s-.2-.5-.5-.5zm-18-139.5c0-.3-.2-.5-.5-.5h-42.5c-.3 0-.5.2-.5.5s.2.5.5.5h42.5c.3 0 .5-.2.5-.5zm-93.8 45.6c.1.1.2 0 .4 0h10.4c.3 0 .5-.2.5-.5s-.2-.5-.5-.5H66l1.4-12.6c0-.3-.2-.4-.4-.4-.3 0-.5.2-.6.5L65 163.1c-.1.1 0 .1.1.2zm2.4-18.7c.1 0 .1 0 0 0 .3 0 .5-.2.6-.4l1.2-10.9c0-.3-.2-.5-.4-.6-.3 0-.5.2-.6.4L67.1 144c0 .3.2.6.4.6zm100.7 18.7c.1.1.2 0 .4 0h6.4c.3 0 .5-.2.5-.5s-.2-.5-.5-.5h-5.9l.5-3.9c0-.3-.2-.4-.4-.4-.3 0-.5.2-.6.5l-.5 4.7.1.1zm1.8-12.7s0 .1 0 0c.3 0 .5-.2.6-.4l1.9-17c0-.3-.2-.5-.4-.6-.3 0-.5.2-.6.4l-1.9 17c-.1.4.1.6.4.6zm-62.6-33.4H89.1c-.3 0-.5.2-.5.5s.2.5.5.5h18.2c.3 0 .5-.2.5-.5s-.1-.5-.4-.5z"/&gt;&lt;/g&gt;&lt;/svg&gt;
         &lt;/div&gt;
       &lt;/div&gt;
   &lt;/div&gt;
@@ -2235,7 +1911,12 @@
         &lt;!-- main hero container --&gt;
         &lt;div class="main-content-first-block" style="width: 100%; height: 100vh; min-height: 100vh; background: #e8ac04; position: relative;"&gt;
           &lt;div class="pageWidthFakeBox"&gt;
-            &lt;div class="main-content-container-box"&gt;
+            &lt;div class="main-content-con</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str" xml:space="preserve">
+        <v xml:space="preserve">tainer-box"&gt;
               &lt;div id="ph-ch-2"&gt;
                 &lt;div class="main-content-paragraph"&gt;
                   &lt;h2 class="banner-title preload_header-h2" data-i18n="banner_header"&gt;
@@ -2262,12 +1943,7 @@
                     &lt;/span&gt;
                   &lt;/div&gt;
                 &lt;/div&gt;
-                &lt;a href="#offer" class="btn--medium btn preload_header-btn pivo-btn hero__btn pivo-btn--heade</v>
-      </c>
-    </row>
-    <row r="32" xml:space="preserve">
-      <c r="A32" t="str" xml:space="preserve">
-        <v xml:space="preserve">r pivo-buy-link shop-link" id="header-link" data-ga-label="data-theme-editor-setting="&gt;
+                &lt;a href="#offer" class="btn--medium btn preload_header-btn pivo-btn hero__btn pivo-btn--header pivo-buy-link shop-link" id="header-link" data-ga-label="data-theme-editor-setting="&gt;
                   &lt;ly-as-18196401&gt;&lt;span data-translate="11"&gt;Скачать Pivo&lt;/span&gt;&lt;/ly-as-18196401&gt;
                 &lt;/a&gt;
                 &lt;a href="#offer" class="btn--medium btn preload_header-btn pivo-btn hero__btn pivo-btn--header pivo-buy-link shop-link" data-ga-label="data-theme-editor-setting="&gt;
@@ -2290,7 +1966,12 @@
           &lt;div id="pivo-intro-container" class="pivo-intro-container custom-content-wrapper--top-margin"&gt;
             &lt;div class="page-width"&gt;
               &lt;div class="page-width-header "&gt;
-                &lt;p class="text-center custom-content__section-header-desc" data-i18n="tiny_pod"&gt;
+                </v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;p class="text-center custom-content__section-header-desc" data-i18n="tiny_pod"&gt;
                   &lt;ly-as-18196402&gt;&lt;span data-translate="13"&gt;Один маленький кубик, бесконечные возможности&lt;/span&gt;&lt;/ly-as-18196402&gt;
                 &lt;/p&gt;
               &lt;/div&gt;
@@ -2311,12 +1992,7 @@
                   &lt;/div&gt;
                   &lt;p class="custom__block-body-text maximize-camera" data-i18n="maximize_camera"&gt;
                     &lt;ly-as-18196404&gt;&lt;span data-translate="15"&gt;Максимизируйте возможности камеры вашего смартфона с помощью режимов Авто трекинг,
-                      умная съемка и 9 режимов быстрого создания. Бол</v>
-      </c>
-    </row>
-    <row r="33" xml:space="preserve">
-      <c r="A33" t="str" xml:space="preserve">
-        <v xml:space="preserve">ьше не нужно умолять и подкупать друзей, чтобы они
+                      умная съемка и 9 режимов быстрого создания. Больше не нужно умолять и подкупать друзей, чтобы они
                       сделали вашу фотографию или снимали ваше видео. &lt;/span&gt;&lt;/ly-as-18196404&gt;
                   &lt;/p&gt;
                 &lt;/div&gt;
@@ -2347,7 +2023,12 @@
                   &lt;li&gt;
                     &lt;div class="sprite-remote"&gt;&lt;/div&gt;
                     &lt;br&gt;
-                    &lt;span data-i18n="remote_control"&gt;
+                    &lt;span data-i18n="remot</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str" xml:space="preserve">
+        <v xml:space="preserve">e_control"&gt;
                       &lt;ly-as-18196408&gt;&lt;span data-translate="19"&gt;Удаленный контроль&lt;/span&gt;&lt;/ly-as-18196408&gt;
                     &lt;/span&gt;
                   &lt;/li&gt;
@@ -2384,12 +2065,7 @@
             }
             .custom-content-wrapper--1570752002898 .section-logo--size img {
               width: 36px;
-          </v>
-      </c>
-    </row>
-    <row r="34" xml:space="preserve">
-      <c r="A34" t="str" xml:space="preserve">
-        <v xml:space="preserve">    margin-bottom: 15px;
+              margin-bottom: 15px;
             }
           &lt;/style&gt;
           &lt;div data-bgset id class="  custom-content-wrapper custom-content-wrapper--1570752002898 custom-content-wrapper--top-margin custom-content-wrapper--bottom-margin one-whole" data-section-id="1570752002898" data-section-type="custom-content"&gt;
@@ -2404,7 +2080,12 @@
               &lt;div class="custom-content main-contents custom-content--1570752002898"&gt;
                 &lt;div id class="  pivo-slider auto-tracking-slider custom__item custom__item--1570752150932 small--one-whole one-whole align--center"&gt;
                   &lt;div class="custom__item-inner custom__item-inner--html"&gt;
-                    &lt;div id="pivo-slide-barricade"&gt;
+                    &lt;</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str" xml:space="preserve">
+        <v xml:space="preserve">div id="pivo-slide-barricade"&gt;
                       &lt;div class="left-barricade"&gt;
                       &lt;/div&gt;
                       &lt;div class="video-slider carousel type-one-carousel"&gt;
@@ -2416,12 +2097,7 @@
 videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="txhkfkqmfg"&gt;
                             &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/txhkfkqmfg/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                           &lt;/div&gt;
-                          &lt;div class="mode-</v>
-      </c>
-    </row>
-    <row r="35" xml:space="preserve">
-      <c r="A35" t="str" xml:space="preserve">
-        <v xml:space="preserve">desc"&gt;
+                          &lt;div class="mode-desc"&gt;
                             &lt;h2 data-i18n="smart_tracking"&gt;&lt;span data-translate="24"&gt;Куда бы вы не направились, Pivo последует за вами&lt;/span&gt;&lt;/h2&gt;
                             &lt;p data-i18n="smart_tracking_desc"&gt;&lt;span data-translate="25"&gt;Face Tracking всегда держит вас в поле зрения, так что
                               вы никогда не уйдете с экрана и не испортите еще один почти идеальный дубль. Работает как
@@ -2432,7 +2108,12 @@
                           &lt;div class="desktop wistia_async_lw26fsjd4k  load_wistia wistia_embed videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%"&gt;
                             &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/lw26fsjd4k/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                           &lt;/div&gt;
-                          &lt;div class="mobile wistia_async_3dvscrfnop  load_wistia wistia_embed videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%"&gt;
+                          &lt;div class="mobile wistia_async_3dvscrfnop  load_wistia wistia_embed videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;wid</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str" xml:space="preserve">
+        <v xml:space="preserve">th:100%"&gt;
                             &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/3dvscrfnop/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                           &lt;/div&gt;
                           &lt;div class="mode-desc"&gt;
@@ -2456,12 +2137,7 @@
             .custom-content-wrapper--1558999154788 .custom-content__section-header {
               color: #869da5;
             }
-            .custom-content-wrapper--1558999154788 .custom-conte</v>
-      </c>
-    </row>
-    <row r="36" xml:space="preserve">
-      <c r="A36" t="str" xml:space="preserve">
-        <v xml:space="preserve">nt__section-header-desc {
+            .custom-content-wrapper--1558999154788 .custom-content__section-header-desc {
               color: ;
             }
             .custom-content-wrapper--1558999154788 {
@@ -2481,7 +2157,12 @@
               &lt;div class="custom-content main-contents custom-content--1558999154788"&gt;
                 &lt;div id class="   custom__item custom__item--1559112112161 small--one-whole one-whole align--center"&gt;
                   &lt;div class="custom__item-inner custom__item-inner--html"&gt;
-                    &lt;div class="desktop wistia_async_isqsjj7ni7  load_wistia wistia_embed  autoplay_wistia videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="isqsjj7ni7"&gt;
+            </v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str" xml:space="preserve">
+        <v xml:space="preserve">        &lt;div class="desktop wistia_async_isqsjj7ni7  load_wistia wistia_embed  autoplay_wistia videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="isqsjj7ni7"&gt;
                       &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;
 &lt;img src="https://fast.wistia.com/embed/medias/isqsjj7ni7/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;--&gt;
                     &lt;/div&gt;
@@ -2493,12 +2174,7 @@
                 &lt;div id class="  homepage--text custom__item custom__item--1558999154788-0 small--one-whole one-whole align--center"&gt;
                   &lt;div class="custom__item-inner custom__item-inner--text"&gt;
                     &lt;style&gt;
-                      .cust</v>
-      </c>
-    </row>
-    <row r="37" xml:space="preserve">
-      <c r="A37" t="str" xml:space="preserve">
-        <v xml:space="preserve">om-content-wrapper--1558999154788 .custom__item--1558999154788-0 .custom__block-heading-text {
+                      .custom-content-wrapper--1558999154788 .custom__item--1558999154788-0 .custom__block-heading-text {
                         color: #3a3a3a;
                       }
                       .custom-content-wrapper--1558999154788 .custom__item--1558999154788-0 .custom__block-body-text {
@@ -2526,7 +2202,12 @@
             .custom-content-wrapper--1558999863000 .custom-content__section-header-desc {
               color: ;
             }
-            .custom-content-wrapper--1558999863000 {
+     </v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str" xml:space="preserve">
+        <v xml:space="preserve">       .custom-content-wrapper--1558999863000 {
               background-color: #ffffff;
             }
             .custom-content-wrapper--1558999863000 .section-logo--size img {
@@ -2545,12 +2226,7 @@
                 &lt;div id class="   custom__item custom__item--1559212897571 small--one-whole one-whole align--center"&gt;
                   &lt;div class="custom__item-inner custom__item-inner--html"&gt;
                     &lt;div class="desktop wistia_async_xu2ctw8xwd load_wistia wistia_embed autoplay_wistia 
- videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data</v>
-      </c>
-    </row>
-    <row r="38" xml:space="preserve">
-      <c r="A38" t="str" xml:space="preserve">
-        <v xml:space="preserve">-id="xu2ctw8xwd"&gt;
+ videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="xu2ctw8xwd"&gt;
                       &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/xu2ctw8xwd/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                     &lt;/div&gt;
                     &lt;div class="mobile wistia_async_6llji8sa8k load_wistia wistia_embed autoplay_wistia 
@@ -2562,7 +2238,12 @@
                 &lt;div id class="  homepage--text multi-stream__text custom__item custom__item--1558999863000-0 small--one-whole medium-up--one-half align--center"&gt;
                   &lt;div class="custom__item-inner custom__item-inner--text"&gt;
                     &lt;style&gt;
-                      .custom-content-wrapper--1558999863000 .custom__item--1558999863000-0 .custom__block-heading-text {
+                      .</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str" xml:space="preserve">
+        <v xml:space="preserve">custom-content-wrapper--1558999863000 .custom__item--1558999863000-0 .custom__block-heading-text {
                         color: #3a3a3a;
                       }
                       .custom-content-wrapper--1558999863000 .custom__item--1558999863000-0 .custom__block-body-text {
@@ -2589,12 +2270,7 @@
                       .custom__item--1579486037741 {
                         margin-left: 0 !important;
                       }
-   </v>
-      </c>
-    </row>
-    <row r="39" xml:space="preserve">
-      <c r="A39" t="str" xml:space="preserve">
-        <v xml:space="preserve">                 &lt;/style&gt;
+                    &lt;/style&gt;
                     &lt;div class="custom__block-image-container" style="padding-top:12.612035851472472%"&gt;
                       &lt;img class="custom__block-image lazyload" data-src="//cdn.shopify.com/s/files/1/2065/8833/files/multiple_platforms_{width}x.png?v=1581381230" data-widths="[180, 360, 540, 720, 900, 1080, 1296, 1512, 1728, 2048]" data-aspectratio="7.928934010152284" data-sizes="auto" alt="sns collection"&gt;
                       &lt;noscript&gt;&lt;span data-translate="34"&gt;&lt;span data-translate="34"&gt;&lt;img src="img/multiple_platforms_1024x1024.png" alt="sns collection" class="custom__block-image"&gt;
@@ -2617,7 +2293,12 @@
             .custom-content-wrapper--1558999999655 {
               background-color: #ffffff;
             }
-            .custom-content-wrapper--1558999999655 .section-logo--size img {
+            .custom-content-wrapper--1558999999655 .section-logo--size</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str" xml:space="preserve">
+        <v xml:space="preserve"> img {
               width: 70px;
               margin-bottom: 15px;
             }
@@ -2635,12 +2316,7 @@
                     &lt;div class="video-slider carousel type-one-carousel"&gt;
                       &lt;div class&gt;
                         &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/Many-Me-web.jpg?v=1590022411" class="lazyload desktop" alt="manyme web" style&gt;
-                        &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/ManyMe-Mobile.jpg?v=1590020006" class="lazyload mobil</v>
-      </c>
-    </row>
-    <row r="40" xml:space="preserve">
-      <c r="A40" t="str" xml:space="preserve">
-        <v xml:space="preserve">e" alt="manyme mobile" style&gt;
+                        &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/ManyMe-Mobile.jpg?v=1590020006" class="lazyload mobile" alt="manyme mobile" style&gt;
                       &lt;/div&gt;
                       &lt;div class style&gt;
                         &lt;div class="mobile
@@ -2659,7 +2335,12 @@
                         &lt;/div&gt;
                       &lt;/div&gt;
                     &lt;/div&gt;
-                    &lt;div class="mode-desc" style="padding:0 5%;"&gt;
+                    </v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;div class="mode-desc" style="padding:0 5%;"&gt;
                       &lt;p data-i18n="many_me_desc"&gt;&lt;span data-translate="37"&gt;Умножьте себя до 15 раз и создайте столько разных версий себя,
                         сколько вы хотите, в одном и том же месте, в одной и той же картине.&lt;/span&gt;&lt;/p&gt;
                     &lt;/div&gt;
@@ -2688,12 +2369,7 @@
           &lt;div data-bgset id class="  custom-content-wrapper custom-content-wrapper--1559000137865 custom-content-wrapper--top-margin custom-content-wrapper--bottom-margin one-whole" data-section-id="1559000137865" data-section-type="custom-content"&gt;
             &lt;div class="page-width "&gt;
               &lt;div class="page-width-header custom-content"&gt;
-                &lt;h2 class="custom__item custom-content__section-header custom-content__section-header-</v>
-      </c>
-    </row>
-    <row r="41" xml:space="preserve">
-      <c r="A41" t="str" xml:space="preserve">
-        <v xml:space="preserve">-cap  text-center" data-i18n="motion_time_lapse"&gt;&lt;span data-translate="38"&gt;ВРЕМЕННОЙ ИНТЕРВАЛ ДВИЖЕНИЯ&lt;/span&gt;&lt;/h2&gt;
+                &lt;h2 class="custom__item custom-content__section-header custom-content__section-header--cap  text-center" data-i18n="motion_time_lapse"&gt;&lt;span data-translate="38"&gt;ВРЕМЕННОЙ ИНТЕРВАЛ ДВИЖЕНИЯ&lt;/span&gt;&lt;/h2&gt;
                 &lt;p class="custom__item text-center custom-content__section-header-desc" data-i18n="time_lapse_title"&gt;&lt;span data-translate="39"&gt;Более иммерсивный. Всегда широкомасштабный.&lt;/span&gt;&lt;/p&gt;
               &lt;/div&gt;
               &lt;div class="custom-content main-contents custom-content--1559000137865"&gt;
@@ -2703,7 +2379,12 @@
                       &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/om2ehdhm1e/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                     &lt;/div&gt;
                     &lt;div class="mobile wistia_async_rjcdmrghzp load_wistia wistia_embed autoplay_wistia 
- videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="rjcdmrghzp"&gt;
+ videoFoam=true playsuspendedoffscreen=tru</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str" xml:space="preserve">
+        <v xml:space="preserve">e preload=none" style="height:100%;position:relative;width:100%" data-id="rjcdmrghzp"&gt;
                       &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/rjcdmrghzp/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                     &lt;/div&gt;
                   &lt;/div&gt;
@@ -2722,12 +2403,7 @@
                     &lt;div class="text-center text-center--mobile"&gt;
                       &lt;div class="custom__block-body-text rte-setting" data-i18n="timelap_desc"&gt;
                         &lt;p&gt;&lt;span data-translate="40"&gt;Съемка с помощью Pivo Motion Time Lapse переводит традиционные фотографии с временным
-                          отставанием на другой уровень </v>
-      </c>
-    </row>
-    <row r="42" xml:space="preserve">
-      <c r="A42" t="str" xml:space="preserve">
-        <v xml:space="preserve">динамики. В чем секрет? Плавное 360-градусное горизонтальное
+                          отставанием на другой уровень динамики. В чем секрет? Плавное 360-градусное горизонтальное
                           панорамирование камеры.&lt;/span&gt;&lt;/p&gt;
                       &lt;/div&gt;
                     &lt;/div&gt;
@@ -2753,7 +2429,12 @@
           &lt;div data-bgset id class=" latest custom-content-wrapper custom-content-wrapper--1589945912443 custom-content-wrapper--top-margin custom-content-wrapper--bottom-margin one-whole" data-section-id="1589945912443" data-section-type="custom-content"&gt;
             &lt;div class="page-width "&gt;
               &lt;div class="page-width-header custom-content"&gt;
-                &lt;h2 class="custom__item custom-content__section-header custom-content__section-header--cap  text-center" data-i18n="pivorama"&gt;&lt;span data-translate="41"&gt;PIVORAMA&lt;/span&gt;&lt;/h2&gt;
+                &lt;h2 class="custom__item custom-content__section-header custom-content__section-header--cap  text-center" data-i18n="pivorama"&gt;&lt;span data-translate="41"&gt;PIVORAMA</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str" xml:space="preserve">
+        <v xml:space="preserve">&lt;/span&gt;&lt;/h2&gt;
                 &lt;p class="custom__item text-center custom-content__section-header-desc" data-i18n="pivorama_title"&gt;&lt;span data-translate="42"&gt;Идеальная панорама и Миниатюрная планета.&lt;/span&gt;&lt;/p&gt;
               &lt;/div&gt;
               &lt;div class="custom-content main-contents custom-content--1589945912443"&gt;
@@ -2777,12 +2458,7 @@
               color: #035e88;
             }
             .custom-content-wrapper--1571029054276 {
-              background</v>
-      </c>
-    </row>
-    <row r="43" xml:space="preserve">
-      <c r="A43" t="str" xml:space="preserve">
-        <v xml:space="preserve">-color: #ffffff;
+              background-color: #ffffff;
             }
             .custom-content-wrapper--1571029054276 .section-logo--size img {
               width: 70px;
@@ -2798,7 +2474,12 @@
               &lt;div class="custom-content main-contents custom-content--1571029054276"&gt;
                 &lt;div id class="  pivo-slider wide-angle-slider custom__item custom__item--1571029155455 small--one-whole one-whole align--center"&gt;
                   &lt;div class="custom__item-inner custom__item-inner--html"&gt;
-                    &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/Tinyplanets.jpg?v=1583740002" alt="tiny planet" class="lazyload"&gt;
+                    &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/Tinyplanets.jpg?v=1583740002" alt="ti</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str" xml:space="preserve">
+        <v xml:space="preserve">ny planet" class="lazyload"&gt;
                     &lt;div class="mode-desc"&gt;
                       &lt;p data-i18n="tiny_planet_desc"&gt;&lt;span data-translate="46"&gt;Заставь мир вращаться вокруг тебя! Идеально подходит для
                         совместного использования в любимых социальных сетях.&lt;/span&gt;&lt;/p&gt;
@@ -2834,12 +2515,7 @@
             .custom-content-wrapper--1589946164634 .custom-content__section-header-desc {
               color: ;
             }
-            .custom-content-wrappe</v>
-      </c>
-    </row>
-    <row r="44" xml:space="preserve">
-      <c r="A44" t="str" xml:space="preserve">
-        <v xml:space="preserve">r--1589946164634 .section-logo--size img {
+            .custom-content-wrapper--1589946164634 .section-logo--size img {
               width: 70px;
               margin-bottom: 15px;
             }
@@ -2856,7 +2532,12 @@
                   &lt;div class="custom__item-inner custom__item-inner--html"&gt;
                     &lt;div class="video-slider carousel type-two-carousel"&gt;
                       &lt;div class&gt;
-                        &lt;div class="desktop wistia_async_7hgvts3cre load_wistia wistia_embed  autoplay_wistia videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="7hgvts3cre"&gt;
+                        &lt;div class="desktop wistia_async_7hgvts3cre load_wistia wistia_embed  autoplay_wistia videoFoa</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str" xml:space="preserve">
+        <v xml:space="preserve">m=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="7hgvts3cre"&gt;
                           &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/7hgvts3cre/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                         &lt;/div&gt;
                         &lt;div class="mobile wistia_async_21yhcrress load_wistia wistia_embed autoplay_wistia 
@@ -2866,12 +2547,7 @@
                       &lt;/div&gt;
                       &lt;div class style&gt;
                         &lt;div class="desktop  wistia_async_wxupvcz648 load_wistia wistia_embed videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%"&gt; &lt;/div&gt;
-                        &lt;div class="mobile  wistia_async_pc8t7dpbew load_wistia wistia_embed videoFoam=true playsuspendedo</v>
-      </c>
-    </row>
-    <row r="45" xml:space="preserve">
-      <c r="A45" t="str" xml:space="preserve">
-        <v xml:space="preserve">ffscreen=true preload=none" style="height:100%;position:relative;width:100%"&gt; &lt;/div&gt;
+                        &lt;div class="mobile  wistia_async_pc8t7dpbew load_wistia wistia_embed videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%"&gt; &lt;/div&gt;
                       &lt;/div&gt;
                     &lt;/div&gt;
                   &lt;/div&gt;
@@ -2898,7 +2574,12 @@
             &lt;/div&gt;
           &lt;/div&gt;
         &lt;/div&gt;
-        &lt;div id="shopify-section-1572228880285" class="shopify-section index-section index-section--custom-content"&gt;
+        &lt;div id="shopify-section-15722288802</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str" xml:space="preserve">
+        <v xml:space="preserve">85" class="shopify-section index-section index-section--custom-content"&gt;
           &lt;style&gt;
             .custom-content-wrapper--1572228880285 .custom-content__section-header {
               color: #035e88;
@@ -2921,12 +2602,7 @@
                 &lt;p class="custom__item text-center custom-content__section-header-desc" data-i18n="special_effect_title"&gt;&lt;span data-translate="51"&gt;Готовые эффекты.&lt;/span&gt;&lt;/p&gt;
               &lt;/div&gt;
               &lt;div class="custom-content main-contents custom-content--1572228880285"&gt;
-                &lt;div id class="   custom__item custom__item--1572228967517 small--one-whole </v>
-      </c>
-    </row>
-    <row r="46" xml:space="preserve">
-      <c r="A46" t="str" xml:space="preserve">
-        <v xml:space="preserve">one-whole align--center"&gt;
+                &lt;div id class="   custom__item custom__item--1572228967517 small--one-whole one-whole align--center"&gt;
                   &lt;div class="custom__item-inner custom__item-inner--html"&gt;
                     &lt;div class="desktop wistia_async_fos69o1qpw load_wistia wistia_embed autoplay_wistia  videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="fos69o1qpw"&gt;
                       &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/fos69o1qpw/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
@@ -2934,7 +2610,12 @@
                     &lt;div class="mobile wistia_async_scseu1w4o4 load_wistia wistia_embed autoplay_wistia  videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="scseu1w4o4"&gt;
                       &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/scseu1w4o4/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                     &lt;/div&gt;
-                    &lt;div class="mode-desc custom__block-body-text mode-desc--top"&gt;
+                    &lt;div cla</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str" xml:space="preserve">
+        <v xml:space="preserve">ss="mode-desc custom__block-body-text mode-desc--top"&gt;
                       &lt;h2 style="color:white; margin-bottom:10px;" data-i18n="special_effect_subtitle"&gt;&lt;span data-translate="52"&gt;Double Take,
                         Flash, Versus&lt;/span&gt;&lt;/h2&gt;
                       &lt;p style="color:white;" data-i18n="special_effect_desc"&gt;&lt;span data-translate="53"&gt;Соберите вместе отдельные мероприятия для
@@ -2963,12 +2644,7 @@
               margin-bottom: 15px;
             }
           &lt;/style&gt;
-          &lt;div data-bgset id class=" pivo-pod custom-content-wrapper custom-content-wrapper--1559000796350 custom-content-wrapper--top-margin c</v>
-      </c>
-    </row>
-    <row r="47" xml:space="preserve">
-      <c r="A47" t="str" xml:space="preserve">
-        <v xml:space="preserve">ustom-content-wrapper--bottom-margin one-whole" data-section-id="1559000796350" data-section-type="custom-content"&gt;
+          &lt;div data-bgset id class=" pivo-pod custom-content-wrapper custom-content-wrapper--1559000796350 custom-content-wrapper--top-margin custom-content-wrapper--bottom-margin one-whole" data-section-id="1559000796350" data-section-type="custom-content"&gt;
             &lt;div class="page-width full-size"&gt;
               &lt;div class="page-width-header custom-content"&gt;
                 &lt;div class="custom__item section-logo--size"&gt;
@@ -2984,7 +2660,12 @@
                     &lt;div id="pivo-slide-barricade"&gt;
                       &lt;div class="left-barricade"&gt;
                       &lt;/div&gt;
-                      &lt;div class="video-slider carousel type-two-carousel pivo-pod-slider"&gt;
+                      &lt;div class="video-slider carousel type-two-carousel </v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str" xml:space="preserve">
+        <v xml:space="preserve">pivo-pod-slider"&gt;
                         &lt;div&gt;
                           &lt;div class="desktop wistia_async_rehnmfmzv2 load_wistia wistia_embed autoplay_wistia  videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%" data-id="rehnmfmzv2"&gt;
                             &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/rehnmfmzv2/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
@@ -2994,12 +2675,7 @@
                           &lt;/div&gt;
                           &lt;div class="mode-desc"&gt;
                             &lt;h2 data-i18n="portable"&gt;&lt;span data-translate="56"&gt;Идеально портативный&lt;/span&gt;&lt;/h2&gt;
-                            &lt;p data-i18n="portable_desc"</v>
-      </c>
-    </row>
-    <row r="48" xml:space="preserve">
-      <c r="A48" t="str" xml:space="preserve">
-        <v xml:space="preserve">&gt;&lt;span data-translate="57"&gt;Возьмите Pivo to-go с автоматическим вращением на 360°,
+                            &lt;p data-i18n="portable_desc"&gt;&lt;span data-translate="57"&gt;Возьмите Pivo to-go с автоматическим вращением на 360°,
                               выдвижными стабилизирующими ножками и поддержкой стандартных штативов камеры.&lt;/span&gt;&lt;/p&gt;
                           &lt;/div&gt;
                         &lt;/div&gt;
@@ -3009,7 +2685,12 @@
  wistia_async_ghsj3h9say load_wistia wistia_embed videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%"&gt;&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/ghsj3h9say/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;" /&gt;&lt;/div&gt;&lt;/div&gt;
 &lt;div class="mobile wistia_async_7sfbdipf92 load_wistia wistia_embed videoFoam=true playsuspendedoffscreen=true preload=none" style="height:100%;position:relative;width:100%"&gt;&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/7sfbdipf92/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;" /&gt;&lt;/div&gt;&lt;/div&gt;
 &lt;div class="mode-desc"&gt;
-&lt;h2 data-i18n="lean_machine"&gt;Lean, mean, selfie machine&lt;/h2&gt;
+&lt;h2 da</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str" xml:space="preserve">
+        <v xml:space="preserve">ta-i18n="lean_machine"&gt;Lean, mean, selfie machine&lt;/h2&gt;
 &lt;p data-i18n="lean_machine_desc"&gt;Hit your best angles every time with the Adjustable mount. Tilt angle: 30°- 50°.&lt;/p&gt;
 &lt;/div&gt;
 &lt;/div&gt; --&gt;
@@ -3021,12 +2702,7 @@
                             &lt;!--&lt;div class="wistia_swatch" style="height:100%;left:0;opacity:0;overflow:hidden;position:absolute;top:0;transition:opacity 200ms;width:100%;"&gt;&lt;img src="https://fast.wistia.com/embed/medias/7u8j0swuhk/swatch" style="filter:blur(5px);height:100%;object-fit:contain;width:100%;" alt="" aria-hidden="true" onload="this.parentNode.style.opacity=1;"&gt;&lt;/div&gt;--&gt;
                           &lt;/div&gt;
                           &lt;div class="mode-desc"&gt;
-                            &lt;h2 data-i18n="steady_footing"&gt;&lt;span data-tr</v>
-      </c>
-    </row>
-    <row r="49" xml:space="preserve">
-      <c r="A49" t="str" xml:space="preserve">
-        <v xml:space="preserve">anslate="58"&gt;Устойчивая основа&lt;/span&gt;&lt;/h2&gt;
+                            &lt;h2 data-i18n="steady_footing"&gt;&lt;span data-translate="58"&gt;Устойчивая основа&lt;/span&gt;&lt;/h2&gt;
                             &lt;p data-i18n="steady_footing_desc"&gt;&lt;span data-translate="59"&gt;Вытяните ножки Pivo для дополнительной устойчивости или
                               просто прикрепите их к любому стандартному штативу с резьбой ¼".&lt;/span&gt;&lt;/p&gt;
                           &lt;/div&gt;
@@ -3048,7 +2724,12 @@
             &lt;/div&gt;
           &lt;/div&gt;
         &lt;/div&gt;
-        &lt;div id="shopify-section-1559000863269" class="shopify-section index-section index-section--custom-content"&gt;
+        &lt;div id="shopify-section-1559000863269" cl</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str" xml:space="preserve">
+        <v xml:space="preserve">ass="shopify-section index-section index-section--custom-content"&gt;
           &lt;style&gt;
             .custom-content-wrapper--1559000863269 .custom-content__section-header {
               color: #ec2544;
@@ -3074,12 +2755,7 @@
                       &lt;/div&gt;
                       &lt;div class="video-slider carousel type-two-carousel"&gt;
                         &lt;div&gt;
-                          &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/Turntable_web.jpg?51280" alt="Turntable web" class=</v>
-      </c>
-    </row>
-    <row r="50" xml:space="preserve">
-      <c r="A50" t="str" xml:space="preserve">
-        <v xml:space="preserve">"lazyload desktop"&gt;
+                          &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/Turntable_web.jpg?51280" alt="Turntable web" class="lazyload desktop"&gt;
                           &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/Turntable_Mobile.jpg?51280" alt="Turntable mobile" class="lazyload mobile"&gt;
                           &lt;div class="mode-desc"&gt;
                             &lt;h2 data-i18n="turntable"&gt;&lt;span data-translate="62"&gt;Вертушка&lt;/span&gt;&lt;/h2&gt;
@@ -3092,7 +2768,12 @@
                           &lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/Copy_of_Compact_studio-webjpg@2x.jpg" style="width:100%;" alt="lightbox web" class="lazyload desktop"&gt;&lt;img data-src="https://cdn.shopify.com/s/files/1/2065/8833/files/Compact_studio-Mobile_96784c34-87d7-4f70-8c9a-2bebea9d7b0c.jpg?v=1560926784" style="width:100%;" alt="lightbox mobile" class="lazyload mobile"&gt;
                           &lt;div class="mode-desc"&gt;
                             &lt;h2 data-i18n="lightbox"&gt;&lt;span data-translate="64"&gt;Лайтбокс&lt;/span&gt;&lt;/h2&gt;
-                            &lt;p data-i18n="lightbox_desc"&gt;&lt;span data-translate="65"&gt;Дайте своей продукции профессиональную среду освещения,
+                            &lt;p data-i18n="lightbox_desc"&gt;&lt;span data-translate=</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str" xml:space="preserve">
+        <v xml:space="preserve">"65"&gt;Дайте своей продукции профессиональную среду освещения,
                               которую они заслуживают. Идеально сочетаются с вертушкой.&lt;/span&gt;&lt;/p&gt;
                           &lt;/div&gt;
                         &lt;/div&gt;
@@ -3117,12 +2798,7 @@
         &lt;div id="shopify-section-1577342158977" class="shopify-section index-section index-section--custom-content"&gt;
           &lt;style&gt;
             .custom-content-wrapper--1577342158977 .custom-content__section-header {
-              c</v>
-      </c>
-    </row>
-    <row r="51" xml:space="preserve">
-      <c r="A51" t="str" xml:space="preserve">
-        <v xml:space="preserve">olor: #ec2544;
+              color: #ec2544;
             }
             .custom-content-wrapper--1577342158977 .custom-content__section-header-desc {
               color: ;
@@ -3151,7 +2827,12 @@
               background-color: #ffffff;
             }
             .custom-content-wrapper--1571008651045 .section-logo--size img {
-              width: 36px;
+          </v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str" xml:space="preserve">
+        <v xml:space="preserve">    width: 36px;
               margin-bottom: 15px;
             }
           &lt;/style&gt;
@@ -3179,12 +2860,7 @@
               background-color: #c0ccd0;
             }
             .custom-content-wrapper--1579485461755 .section-logo--size img {
-              width: 7</v>
-      </c>
-    </row>
-    <row r="52" xml:space="preserve">
-      <c r="A52" t="str" xml:space="preserve">
-        <v xml:space="preserve">0px;
+              width: 70px;
               margin-bottom: 15px;
             }
           &lt;/style&gt;
@@ -3213,7 +2889,12 @@
             .custom-content-wrapper--1571046462449 .custom-content__section-header {
               color: #3a3a3a;
             }
-            .custom-content-wrapper--1571046462449 .custom-content__section-header-desc {
+            .custom-conte</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str" xml:space="preserve">
+        <v xml:space="preserve">nt-wrapper--1571046462449 .custom-content__section-header-desc {
               color: ;
             }
             .custom-content-wrapper--1571046462449 {
@@ -3239,12 +2920,7 @@
                         &lt;div class="item-desc" data-i18n="reduced_shipping"&gt;&lt;span data-translate="68"&gt;Worldwide&lt;/span&gt;&lt;br&gt;&lt;span data-translate="69"&gt;Доставка&lt;/span&gt;&lt;/div&gt;
                       &lt;/div&gt;
                       &lt;div class="contain-item "&gt;
- </v>
-      </c>
-    </row>
-    <row r="53" xml:space="preserve">
-      <c r="A53" t="str" xml:space="preserve">
-        <v xml:space="preserve">                       &lt;div class="item-image icon-warranty"&gt;&lt;/div&gt;
+                        &lt;div class="item-image icon-warranty"&gt;&lt;/div&gt;
                         &lt;div class="item-desc" data-i18n="year_warranty"&gt;&lt;span data-translate="70"&gt;1 год гарантии&lt;/span&gt;&lt;/div&gt;
                       &lt;/div&gt;
                       &lt;div class="contain-item"&gt;
@@ -3276,7 +2952,12 @@
           max-width: 500px;
           margin: 0 auto;
           display: grid;
-          padding: 40px 15px;
+          paddin</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str" xml:space="preserve">
+        <v xml:space="preserve">g: 40px 15px;
         }
         .offer__form button,
         input {
@@ -3299,18 +2980,12 @@
             &lt;div class="flex-footer "&gt;
               &lt;div class="site-footer__logo-wrapper flex-footer__item"&gt;
                 &lt;div class&gt;
-                  &lt;div class="site-footer__logo pivo-logo-light" style="margin-bottom: 20px;"&gt;&lt;/div&gt;
                 &lt;/div&gt;
               &lt;/div&gt;
             &lt;/div&gt;
           &lt;/div&gt;
           &lt;div class="page-width pivo-footer site-footer__bottom"&gt;
-            &lt;div class="flex-footer flex-footer--info flex-medium-up--one-third fle</v>
-      </c>
-    </row>
-    <row r="54" xml:space="preserve">
-      <c r="A54" t="str" xml:space="preserve">
-        <v xml:space="preserve">x-small--one-whole flex-footer--left "&gt;
+            &lt;div class="flex-footer flex-footer--info flex-medium-up--one-third flex-small--one-whole flex-footer--left "&gt;
               &lt;span data-i18n="company_info"&gt;&lt;/span&gt;&lt;span data-translate="75"&gt;ⓒ2020 GADGET SHOP, Calle de Boldano, 33, 28027 Madrid, Spain
               (поменять в соответствии с гео)&lt;/span&gt;&lt;br&gt;
               &lt;div style="display: grid"&gt;&lt;a href="/privacypolicy" target="_blank"&gt;&lt;span data-translate="76"&gt;Privacy policy&lt;/span&gt;&lt;/a&gt;
@@ -3350,7 +3025,12 @@
             color: #aaa;
           }
           .lan_select-box {
-            position: fixed;
+            position</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str" xml:space="preserve">
+        <v xml:space="preserve">: fixed;
             max-width: 1000px;
             min-width: 800px;
             top: 50%;
@@ -3402,12 +3082,7 @@
             color: #ec2544;
           }
           .redBorder {
-            border-left: 1px solid red</v>
-      </c>
-    </row>
-    <row r="55" xml:space="preserve">
-      <c r="A55" t="str" xml:space="preserve">
-        <v xml:space="preserve">;
+            border-left: 1px solid red;
           }
           .countryFlag {
             width: 25px;
@@ -3456,7 +3131,12 @@
           .country-language a:hover {
             color: #ec2544;
           }
-          .newSelector_popup-right .locale-select-country-items {
+          .newSelector_popup-right .locale-select-country-item</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str" xml:space="preserve">
+        <v xml:space="preserve">s {
             height: 0;
             overflow: hidden;
           }
@@ -3502,12 +3182,7 @@
             }
             .newSelector_popup-leftItem.selected .locale-select-country-items {
               max-height: 1000px;
-              width: unset</v>
-      </c>
-    </row>
-    <row r="56" xml:space="preserve">
-      <c r="A56" t="str" xml:space="preserve">
-        <v xml:space="preserve">;
+              width: unset;
             }
           }
         &lt;/style&gt;
@@ -3541,7 +3216,12 @@
               if (current == e.target) {
                 console.log("clicking.. same...");
                 return false;
-              }
+       </v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
+      <c r="A52" t="str" xml:space="preserve">
+        <v xml:space="preserve">       }
               var before = document.querySelectorAll(
                 ".locale_select_country-selected"
               );
@@ -3576,12 +3256,7 @@
               }
             });
           });
-          (functi</v>
-      </c>
-    </row>
-    <row r="57" xml:space="preserve">
-      <c r="A57" t="str" xml:space="preserve">
-        <v xml:space="preserve">on init() {
+          (function init() {
             var newCreatedElement = createLangElement(lan_selector_obj.NA);
             newSelector_popup_right.insertAdjacentHTML(
               "beforeend",
@@ -3612,7 +3287,12 @@
               countryHtml = "";
               for (var j = 0; j &lt; elemData.country[i].lang.length; j += 1) {
                 countryHtml +=
-                  '&lt;div class="country-language"&gt;&lt;a href="' +
+                  '&lt;div</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str" xml:space="preserve">
+        <v xml:space="preserve"> class="country-language"&gt;&lt;a href="' +
                   elemData.country[i].lang[j].link + '"&gt;' +
                   elemData.country[i].lang[j].name +
                   "&lt;/a&gt;&lt;/div&gt;";
@@ -3648,7 +3328,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A53"/>
   </ignoredErrors>
 </worksheet>
 </file>